--- a/document/下级代理帐变报表.xlsx
+++ b/document/下级代理帐变报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -171,7 +171,29 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>MC百家乐09</t>
+      <t>MC百家乐03</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MC龙虎斗</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MC斗牛</t>
     </r>
   </si>
   <si>
@@ -193,7 +215,172 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
+      <t>MC百家乐05</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MC百家乐07</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>MC百家乐04</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MC真人百家乐</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MC百家乐02</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MC百家乐09</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MC百家乐01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MC百家乐08</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MC秒速赛车</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>澳洲幸运5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加拿大PC28</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>幸运赛车</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>澳洲幸运10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>极速时时彩</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>台湾大乐透</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF606266"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>幸运飞艇</t>
     </r>
   </si>
   <si>
@@ -215,7 +402,7 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>MC三分六合彩</t>
+      <t>MC十分快三</t>
     </r>
   </si>
   <si>
@@ -226,7 +413,7 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>MC百家乐01</t>
+      <t>MC十分六合彩</t>
     </r>
   </si>
   <si>
@@ -248,7 +435,7 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>MC真人百家乐</t>
+      <t>极速赛车</t>
     </r>
   </si>
   <si>
@@ -259,7 +446,7 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>MC秒速赛车</t>
+      <t>香港六合彩</t>
     </r>
   </si>
   <si>
@@ -270,7 +457,7 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>澳洲幸运10</t>
+      <t>MC三分六合彩</t>
     </r>
   </si>
   <si>
@@ -292,7 +479,7 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>加拿大PC28</t>
+      <t>台湾六合彩</t>
     </r>
   </si>
   <si>
@@ -303,18 +490,7 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>澳洲幸运5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF606266"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>幸运飞艇</t>
+      <t>MC一分快三</t>
     </r>
   </si>
   <si>
@@ -336,40 +512,7 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>MC斗牛</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF606266"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>幸运赛车</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF606266"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>台湾大乐透</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF606266"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>香港六合彩</t>
+      <t>极速飞艇</t>
     </r>
   </si>
   <si>
@@ -381,149 +524,6 @@
         <charset val="134"/>
       </rPr>
       <t>体育</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF606266"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>MC十分六合彩</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF606266"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>台湾六合彩</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF606266"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>MC十分快三</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF606266"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>极速飞艇</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF606266"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>MC龙虎斗</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF606266"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>极速时时彩</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF606266"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>极速赛车</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF606266"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>MC一分快三</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF606266"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>MC百家乐08</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF606266"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>MC百家乐03</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF606266"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>MC百家乐02</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF606266"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>MC百家乐05</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF606266"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>MC百家乐07</t>
     </r>
   </si>
 </sst>
@@ -1568,8 +1568,8 @@
   <sheetPr/>
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1668,70 +1668,70 @@
         <v>24</v>
       </c>
       <c r="B2" s="1">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1">
-        <v>236</v>
+        <v>143</v>
       </c>
       <c r="D2" s="1">
-        <v>262078</v>
+        <v>463551</v>
       </c>
       <c r="E2" s="1">
-        <v>1297.26</v>
+        <v>1789</v>
       </c>
       <c r="F2" s="1">
         <v>5</v>
       </c>
       <c r="G2" s="1">
-        <v>692</v>
+        <v>980</v>
       </c>
       <c r="H2" s="1">
         <v>45</v>
       </c>
       <c r="I2" s="1">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J2" s="1">
-        <v>205664</v>
+        <v>377830</v>
       </c>
       <c r="K2" s="1">
-        <v>56414</v>
+        <v>85721</v>
       </c>
       <c r="L2" s="1">
-        <v>55500</v>
+        <v>66877</v>
       </c>
       <c r="M2" s="1">
-        <v>98433</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="P2" s="1">
-        <v>2361.519</v>
+        <v>12689.327</v>
       </c>
       <c r="Q2" s="1">
-        <v>206578</v>
+        <v>396674</v>
       </c>
       <c r="R2" s="1">
-        <v>1302440</v>
+        <v>3595937</v>
       </c>
       <c r="S2" s="1">
-        <v>107231</v>
+        <v>377830</v>
       </c>
       <c r="T2" s="1">
-        <v>1297.26</v>
+        <v>2089</v>
       </c>
       <c r="U2" s="1">
-        <v>10531.591</v>
+        <v>7049.333</v>
       </c>
       <c r="V2" s="1">
         <v>0</v>
       </c>
       <c r="W2" s="1">
-        <v>1231835.63</v>
+        <v>3488388.34</v>
       </c>
       <c r="X2" s="1">
         <v>0</v>
@@ -1743,70 +1743,70 @@
         <v>25</v>
       </c>
       <c r="B3" s="2">
-        <v>294</v>
+        <v>203</v>
       </c>
       <c r="C3" s="2">
-        <v>727</v>
+        <v>498</v>
       </c>
       <c r="D3" s="2">
-        <v>319458</v>
+        <v>325682</v>
       </c>
       <c r="E3" s="2">
-        <v>11255</v>
+        <v>7812</v>
       </c>
       <c r="F3" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2">
-        <v>4210</v>
+        <v>13440</v>
       </c>
       <c r="H3" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="I3" s="2">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="J3" s="2">
-        <v>240905</v>
+        <v>284613</v>
       </c>
       <c r="K3" s="2">
-        <v>78553</v>
+        <v>41069</v>
       </c>
       <c r="L3" s="2">
-        <v>3588</v>
+        <v>23300</v>
       </c>
       <c r="M3" s="2">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
       </c>
       <c r="O3" s="2">
-        <v>283</v>
+        <v>200</v>
       </c>
       <c r="P3" s="2">
-        <v>4500.531</v>
+        <v>3734.896</v>
       </c>
       <c r="Q3" s="2">
-        <v>315870</v>
+        <v>302382</v>
       </c>
       <c r="R3" s="2">
-        <v>2222621</v>
+        <v>2382443</v>
       </c>
       <c r="S3" s="2">
-        <v>240905</v>
+        <v>284511</v>
       </c>
       <c r="T3" s="2">
-        <v>12835.85</v>
+        <v>7856.41</v>
       </c>
       <c r="U3" s="2">
-        <v>-69414.441</v>
+        <v>5238.474</v>
       </c>
       <c r="V3" s="2">
         <v>0</v>
       </c>
       <c r="W3" s="2">
-        <v>2196146.06</v>
+        <v>2324544.22</v>
       </c>
       <c r="X3" s="2">
         <v>0</v>
@@ -1816,74 +1816,74 @@
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="2">
-        <v>70</v>
-      </c>
-      <c r="C4" s="2">
-        <v>151</v>
-      </c>
-      <c r="D4" s="2">
-        <v>110505</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3352</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2">
-        <v>600</v>
-      </c>
-      <c r="H4" s="2">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2">
-        <v>45</v>
-      </c>
-      <c r="J4" s="2">
-        <v>124960</v>
-      </c>
-      <c r="K4" s="2">
-        <v>-14455</v>
-      </c>
-      <c r="L4" s="2">
-        <v>9005</v>
-      </c>
-      <c r="M4" s="2">
-        <v>4000</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>70</v>
-      </c>
-      <c r="P4" s="2">
-        <v>6287.943</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>101500</v>
-      </c>
-      <c r="R4" s="2">
-        <v>869221</v>
-      </c>
-      <c r="S4" s="2">
-        <v>120960</v>
-      </c>
-      <c r="T4" s="2">
-        <v>3375.78</v>
-      </c>
-      <c r="U4" s="2">
-        <v>31300.7456</v>
-      </c>
-      <c r="V4" s="2">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2">
-        <v>842004.39</v>
-      </c>
-      <c r="X4" s="2">
-        <v>707.1414</v>
+      <c r="B4" s="1">
+        <v>74</v>
+      </c>
+      <c r="C4" s="1">
+        <v>227</v>
+      </c>
+      <c r="D4" s="1">
+        <v>233978</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5579</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>200</v>
+      </c>
+      <c r="H4" s="1">
+        <v>32</v>
+      </c>
+      <c r="I4" s="1">
+        <v>63</v>
+      </c>
+      <c r="J4" s="1">
+        <v>136209</v>
+      </c>
+      <c r="K4" s="1">
+        <v>97769</v>
+      </c>
+      <c r="L4" s="1">
+        <v>67829</v>
+      </c>
+      <c r="M4" s="1">
+        <v>9741</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>74</v>
+      </c>
+      <c r="P4" s="1">
+        <v>23326.4563</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>166149</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1986183</v>
+      </c>
+      <c r="S4" s="1">
+        <v>126468</v>
+      </c>
+      <c r="T4" s="1">
+        <v>5652.79</v>
+      </c>
+      <c r="U4" s="1">
+        <v>-15904.5905</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1873099.63</v>
+      </c>
+      <c r="X4" s="1">
+        <v>2239.7142</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:25">
@@ -1894,31 +1894,31 @@
         <v>17</v>
       </c>
       <c r="C5" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1">
-        <v>63332</v>
+        <v>42529</v>
       </c>
       <c r="E5" s="1">
-        <v>280</v>
+        <v>134</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H5" s="1">
         <v>10</v>
       </c>
       <c r="I5" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1">
-        <v>34441</v>
+        <v>50751</v>
       </c>
       <c r="K5" s="1">
-        <v>28891</v>
+        <v>-8222</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
@@ -1933,28 +1933,28 @@
         <v>17</v>
       </c>
       <c r="P5" s="1">
-        <v>1093.262</v>
+        <v>1034.215</v>
       </c>
       <c r="Q5" s="1">
-        <v>63332</v>
+        <v>42529</v>
       </c>
       <c r="R5" s="1">
-        <v>380440</v>
+        <v>386719</v>
       </c>
       <c r="S5" s="1">
-        <v>34441</v>
+        <v>50751</v>
       </c>
       <c r="T5" s="1">
-        <v>280</v>
+        <v>134</v>
       </c>
       <c r="U5" s="1">
-        <v>17598.128</v>
+        <v>-8216.085</v>
       </c>
       <c r="V5" s="1">
         <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>332577.61</v>
+        <v>401988.87</v>
       </c>
       <c r="X5" s="1">
         <v>0</v>
@@ -1966,16 +1966,16 @@
         <v>28</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>17154</v>
+        <v>1900</v>
       </c>
       <c r="E6" s="1">
-        <v>95.26</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1984,16 +1984,16 @@
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>13968</v>
+        <v>1888</v>
       </c>
       <c r="K6" s="1">
-        <v>3186</v>
+        <v>12</v>
       </c>
       <c r="L6" s="1">
         <v>0</v>
@@ -2005,31 +2005,31 @@
         <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P6" s="1">
         <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>17154</v>
+        <v>1900</v>
       </c>
       <c r="R6" s="1">
-        <v>166530</v>
+        <v>51159</v>
       </c>
       <c r="S6" s="1">
-        <v>13968</v>
+        <v>1888</v>
       </c>
       <c r="T6" s="1">
-        <v>95.26</v>
+        <v>19</v>
       </c>
       <c r="U6" s="1">
-        <v>-1086.94</v>
+        <v>1889.86</v>
       </c>
       <c r="V6" s="1">
         <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>164335.68</v>
+        <v>49238.14</v>
       </c>
       <c r="X6" s="1">
         <v>0</v>
@@ -2039,73 +2039,73 @@
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="2">
-        <v>68</v>
-      </c>
-      <c r="C7" s="2">
-        <v>188</v>
-      </c>
-      <c r="D7" s="2">
-        <v>125597</v>
-      </c>
-      <c r="E7" s="2">
-        <v>922</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="B7" s="1">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1">
+        <v>104</v>
+      </c>
+      <c r="D7" s="1">
+        <v>419122</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1636</v>
+      </c>
+      <c r="F7" s="1">
         <v>4</v>
       </c>
-      <c r="G7" s="2">
-        <v>592</v>
-      </c>
-      <c r="H7" s="2">
-        <v>30</v>
-      </c>
-      <c r="I7" s="2">
-        <v>52</v>
-      </c>
-      <c r="J7" s="2">
-        <v>59344</v>
-      </c>
-      <c r="K7" s="2">
-        <v>66253</v>
-      </c>
-      <c r="L7" s="2">
-        <v>500</v>
-      </c>
-      <c r="M7" s="2">
-        <v>522</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>67</v>
-      </c>
-      <c r="P7" s="2">
-        <v>1268.257</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>125097</v>
-      </c>
-      <c r="R7" s="2">
-        <v>654313</v>
-      </c>
-      <c r="S7" s="2">
-        <v>58822</v>
-      </c>
-      <c r="T7" s="2">
-        <v>922</v>
-      </c>
-      <c r="U7" s="2">
-        <v>-7294.777</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2">
-        <v>593164.52</v>
-      </c>
-      <c r="X7" s="2">
+      <c r="G7" s="1">
+        <v>680</v>
+      </c>
+      <c r="H7" s="1">
+        <v>34</v>
+      </c>
+      <c r="I7" s="1">
+        <v>60</v>
+      </c>
+      <c r="J7" s="1">
+        <v>325191</v>
+      </c>
+      <c r="K7" s="1">
+        <v>93931</v>
+      </c>
+      <c r="L7" s="1">
+        <v>66877</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>57</v>
+      </c>
+      <c r="P7" s="1">
+        <v>11647.312</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>352245</v>
+      </c>
+      <c r="R7" s="1">
+        <v>3157999</v>
+      </c>
+      <c r="S7" s="1">
+        <v>325191</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1936</v>
+      </c>
+      <c r="U7" s="1">
+        <v>13323.358</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>3037161.33</v>
+      </c>
+      <c r="X7" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2113,73 +2113,73 @@
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="2">
-        <v>52</v>
-      </c>
-      <c r="C8" s="2">
-        <v>129</v>
-      </c>
-      <c r="D8" s="2">
-        <v>141949</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1445</v>
-      </c>
-      <c r="F8" s="2">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1710</v>
-      </c>
-      <c r="H8" s="2">
-        <v>24</v>
-      </c>
-      <c r="I8" s="2">
-        <v>37</v>
-      </c>
-      <c r="J8" s="2">
-        <v>72191</v>
-      </c>
-      <c r="K8" s="2">
-        <v>69758</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <v>51</v>
-      </c>
-      <c r="P8" s="2">
-        <v>1699.318</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>140949</v>
-      </c>
-      <c r="R8" s="2">
-        <v>908556</v>
-      </c>
-      <c r="S8" s="2">
-        <v>72191</v>
-      </c>
-      <c r="T8" s="2">
-        <v>1499.97</v>
-      </c>
-      <c r="U8" s="2">
-        <v>-42188.018</v>
-      </c>
-      <c r="V8" s="2">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2">
-        <v>877786.73</v>
-      </c>
-      <c r="X8" s="2">
+      <c r="B8" s="1">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1">
+        <v>104</v>
+      </c>
+      <c r="D8" s="1">
+        <v>123632</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2433</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>600</v>
+      </c>
+      <c r="H8" s="1">
+        <v>20</v>
+      </c>
+      <c r="I8" s="1">
+        <v>29</v>
+      </c>
+      <c r="J8" s="1">
+        <v>110314</v>
+      </c>
+      <c r="K8" s="1">
+        <v>13318</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4500</v>
+      </c>
+      <c r="M8" s="1">
+        <v>102</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>30</v>
+      </c>
+      <c r="P8" s="1">
+        <v>801.888</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>119132</v>
+      </c>
+      <c r="R8" s="1">
+        <v>511784</v>
+      </c>
+      <c r="S8" s="1">
+        <v>110212</v>
+      </c>
+      <c r="T8" s="1">
+        <v>2458.82</v>
+      </c>
+      <c r="U8" s="1">
+        <v>7897.612</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>487307.68</v>
+      </c>
+      <c r="X8" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2188,37 +2188,37 @@
         <v>31</v>
       </c>
       <c r="B9" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2">
-        <v>50805</v>
+        <v>30064</v>
       </c>
       <c r="E9" s="2">
-        <v>515</v>
+        <v>1230</v>
       </c>
       <c r="F9" s="2">
         <v>3</v>
       </c>
       <c r="G9" s="2">
-        <v>300</v>
+        <v>1150</v>
       </c>
       <c r="H9" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I9" s="2">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J9" s="2">
-        <v>38294</v>
+        <v>39391</v>
       </c>
       <c r="K9" s="2">
-        <v>12511</v>
+        <v>-9327</v>
       </c>
       <c r="L9" s="2">
-        <v>1868</v>
+        <v>4800</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -2227,31 +2227,31 @@
         <v>0</v>
       </c>
       <c r="O9" s="2">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="P9" s="2">
-        <v>142.078</v>
+        <v>412.446</v>
       </c>
       <c r="Q9" s="2">
-        <v>48937</v>
+        <v>25264</v>
       </c>
       <c r="R9" s="2">
-        <v>218722</v>
+        <v>348442</v>
       </c>
       <c r="S9" s="2">
-        <v>38294</v>
+        <v>39391</v>
       </c>
       <c r="T9" s="2">
-        <v>540.88</v>
+        <v>1248.59</v>
       </c>
       <c r="U9" s="2">
-        <v>-2109.778</v>
+        <v>-8479.526</v>
       </c>
       <c r="V9" s="2">
         <v>0</v>
       </c>
       <c r="W9" s="2">
-        <v>207637.82</v>
+        <v>364587.49</v>
       </c>
       <c r="X9" s="2">
         <v>0</v>
@@ -2262,34 +2262,34 @@
         <v>32</v>
       </c>
       <c r="B10" s="1">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="C10" s="1">
-        <v>414</v>
+        <v>157</v>
       </c>
       <c r="D10" s="1">
-        <v>83463</v>
+        <v>67751</v>
       </c>
       <c r="E10" s="1">
-        <v>6814</v>
+        <v>1478</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H10" s="1">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="I10" s="1">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="J10" s="1">
-        <v>80550</v>
+        <v>56871</v>
       </c>
       <c r="K10" s="1">
-        <v>2913</v>
+        <v>10880</v>
       </c>
       <c r="L10" s="1">
         <v>0</v>
@@ -2301,31 +2301,31 @@
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="P10" s="1">
-        <v>601.635</v>
+        <v>519.968</v>
       </c>
       <c r="Q10" s="1">
-        <v>83463</v>
+        <v>67751</v>
       </c>
       <c r="R10" s="1">
-        <v>360261</v>
+        <v>514987</v>
       </c>
       <c r="S10" s="1">
-        <v>80550</v>
+        <v>56871</v>
       </c>
       <c r="T10" s="1">
-        <v>8314</v>
+        <v>1478</v>
       </c>
       <c r="U10" s="1">
-        <v>-5460.025</v>
+        <v>2184.192</v>
       </c>
       <c r="V10" s="1">
         <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>353892.39</v>
+        <v>499924.84</v>
       </c>
       <c r="X10" s="1">
         <v>0</v>
@@ -2336,34 +2336,34 @@
         <v>33</v>
       </c>
       <c r="B11" s="2">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="D11" s="2">
-        <v>31850</v>
+        <v>66936</v>
       </c>
       <c r="E11" s="2">
-        <v>2435</v>
+        <v>1733</v>
       </c>
       <c r="F11" s="2">
         <v>2</v>
       </c>
       <c r="G11" s="2">
-        <v>2100</v>
+        <v>11000</v>
       </c>
       <c r="H11" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I11" s="2">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J11" s="2">
-        <v>46371</v>
+        <v>57265</v>
       </c>
       <c r="K11" s="2">
-        <v>-14521</v>
+        <v>9671</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
@@ -2375,31 +2375,31 @@
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="P11" s="2">
-        <v>1843.33</v>
+        <v>1874.45</v>
       </c>
       <c r="Q11" s="2">
-        <v>31850</v>
+        <v>66936</v>
       </c>
       <c r="R11" s="2">
-        <v>466758</v>
+        <v>426494</v>
       </c>
       <c r="S11" s="2">
-        <v>46371</v>
+        <v>57265</v>
       </c>
       <c r="T11" s="2">
-        <v>2435</v>
+        <v>1733</v>
       </c>
       <c r="U11" s="2">
-        <v>-20045.26</v>
+        <v>9450.44</v>
       </c>
       <c r="V11" s="2">
         <v>0</v>
       </c>
       <c r="W11" s="2">
-        <v>497045.93</v>
+        <v>403765.11</v>
       </c>
       <c r="X11" s="2">
         <v>0</v>
@@ -2409,74 +2409,74 @@
       <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1">
-        <v>29170</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1208</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>100</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="B12" s="2">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2">
+        <v>50798</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2360</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
         <v>4</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
+        <v>5</v>
+      </c>
+      <c r="J12" s="2">
+        <v>35228</v>
+      </c>
+      <c r="K12" s="2">
+        <v>15570</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
         <v>6</v>
       </c>
-      <c r="J12" s="1">
-        <v>4195</v>
-      </c>
-      <c r="K12" s="1">
-        <v>24975</v>
-      </c>
-      <c r="L12" s="1">
-        <v>920</v>
-      </c>
-      <c r="M12" s="1">
-        <v>800</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <v>9</v>
-      </c>
-      <c r="P12" s="1">
-        <v>844.404</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>28250</v>
-      </c>
-      <c r="R12" s="1">
-        <v>67749</v>
-      </c>
-      <c r="S12" s="1">
-        <v>3395</v>
-      </c>
-      <c r="T12" s="1">
-        <v>1208</v>
-      </c>
-      <c r="U12" s="1">
-        <v>3446.696</v>
-      </c>
-      <c r="V12" s="1">
-        <v>0</v>
-      </c>
-      <c r="W12" s="1">
-        <v>37274.9</v>
-      </c>
-      <c r="X12" s="1">
-        <v>0</v>
+      <c r="P12" s="2">
+        <v>4370.009</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>50798</v>
+      </c>
+      <c r="R12" s="2">
+        <v>276636</v>
+      </c>
+      <c r="S12" s="2">
+        <v>35228</v>
+      </c>
+      <c r="T12" s="2">
+        <v>2360</v>
+      </c>
+      <c r="U12" s="2">
+        <v>255.429</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>254050.82</v>
+      </c>
+      <c r="X12" s="2">
+        <v>29.742</v>
       </c>
       <c r="Y12" s="3"/>
     </row>
@@ -2484,73 +2484,73 @@
       <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2">
-        <v>44</v>
-      </c>
-      <c r="D13" s="2">
-        <v>26332</v>
-      </c>
-      <c r="E13" s="2">
-        <v>692</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>4</v>
-      </c>
-      <c r="I13" s="2">
-        <v>6</v>
-      </c>
-      <c r="J13" s="2">
-        <v>60679</v>
-      </c>
-      <c r="K13" s="2">
-        <v>-34347</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <v>20</v>
-      </c>
-      <c r="P13" s="2">
-        <v>296.563</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>26332</v>
-      </c>
-      <c r="R13" s="2">
-        <v>269168</v>
-      </c>
-      <c r="S13" s="2">
-        <v>60679</v>
-      </c>
-      <c r="T13" s="2">
-        <v>708.37</v>
-      </c>
-      <c r="U13" s="2">
-        <v>-916.993</v>
-      </c>
-      <c r="V13" s="2">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2">
-        <v>303427.06</v>
-      </c>
-      <c r="X13" s="2">
+      <c r="B13" s="1">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1">
+        <v>21086</v>
+      </c>
+      <c r="E13" s="1">
+        <v>934</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>11</v>
+      </c>
+      <c r="J13" s="1">
+        <v>16910</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4176</v>
+      </c>
+      <c r="L13" s="1">
+        <v>300</v>
+      </c>
+      <c r="M13" s="1">
+        <v>200</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>17</v>
+      </c>
+      <c r="P13" s="1">
+        <v>672.638</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>20786</v>
+      </c>
+      <c r="R13" s="1">
+        <v>180041</v>
+      </c>
+      <c r="S13" s="1">
+        <v>16710</v>
+      </c>
+      <c r="T13" s="1">
+        <v>969.56</v>
+      </c>
+      <c r="U13" s="1">
+        <v>806.202</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>173416.6</v>
+      </c>
+      <c r="X13" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2558,73 +2558,73 @@
       <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2">
-        <v>26</v>
-      </c>
-      <c r="D14" s="2">
-        <v>12925</v>
-      </c>
-      <c r="E14" s="2">
-        <v>657</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
-        <v>300</v>
-      </c>
-      <c r="H14" s="2">
-        <v>9</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="B14" s="1">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1">
+        <v>19482</v>
+      </c>
+      <c r="E14" s="1">
+        <v>192</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>8</v>
+      </c>
+      <c r="I14" s="1">
         <v>14</v>
       </c>
-      <c r="J14" s="2">
-        <v>13140</v>
-      </c>
-      <c r="K14" s="2">
-        <v>-215</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
-        <v>18</v>
-      </c>
-      <c r="P14" s="2">
-        <v>172.504</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>12925</v>
-      </c>
-      <c r="R14" s="2">
-        <v>121057</v>
-      </c>
-      <c r="S14" s="2">
-        <v>13140</v>
-      </c>
-      <c r="T14" s="2">
-        <v>657</v>
-      </c>
-      <c r="U14" s="2">
-        <v>-825.724</v>
-      </c>
-      <c r="V14" s="2">
-        <v>0</v>
-      </c>
-      <c r="W14" s="2">
-        <v>121268.22</v>
-      </c>
-      <c r="X14" s="2">
+      <c r="J14" s="1">
+        <v>9134</v>
+      </c>
+      <c r="K14" s="1">
+        <v>10348</v>
+      </c>
+      <c r="L14" s="1">
+        <v>3173</v>
+      </c>
+      <c r="M14" s="1">
+        <v>3173</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>19</v>
+      </c>
+      <c r="P14" s="1">
+        <v>771.696</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>16309</v>
+      </c>
+      <c r="R14" s="1">
+        <v>329427</v>
+      </c>
+      <c r="S14" s="1">
+        <v>5961</v>
+      </c>
+      <c r="T14" s="1">
+        <v>192</v>
+      </c>
+      <c r="U14" s="1">
+        <v>-10911.236</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>329026.54</v>
+      </c>
+      <c r="X14" s="1">
         <v>0</v>
       </c>
       <c r="Y14" s="3"/>
@@ -2633,81 +2633,81 @@
       <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1">
+        <v>50650</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1599</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1">
         <v>8</v>
       </c>
-      <c r="C15" s="2">
-        <v>33</v>
-      </c>
-      <c r="D15" s="2">
-        <v>29206</v>
-      </c>
-      <c r="E15" s="2">
-        <v>766</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>4</v>
-      </c>
-      <c r="I15" s="2">
-        <v>14</v>
-      </c>
-      <c r="J15" s="2">
-        <v>39846</v>
-      </c>
-      <c r="K15" s="2">
-        <v>-10640</v>
-      </c>
-      <c r="L15" s="2">
-        <v>600</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>8</v>
-      </c>
-      <c r="P15" s="2">
-        <v>3563.809</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>28606</v>
-      </c>
-      <c r="R15" s="2">
-        <v>295121</v>
-      </c>
-      <c r="S15" s="2">
-        <v>39846</v>
-      </c>
-      <c r="T15" s="2">
-        <v>766</v>
-      </c>
-      <c r="U15" s="2">
-        <v>26271.508</v>
-      </c>
-      <c r="V15" s="2">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2">
-        <v>274678.93</v>
-      </c>
-      <c r="X15" s="2">
-        <v>480.753</v>
+      <c r="J15" s="1">
+        <v>47277</v>
+      </c>
+      <c r="K15" s="1">
+        <v>3373</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>7</v>
+      </c>
+      <c r="P15" s="1">
+        <v>9174.367</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>50650</v>
+      </c>
+      <c r="R15" s="1">
+        <v>705724</v>
+      </c>
+      <c r="S15" s="1">
+        <v>47277</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1599</v>
+      </c>
+      <c r="U15" s="1">
+        <v>-1275.486</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>691416.71</v>
+      </c>
+      <c r="X15" s="1">
+        <v>1436.409</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:X1 A2:A4" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:A4 A1:X1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2718,7 +2718,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2761,144 +2761,144 @@
         <v>44</v>
       </c>
       <c r="B2" s="1">
-        <v>296</v>
+        <v>221</v>
       </c>
       <c r="C2" s="1">
-        <v>301828</v>
+        <v>81288</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>329618.85</v>
+        <v>52889</v>
       </c>
       <c r="F2" s="1">
-        <v>-63830.85</v>
+        <v>27539</v>
       </c>
       <c r="G2" s="1">
-        <v>265788</v>
+        <v>80428</v>
       </c>
       <c r="H2" s="1">
-        <v>-64828.422</v>
+        <v>27217.288</v>
       </c>
       <c r="I2" s="1">
-        <v>997.57</v>
-      </c>
-    </row>
-    <row r="3" ht="24.75" spans="1:9">
+        <v>321.71</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="1">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="C3" s="1">
-        <v>434585</v>
+        <v>19562</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>418116.5</v>
+        <v>23086</v>
       </c>
       <c r="F3" s="1">
-        <v>-35331.5</v>
+        <v>-3732</v>
       </c>
       <c r="G3" s="1">
-        <v>382785</v>
+        <v>19354</v>
       </c>
       <c r="H3" s="1">
-        <v>-36861.26</v>
+        <v>-3809.416</v>
       </c>
       <c r="I3" s="1">
-        <v>1529.76</v>
-      </c>
-    </row>
-    <row r="4" ht="24.75" spans="1:9">
+        <v>77.42</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="1">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>202160</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>219042.25</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>-32577.25</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>186465</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>-33323.11</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>745.86</v>
-      </c>
-    </row>
-    <row r="5" ht="15" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="24.75" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="1">
-        <v>900</v>
+        <v>411</v>
       </c>
       <c r="C5" s="1">
-        <v>56993</v>
+        <v>511670</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>82449.3</v>
+        <v>414211</v>
       </c>
       <c r="F5" s="1">
-        <v>-25456.3</v>
+        <v>26069</v>
       </c>
       <c r="G5" s="1">
-        <v>56993</v>
+        <v>440280</v>
       </c>
       <c r="H5" s="1">
-        <v>-25456.3</v>
+        <v>24308.2</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="24" spans="1:9">
+        <v>1760.8</v>
+      </c>
+    </row>
+    <row r="6" ht="24.75" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="1">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="C6" s="1">
-        <v>18315</v>
+        <v>215955</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>38513.42</v>
+        <v>214224.25</v>
       </c>
       <c r="F6" s="1">
-        <v>-20198.42</v>
+        <v>-11699.25</v>
       </c>
       <c r="G6" s="1">
-        <v>18315</v>
+        <v>202525</v>
       </c>
       <c r="H6" s="1">
-        <v>-20198.42</v>
+        <v>-12509.35</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>810.1</v>
       </c>
     </row>
     <row r="7" ht="24.75" spans="1:9">
@@ -2906,57 +2906,57 @@
         <v>49</v>
       </c>
       <c r="B7" s="1">
-        <v>91</v>
+        <v>554</v>
       </c>
       <c r="C7" s="1">
-        <v>53225</v>
+        <v>745210</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>70306.5</v>
+        <v>579280.5</v>
       </c>
       <c r="F7" s="1">
-        <v>-20131.5</v>
+        <v>112044.5</v>
       </c>
       <c r="G7" s="1">
-        <v>50175</v>
+        <v>691325</v>
       </c>
       <c r="H7" s="1">
-        <v>-20332.12</v>
+        <v>109279.2</v>
       </c>
       <c r="I7" s="1">
-        <v>200.62</v>
-      </c>
-    </row>
-    <row r="8" ht="24" spans="1:9">
+        <v>2765.3</v>
+      </c>
+    </row>
+    <row r="8" ht="24.75" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="1">
-        <v>793</v>
+        <v>408</v>
       </c>
       <c r="C8" s="1">
-        <v>153579</v>
+        <v>407881</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>159516.14</v>
+        <v>295295.9</v>
       </c>
       <c r="F8" s="1">
-        <v>-5937.14</v>
+        <v>71045.1</v>
       </c>
       <c r="G8" s="1">
-        <v>153579</v>
+        <v>366341</v>
       </c>
       <c r="H8" s="1">
-        <v>-6141.584</v>
+        <v>69579.736</v>
       </c>
       <c r="I8" s="1">
-        <v>204.44</v>
+        <v>1465.36</v>
       </c>
     </row>
     <row r="9" ht="24" spans="1:9">
@@ -2964,144 +2964,144 @@
         <v>51</v>
       </c>
       <c r="B9" s="1">
-        <v>1217</v>
+        <v>821</v>
       </c>
       <c r="C9" s="1">
-        <v>253749</v>
+        <v>165083</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="E9" s="1">
-        <v>237644.05</v>
+        <v>181604.2</v>
       </c>
       <c r="F9" s="1">
-        <v>-4329.05</v>
+        <v>-21092.2</v>
       </c>
       <c r="G9" s="1">
-        <v>233315</v>
+        <v>160512</v>
       </c>
       <c r="H9" s="1">
-        <v>-5262.31</v>
+        <v>-21734.168</v>
       </c>
       <c r="I9" s="1">
-        <v>933.26</v>
-      </c>
-    </row>
-    <row r="10" ht="15" spans="1:9">
+        <v>641.97</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="1">
-        <v>676</v>
+        <v>351</v>
       </c>
       <c r="C10" s="1">
-        <v>22382</v>
+        <v>94930</v>
       </c>
       <c r="D10" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>25639.66</v>
+        <v>85692.75</v>
       </c>
       <c r="F10" s="1">
-        <v>-3257.66</v>
+        <v>-5847.75</v>
       </c>
       <c r="G10" s="1">
-        <v>22382</v>
+        <v>79845</v>
       </c>
       <c r="H10" s="1">
-        <v>-3301.35</v>
+        <v>-6167.13</v>
       </c>
       <c r="I10" s="1">
-        <v>43.69</v>
-      </c>
-    </row>
-    <row r="11" ht="15" spans="1:9">
+        <v>319.38</v>
+      </c>
+    </row>
+    <row r="11" ht="24.75" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="1">
-        <v>578</v>
+        <v>530</v>
       </c>
       <c r="C11" s="1">
-        <v>8902</v>
+        <v>379094</v>
       </c>
       <c r="D11" s="1">
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>10652.4</v>
+        <v>320047.5</v>
       </c>
       <c r="F11" s="1">
-        <v>-1750.4</v>
+        <v>5686.5</v>
       </c>
       <c r="G11" s="1">
-        <v>8902</v>
+        <v>325734</v>
       </c>
       <c r="H11" s="1">
-        <v>-1768.204</v>
+        <v>4383.564</v>
       </c>
       <c r="I11" s="1">
-        <v>17.8</v>
-      </c>
-    </row>
-    <row r="12" ht="15" spans="1:9">
+        <v>1302.94</v>
+      </c>
+    </row>
+    <row r="12" ht="24.75" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="1">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="C12" s="1">
-        <v>1861</v>
+        <v>97897</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>2873.75</v>
+        <v>98619.15</v>
       </c>
       <c r="F12" s="1">
-        <v>-1012.75</v>
+        <v>-11422.15</v>
       </c>
       <c r="G12" s="1">
-        <v>1861</v>
+        <v>87197</v>
       </c>
       <c r="H12" s="1">
-        <v>-1012.75</v>
+        <v>-11771.018</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="15" spans="1:9">
+        <v>348.87</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="1">
-        <v>130</v>
+        <v>577</v>
       </c>
       <c r="C13" s="1">
-        <v>2423</v>
+        <v>639368</v>
       </c>
       <c r="D13" s="1">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>2587.9</v>
+        <v>697750.4</v>
       </c>
       <c r="F13" s="1">
-        <v>-164.9</v>
+        <v>-91497.4</v>
       </c>
       <c r="G13" s="1">
-        <v>2423</v>
+        <v>606253</v>
       </c>
       <c r="H13" s="1">
-        <v>-167.323</v>
+        <v>-93874.412</v>
       </c>
       <c r="I13" s="1">
-        <v>2.42</v>
+        <v>2377.01</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:9">
@@ -3109,28 +3109,28 @@
         <v>56</v>
       </c>
       <c r="B14" s="1">
-        <v>116</v>
+        <v>1472</v>
       </c>
       <c r="C14" s="1">
-        <v>356</v>
+        <v>25265</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>475.2</v>
+        <v>27594.88</v>
       </c>
       <c r="F14" s="1">
-        <v>-119.2</v>
+        <v>-2329.88</v>
       </c>
       <c r="G14" s="1">
-        <v>356</v>
+        <v>25265</v>
       </c>
       <c r="H14" s="1">
-        <v>-119.912</v>
+        <v>-2379.564</v>
       </c>
       <c r="I14" s="1">
-        <v>0.71</v>
+        <v>49.68</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:9">
@@ -3138,57 +3138,57 @@
         <v>57</v>
       </c>
       <c r="B15" s="1">
-        <v>561</v>
+        <v>205</v>
       </c>
       <c r="C15" s="1">
-        <v>4808</v>
+        <v>2838</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>4910.53</v>
+        <v>3640.95</v>
       </c>
       <c r="F15" s="1">
-        <v>-102.53</v>
+        <v>-802.95</v>
       </c>
       <c r="G15" s="1">
-        <v>4808</v>
+        <v>2838</v>
       </c>
       <c r="H15" s="1">
-        <v>-112.146</v>
+        <v>-804.494</v>
       </c>
       <c r="I15" s="1">
-        <v>9.62</v>
-      </c>
-    </row>
-    <row r="16" ht="24" spans="1:9">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="1">
-        <v>8</v>
+        <v>430</v>
       </c>
       <c r="C16" s="1">
-        <v>63</v>
+        <v>5359</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="E16" s="1">
-        <v>72.6</v>
+        <v>5820.7</v>
       </c>
       <c r="F16" s="1">
-        <v>-9.6</v>
+        <v>-461.7</v>
       </c>
       <c r="G16" s="1">
-        <v>63</v>
+        <v>5359</v>
       </c>
       <c r="H16" s="1">
-        <v>-9.6</v>
+        <v>-467.059</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:9">
@@ -3225,28 +3225,28 @@
         <v>60</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>712</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>14510</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>13762.16</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>747.84</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>14510</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>718.82</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>29.02</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:9">
@@ -3254,28 +3254,28 @@
         <v>61</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>1190</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>7617</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>8251.77</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>-634.77</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>7617</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>-648.404</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>13.63</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:9">
@@ -3283,13 +3283,13 @@
         <v>62</v>
       </c>
       <c r="B20" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -3308,61 +3308,61 @@
       </c>
     </row>
     <row r="21" ht="15" spans="1:9">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="2">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="24" spans="1:9">
+      <c r="B21" s="1">
+        <v>95</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1480</v>
+      </c>
+      <c r="D21" s="1">
+        <v>15</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1496.9</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-16.9</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1480</v>
+      </c>
+      <c r="H21" s="1">
+        <v>-19.86</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B22" s="1">
-        <v>14</v>
+        <v>1174</v>
       </c>
       <c r="C22" s="1">
-        <v>30</v>
+        <v>72683</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>69371.3</v>
       </c>
       <c r="F22" s="1">
-        <v>30</v>
+        <v>3311.7</v>
       </c>
       <c r="G22" s="1">
-        <v>30</v>
+        <v>72683</v>
       </c>
       <c r="H22" s="1">
-        <v>30</v>
+        <v>3305.2</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:9">
@@ -3370,86 +3370,86 @@
         <v>65</v>
       </c>
       <c r="B23" s="1">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C23" s="1">
-        <v>90</v>
+        <v>527</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>294.5</v>
       </c>
       <c r="F23" s="1">
-        <v>90</v>
+        <v>232.5</v>
       </c>
       <c r="G23" s="1">
-        <v>90</v>
+        <v>527</v>
       </c>
       <c r="H23" s="1">
-        <v>90</v>
+        <v>232.5</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="1:9">
+    <row r="24" ht="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B24" s="1">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>365.62</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>174.38</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>174.38</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="1:9">
+    <row r="25" ht="24" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="1">
-        <v>414</v>
+        <v>795</v>
       </c>
       <c r="C25" s="1">
-        <v>12608</v>
+        <v>139734</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>12009.43</v>
+        <v>146150.9</v>
       </c>
       <c r="F25" s="1">
-        <v>598.57</v>
+        <v>-6416.9</v>
       </c>
       <c r="G25" s="1">
-        <v>12608</v>
+        <v>139734</v>
       </c>
       <c r="H25" s="1">
-        <v>579.436</v>
+        <v>-6606.776</v>
       </c>
       <c r="I25" s="1">
-        <v>19.13</v>
+        <v>189.88</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:9">
@@ -3457,28 +3457,28 @@
         <v>68</v>
       </c>
       <c r="B26" s="1">
-        <v>183</v>
+        <v>3906</v>
       </c>
       <c r="C26" s="1">
-        <v>65639</v>
+        <v>78545</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E26" s="1">
-        <v>60532</v>
+        <v>75974.54</v>
       </c>
       <c r="F26" s="1">
-        <v>882</v>
+        <v>2570.46</v>
       </c>
       <c r="G26" s="1">
-        <v>61414</v>
+        <v>78545</v>
       </c>
       <c r="H26" s="1">
-        <v>636.344</v>
+        <v>2414.08</v>
       </c>
       <c r="I26" s="1">
-        <v>245.66</v>
+        <v>156.38</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:9">
@@ -3486,57 +3486,57 @@
         <v>69</v>
       </c>
       <c r="B27" s="1">
-        <v>1170</v>
+        <v>529</v>
       </c>
       <c r="C27" s="1">
-        <v>11373</v>
+        <v>35385</v>
       </c>
       <c r="D27" s="1">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>8852.62</v>
+        <v>24741.6</v>
       </c>
       <c r="F27" s="1">
-        <v>2520.38</v>
+        <v>10643.4</v>
       </c>
       <c r="G27" s="1">
-        <v>11373</v>
+        <v>35385</v>
       </c>
       <c r="H27" s="1">
-        <v>2500.898</v>
+        <v>10642.1</v>
       </c>
       <c r="I27" s="1">
-        <v>19.48</v>
-      </c>
-    </row>
-    <row r="28" ht="15" spans="1:9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="28" ht="24" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B28" s="1">
-        <v>2350</v>
+        <v>168</v>
       </c>
       <c r="C28" s="1">
-        <v>43681</v>
+        <v>16153</v>
       </c>
       <c r="D28" s="1">
-        <v>304</v>
+        <v>30</v>
       </c>
       <c r="E28" s="1">
-        <v>40594.06</v>
+        <v>35865.8</v>
       </c>
       <c r="F28" s="1">
-        <v>3086.94</v>
+        <v>-19712.8</v>
       </c>
       <c r="G28" s="1">
-        <v>43681</v>
+        <v>16153</v>
       </c>
       <c r="H28" s="1">
-        <v>3014.162</v>
+        <v>-19712.8</v>
       </c>
       <c r="I28" s="1">
-        <v>72.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:9">
@@ -3544,173 +3544,173 @@
         <v>71</v>
       </c>
       <c r="B29" s="1">
-        <v>7834</v>
+        <v>363</v>
       </c>
       <c r="C29" s="1">
-        <v>102554</v>
+        <v>4627</v>
       </c>
       <c r="D29" s="1">
-        <v>1151</v>
+        <v>200</v>
       </c>
       <c r="E29" s="1">
-        <v>97059.4</v>
+        <v>2304.78</v>
       </c>
       <c r="F29" s="1">
-        <v>5494.6</v>
+        <v>2322.22</v>
       </c>
       <c r="G29" s="1">
-        <v>102554</v>
+        <v>4627</v>
       </c>
       <c r="H29" s="1">
-        <v>5494.6</v>
+        <v>2322.22</v>
       </c>
       <c r="I29" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="24.75" spans="1:9">
+    <row r="30" ht="15" spans="1:9">
       <c r="A30" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B30" s="1">
-        <v>190</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1">
-        <v>253385</v>
+        <v>45</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>223142.5</v>
+        <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>9742.5</v>
+        <v>45</v>
       </c>
       <c r="G30" s="1">
-        <v>232885</v>
+        <v>45</v>
       </c>
       <c r="H30" s="1">
-        <v>8811.76</v>
+        <v>45</v>
       </c>
       <c r="I30" s="1">
-        <v>930.74</v>
-      </c>
-    </row>
-    <row r="31" ht="24.75" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B31" s="1">
-        <v>62</v>
+        <v>8182</v>
       </c>
       <c r="C31" s="1">
-        <v>69725</v>
+        <v>110214</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="E31" s="1">
-        <v>52389</v>
+        <v>92850.69</v>
       </c>
       <c r="F31" s="1">
-        <v>13471</v>
+        <v>17363.31</v>
       </c>
       <c r="G31" s="1">
-        <v>65860</v>
+        <v>110214</v>
       </c>
       <c r="H31" s="1">
-        <v>13207.96</v>
+        <v>17363.31</v>
       </c>
       <c r="I31" s="1">
-        <v>263.04</v>
-      </c>
-    </row>
-    <row r="32" ht="24.75" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="24" spans="1:9">
       <c r="A32" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B32" s="1">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="C32" s="1">
-        <v>71330</v>
+        <v>54</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>44339.5</v>
+        <v>97.6</v>
       </c>
       <c r="F32" s="1">
-        <v>18650.5</v>
+        <v>-43.6</v>
       </c>
       <c r="G32" s="1">
-        <v>62990</v>
+        <v>54</v>
       </c>
       <c r="H32" s="1">
-        <v>18398.54</v>
+        <v>-43.6</v>
       </c>
       <c r="I32" s="1">
-        <v>251.96</v>
-      </c>
-    </row>
-    <row r="33" ht="24.75" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B33" s="1">
-        <v>182</v>
+        <v>1505</v>
       </c>
       <c r="C33" s="1">
-        <v>195267</v>
+        <v>21107</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="E33" s="1">
-        <v>135373.4</v>
+        <v>17468.62</v>
       </c>
       <c r="F33" s="1">
-        <v>39433.6</v>
+        <v>3638.38</v>
       </c>
       <c r="G33" s="1">
-        <v>174807</v>
+        <v>21107</v>
       </c>
       <c r="H33" s="1">
-        <v>38734.692</v>
+        <v>3596.166</v>
       </c>
       <c r="I33" s="1">
-        <v>698.91</v>
-      </c>
-    </row>
-    <row r="34" ht="24.75" spans="1:9">
-      <c r="A34" s="1" t="s">
+        <v>42.21</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:9">
+      <c r="A34" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="1">
-        <v>190</v>
-      </c>
-      <c r="C34" s="1">
-        <v>198715</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <v>126238</v>
-      </c>
-      <c r="F34" s="1">
-        <v>44277</v>
-      </c>
-      <c r="G34" s="1">
-        <v>170515</v>
-      </c>
-      <c r="H34" s="1">
-        <v>43595.54</v>
-      </c>
-      <c r="I34" s="1">
-        <v>681.46</v>
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3727,8 +3727,8 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3767,65 +3767,65 @@
     </row>
     <row r="2" ht="24.75" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1">
-        <v>651</v>
+        <v>519</v>
       </c>
       <c r="C2" s="1">
-        <v>287719</v>
+        <v>101563</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>231903.45</v>
+        <v>82964.2</v>
       </c>
       <c r="F2" s="1">
-        <v>20444.55</v>
+        <v>5432.8</v>
       </c>
       <c r="G2" s="1">
-        <v>252348</v>
+        <v>88397</v>
       </c>
       <c r="H2" s="1">
-        <v>20399.494</v>
+        <v>5387.176</v>
       </c>
       <c r="I2" s="1">
-        <v>45.06</v>
+        <v>45.62</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C3" s="1">
-        <v>7846</v>
+        <v>1429</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>6370</v>
+        <v>2206</v>
       </c>
       <c r="F3" s="1">
-        <v>812</v>
+        <v>-871</v>
       </c>
       <c r="G3" s="1">
-        <v>7182</v>
+        <v>1335</v>
       </c>
       <c r="H3" s="1">
-        <v>783.272</v>
+        <v>-876.34</v>
       </c>
       <c r="I3" s="1">
-        <v>28.73</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -3854,118 +3854,118 @@
     </row>
     <row r="5" ht="24.75" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1">
-        <v>1004</v>
+        <v>395</v>
       </c>
       <c r="C5" s="1">
-        <v>402962</v>
+        <v>73207</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>356305.2</v>
+        <v>65093.55</v>
       </c>
       <c r="F5" s="1">
-        <v>3671.8</v>
+        <v>1148.45</v>
       </c>
       <c r="G5" s="1">
-        <v>359977</v>
+        <v>66242</v>
       </c>
       <c r="H5" s="1">
-        <v>3582.84</v>
+        <v>1102.99</v>
       </c>
       <c r="I5" s="1">
-        <v>88.96</v>
+        <v>45.46</v>
       </c>
     </row>
     <row r="6" ht="24.75" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1">
-        <v>724</v>
+        <v>204</v>
       </c>
       <c r="C6" s="1">
-        <v>25026</v>
+        <v>4941</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>24486.3</v>
+        <v>3399.55</v>
       </c>
       <c r="F6" s="1">
-        <v>-1529.3</v>
+        <v>1289.45</v>
       </c>
       <c r="G6" s="1">
-        <v>22957</v>
+        <v>4689</v>
       </c>
       <c r="H6" s="1">
-        <v>-1593.184</v>
+        <v>1274.754</v>
       </c>
       <c r="I6" s="1">
-        <v>63.88</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="7" ht="24.75" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1">
-        <v>695</v>
+        <v>496</v>
       </c>
       <c r="C7" s="1">
-        <v>29302</v>
+        <v>18515</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>29119.15</v>
+        <v>13539.15</v>
       </c>
       <c r="F7" s="1">
-        <v>-3617.15</v>
+        <v>3610.85</v>
       </c>
       <c r="G7" s="1">
-        <v>25502</v>
+        <v>17150</v>
       </c>
       <c r="H7" s="1">
-        <v>-3682.934</v>
+        <v>3543.174</v>
       </c>
       <c r="I7" s="1">
-        <v>65.78</v>
+        <v>67.68</v>
       </c>
     </row>
     <row r="8" ht="24.75" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1">
-        <v>673</v>
+        <v>457</v>
       </c>
       <c r="C8" s="1">
-        <v>351546</v>
+        <v>105617</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>236062.85</v>
+        <v>95808.9</v>
       </c>
       <c r="F8" s="1">
-        <v>69852.15</v>
+        <v>4794.1</v>
       </c>
       <c r="G8" s="1">
-        <v>305915</v>
+        <v>100603</v>
       </c>
       <c r="H8" s="1">
-        <v>69787.87</v>
+        <v>4729.212</v>
       </c>
       <c r="I8" s="1">
-        <v>64.28</v>
+        <v>64.89</v>
       </c>
     </row>
     <row r="9" ht="24" spans="1:9">
@@ -3973,236 +3973,236 @@
         <v>51</v>
       </c>
       <c r="B9" s="1">
-        <v>651</v>
+        <v>519</v>
       </c>
       <c r="C9" s="1">
-        <v>187963</v>
+        <v>64574</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="E9" s="1">
-        <v>161266</v>
+        <v>47177.1</v>
       </c>
       <c r="F9" s="1">
-        <v>10263</v>
+        <v>5184.9</v>
       </c>
       <c r="G9" s="1">
-        <v>171529</v>
+        <v>52362</v>
       </c>
       <c r="H9" s="1">
-        <v>10025.448</v>
+        <v>5029.764</v>
       </c>
       <c r="I9" s="1">
-        <v>237.55</v>
+        <v>155.14</v>
       </c>
     </row>
     <row r="10" ht="24.75" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1">
-        <v>787</v>
+        <v>291</v>
       </c>
       <c r="C10" s="1">
-        <v>507038</v>
+        <v>130776</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>463726.1</v>
+        <v>107372.1</v>
       </c>
       <c r="F10" s="1">
-        <v>-3854.1</v>
+        <v>6521.9</v>
       </c>
       <c r="G10" s="1">
-        <v>459872</v>
+        <v>113894</v>
       </c>
       <c r="H10" s="1">
-        <v>-3908.068</v>
+        <v>6477.404</v>
       </c>
       <c r="I10" s="1">
-        <v>53.97</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="11" ht="24.75" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1">
-        <v>743</v>
+        <v>402</v>
       </c>
       <c r="C11" s="1">
-        <v>399327</v>
+        <v>130759</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>369391.2</v>
+        <v>135316.25</v>
       </c>
       <c r="F11" s="1">
-        <v>7413.8</v>
+        <v>-13346.25</v>
       </c>
       <c r="G11" s="1">
-        <v>376805</v>
+        <v>121970</v>
       </c>
       <c r="H11" s="1">
-        <v>7356.996</v>
+        <v>-13397.246</v>
       </c>
       <c r="I11" s="1">
-        <v>56.8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" ht="24.75" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C12" s="1">
-        <v>254697</v>
+        <v>21236</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>207441.6</v>
+        <v>5049.1</v>
       </c>
       <c r="F12" s="1">
-        <v>20035.4</v>
+        <v>15301.9</v>
       </c>
       <c r="G12" s="1">
-        <v>227477</v>
+        <v>20351</v>
       </c>
       <c r="H12" s="1">
-        <v>20008.632</v>
+        <v>15274.716</v>
       </c>
       <c r="I12" s="1">
-        <v>26.77</v>
+        <v>27.18</v>
       </c>
     </row>
     <row r="13" ht="24.75" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1">
-        <v>284</v>
+        <v>388</v>
       </c>
       <c r="C13" s="1">
-        <v>17792</v>
+        <v>19297</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>11071.85</v>
+        <v>22090.1</v>
       </c>
       <c r="F13" s="1">
-        <v>6440.15</v>
+        <v>-3697.1</v>
       </c>
       <c r="G13" s="1">
-        <v>17512</v>
+        <v>18393</v>
       </c>
       <c r="H13" s="1">
-        <v>6388.086</v>
+        <v>-3769.58</v>
       </c>
       <c r="I13" s="1">
-        <v>52.06</v>
+        <v>72.48</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1">
-        <v>5603</v>
+        <v>5665</v>
       </c>
       <c r="C14" s="1">
-        <v>144758</v>
+        <v>136419</v>
       </c>
       <c r="D14" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1">
-        <v>156231.51</v>
+        <v>138610.92</v>
       </c>
       <c r="F14" s="1">
-        <v>-11473.51</v>
+        <v>-2191.92</v>
       </c>
       <c r="G14" s="1">
-        <v>144758</v>
+        <v>136419</v>
       </c>
       <c r="H14" s="1">
-        <v>-12037.467</v>
+        <v>-2682.468</v>
       </c>
       <c r="I14" s="1">
-        <v>563.96</v>
+        <v>490.55</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1">
-        <v>804</v>
+        <v>1742</v>
       </c>
       <c r="C15" s="1">
-        <v>17655</v>
+        <v>40855</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>21463.86</v>
+        <v>49951.44</v>
       </c>
       <c r="F15" s="1">
-        <v>-3808.86</v>
+        <v>-9096.44</v>
       </c>
       <c r="G15" s="1">
-        <v>17655</v>
+        <v>40855</v>
       </c>
       <c r="H15" s="1">
-        <v>-3865.282</v>
+        <v>-9304.886</v>
       </c>
       <c r="I15" s="1">
-        <v>56.42</v>
+        <v>208.45</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1">
-        <v>2098</v>
+        <v>1839</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>2260.2</v>
+        <v>1835</v>
       </c>
       <c r="F16" s="1">
-        <v>-162.2</v>
+        <v>4</v>
       </c>
       <c r="G16" s="1">
-        <v>2098</v>
+        <v>1839</v>
       </c>
       <c r="H16" s="1">
-        <v>-164.428</v>
+        <v>1.874</v>
       </c>
       <c r="I16" s="1">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -4231,71 +4231,71 @@
     </row>
     <row r="18" ht="15" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1">
-        <v>2158</v>
+        <v>2207</v>
       </c>
       <c r="C18" s="1">
-        <v>70266</v>
+        <v>291761</v>
       </c>
       <c r="D18" s="1">
-        <v>164</v>
+        <v>799</v>
       </c>
       <c r="E18" s="1">
-        <v>62500.02</v>
+        <v>276754.01</v>
       </c>
       <c r="F18" s="1">
-        <v>7765.98</v>
+        <v>15006.99</v>
       </c>
       <c r="G18" s="1">
-        <v>70266</v>
+        <v>291761</v>
       </c>
       <c r="H18" s="1">
-        <v>7650.01</v>
+        <v>14442.121</v>
       </c>
       <c r="I18" s="1">
-        <v>115.97</v>
+        <v>564.87</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B19" s="1">
-        <v>2251</v>
+        <v>4097</v>
       </c>
       <c r="C19" s="1">
-        <v>22906</v>
+        <v>38642</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>20280.23</v>
+        <v>34827.63</v>
       </c>
       <c r="F19" s="1">
-        <v>2625.77</v>
+        <v>3814.37</v>
       </c>
       <c r="G19" s="1">
-        <v>22906</v>
+        <v>38642</v>
       </c>
       <c r="H19" s="1">
-        <v>2412.541</v>
+        <v>3767.433</v>
       </c>
       <c r="I19" s="1">
-        <v>213.23</v>
+        <v>46.94</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -4304,71 +4304,71 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B21" s="1">
-        <v>3514</v>
+        <v>1495</v>
       </c>
       <c r="C21" s="1">
-        <v>41443</v>
+        <v>19799</v>
       </c>
       <c r="D21" s="1">
-        <v>420</v>
+        <v>151</v>
       </c>
       <c r="E21" s="1">
-        <v>43667.82</v>
+        <v>17393.56</v>
       </c>
       <c r="F21" s="1">
-        <v>-2224.82</v>
+        <v>2405.44</v>
       </c>
       <c r="G21" s="1">
-        <v>41443</v>
+        <v>19799</v>
       </c>
       <c r="H21" s="1">
-        <v>-2286.372</v>
+        <v>2371.454</v>
       </c>
       <c r="I21" s="1">
-        <v>61.55</v>
+        <v>33.99</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B22" s="1">
-        <v>4554</v>
+        <v>3572</v>
       </c>
       <c r="C22" s="1">
-        <v>85496</v>
+        <v>63101</v>
       </c>
       <c r="D22" s="1">
-        <v>1477</v>
+        <v>2241</v>
       </c>
       <c r="E22" s="1">
-        <v>85915.66</v>
+        <v>117231.5</v>
       </c>
       <c r="F22" s="1">
-        <v>-419.66</v>
+        <v>-54130.5</v>
       </c>
       <c r="G22" s="1">
-        <v>85496</v>
+        <v>63101</v>
       </c>
       <c r="H22" s="1">
-        <v>-419.66</v>
+        <v>-54130.5</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -4376,57 +4376,57 @@
     </row>
     <row r="23" ht="15" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1">
-        <v>1580</v>
+        <v>467</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>223.44</v>
+        <v>152.88</v>
       </c>
       <c r="F23" s="1">
-        <v>1356.56</v>
+        <v>314.12</v>
       </c>
       <c r="G23" s="1">
-        <v>1580</v>
+        <v>467</v>
       </c>
       <c r="H23" s="1">
-        <v>1353.404</v>
+        <v>313.186</v>
       </c>
       <c r="I23" s="1">
-        <v>3.16</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="24" ht="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1">
-        <v>1402</v>
+        <v>1217</v>
       </c>
       <c r="C24" s="1">
-        <v>15147</v>
+        <v>19028</v>
       </c>
       <c r="D24" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>14975.15</v>
+        <v>18131.02</v>
       </c>
       <c r="F24" s="1">
-        <v>171.85</v>
+        <v>896.98</v>
       </c>
       <c r="G24" s="1">
-        <v>15147</v>
+        <v>19028</v>
       </c>
       <c r="H24" s="1">
-        <v>171.85</v>
+        <v>896.98</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
@@ -4434,86 +4434,86 @@
     </row>
     <row r="25" ht="24" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1">
-        <v>3801</v>
+        <v>4217</v>
       </c>
       <c r="C25" s="1">
-        <v>27946</v>
+        <v>19921</v>
       </c>
       <c r="D25" s="1">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="E25" s="1">
-        <v>27591.3</v>
+        <v>19227.78</v>
       </c>
       <c r="F25" s="1">
-        <v>354.7</v>
+        <v>693.22</v>
       </c>
       <c r="G25" s="1">
-        <v>27946</v>
+        <v>19921</v>
       </c>
       <c r="H25" s="1">
-        <v>157.67</v>
+        <v>665.179</v>
       </c>
       <c r="I25" s="1">
-        <v>197.03</v>
+        <v>28.04</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B26" s="1">
-        <v>19301</v>
+        <v>16208</v>
       </c>
       <c r="C26" s="1">
-        <v>287002</v>
+        <v>354372</v>
       </c>
       <c r="D26" s="1">
-        <v>418</v>
+        <v>857</v>
       </c>
       <c r="E26" s="1">
-        <v>299373.06</v>
+        <v>338207.01</v>
       </c>
       <c r="F26" s="1">
-        <v>-12371.06</v>
+        <v>16164.99</v>
       </c>
       <c r="G26" s="1">
-        <v>287002</v>
+        <v>354372</v>
       </c>
       <c r="H26" s="1">
-        <v>-13639.761</v>
+        <v>15539.579</v>
       </c>
       <c r="I26" s="1">
-        <v>1268.7</v>
+        <v>625.41</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B27" s="1">
-        <v>86</v>
+        <v>991</v>
       </c>
       <c r="C27" s="1">
-        <v>966</v>
+        <v>21832</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="E27" s="1">
-        <v>116</v>
+        <v>11678.08</v>
       </c>
       <c r="F27" s="1">
-        <v>850</v>
+        <v>9553.92</v>
       </c>
       <c r="G27" s="1">
-        <v>966</v>
+        <v>21232</v>
       </c>
       <c r="H27" s="1">
-        <v>850</v>
+        <v>9553.92</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
@@ -4521,28 +4521,28 @@
     </row>
     <row r="28" ht="24" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B28" s="1">
-        <v>16451</v>
+        <v>15334</v>
       </c>
       <c r="C28" s="1">
-        <v>387891</v>
+        <v>257313</v>
       </c>
       <c r="D28" s="1">
-        <v>762</v>
+        <v>325</v>
       </c>
       <c r="E28" s="1">
-        <v>398398.7</v>
+        <v>235705.98</v>
       </c>
       <c r="F28" s="1">
-        <v>-10507.7</v>
+        <v>21607.02</v>
       </c>
       <c r="G28" s="1">
-        <v>387891</v>
+        <v>257313</v>
       </c>
       <c r="H28" s="1">
-        <v>-10507.7</v>
+        <v>21607.02</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
@@ -4550,57 +4550,57 @@
     </row>
     <row r="29" ht="15" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B29" s="1">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1">
-        <v>1711</v>
+        <v>1335</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>968.24</v>
+        <v>533.12</v>
       </c>
       <c r="F29" s="1">
-        <v>742.76</v>
+        <v>801.88</v>
       </c>
       <c r="G29" s="1">
-        <v>1711</v>
+        <v>1335</v>
       </c>
       <c r="H29" s="1">
-        <v>739.338</v>
+        <v>799.21</v>
       </c>
       <c r="I29" s="1">
-        <v>3.42</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B30" s="1">
-        <v>302</v>
+        <v>450</v>
       </c>
       <c r="C30" s="1">
-        <v>12393</v>
+        <v>27119</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>784.24</v>
+        <v>2525.8</v>
       </c>
       <c r="F30" s="1">
-        <v>11608.76</v>
+        <v>24593.2</v>
       </c>
       <c r="G30" s="1">
-        <v>12393</v>
+        <v>27119</v>
       </c>
       <c r="H30" s="1">
-        <v>11608.76</v>
+        <v>24593.2</v>
       </c>
       <c r="I30" s="1">
         <v>0</v>
@@ -4608,57 +4608,57 @@
     </row>
     <row r="31" ht="15" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B31" s="1">
-        <v>4868</v>
+        <v>2452</v>
       </c>
       <c r="C31" s="1">
-        <v>322339</v>
+        <v>46395</v>
       </c>
       <c r="D31" s="1">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E31" s="1">
-        <v>303552.13</v>
+        <v>42031.6</v>
       </c>
       <c r="F31" s="1">
-        <v>18786.87</v>
+        <v>4363.4</v>
       </c>
       <c r="G31" s="1">
-        <v>322339</v>
+        <v>46395</v>
       </c>
       <c r="H31" s="1">
-        <v>18634.037</v>
+        <v>4286.75</v>
       </c>
       <c r="I31" s="1">
-        <v>152.83</v>
+        <v>76.65</v>
       </c>
     </row>
     <row r="32" ht="24" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B32" s="1">
-        <v>2527</v>
+        <v>2687</v>
       </c>
       <c r="C32" s="1">
-        <v>26181</v>
+        <v>37768</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>27212.64</v>
+        <v>34093.65</v>
       </c>
       <c r="F32" s="1">
-        <v>-1031.64</v>
+        <v>3674.35</v>
       </c>
       <c r="G32" s="1">
-        <v>26181</v>
+        <v>37768</v>
       </c>
       <c r="H32" s="1">
-        <v>-1031.64</v>
+        <v>3674.35</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
@@ -4666,59 +4666,59 @@
     </row>
     <row r="33" ht="15" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B33" s="1">
-        <v>14316</v>
+        <v>18823</v>
       </c>
       <c r="C33" s="1">
-        <v>201068</v>
+        <v>399691</v>
       </c>
       <c r="D33" s="1">
-        <v>334</v>
+        <v>828</v>
       </c>
       <c r="E33" s="1">
-        <v>199901.62</v>
+        <v>405637.24</v>
       </c>
       <c r="F33" s="1">
-        <v>1166.38</v>
+        <v>-5946.24</v>
       </c>
       <c r="G33" s="1">
-        <v>201068</v>
+        <v>399691</v>
       </c>
       <c r="H33" s="1">
-        <v>519.33</v>
+        <v>-7006.542</v>
       </c>
       <c r="I33" s="1">
-        <v>647.05</v>
+        <v>1060.3</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:9">
-      <c r="A34" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2">
+      <c r="A34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4733,8 +4733,8 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4773,65 +4773,65 @@
     </row>
     <row r="2" ht="24.75" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1">
-        <v>393</v>
+        <v>251</v>
       </c>
       <c r="C2" s="1">
-        <v>31400</v>
+        <v>27149</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>27874.75</v>
+        <v>23521.55</v>
       </c>
       <c r="F2" s="1">
-        <v>1163.25</v>
+        <v>-434.55</v>
       </c>
       <c r="G2" s="1">
-        <v>29038</v>
+        <v>23087</v>
       </c>
       <c r="H2" s="1">
-        <v>1052.338</v>
+        <v>-531.218</v>
       </c>
       <c r="I2" s="1">
-        <v>110.91</v>
+        <v>96.67</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1">
-        <v>784</v>
+        <v>610</v>
       </c>
       <c r="C3" s="1">
-        <v>50778</v>
+        <v>65444</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>50484</v>
+        <v>61362.25</v>
       </c>
       <c r="F3" s="1">
-        <v>-4159</v>
+        <v>-288.25</v>
       </c>
       <c r="G3" s="1">
-        <v>46325</v>
+        <v>61074</v>
       </c>
       <c r="H3" s="1">
-        <v>-4308.468</v>
+        <v>-515.942</v>
       </c>
       <c r="I3" s="1">
-        <v>149.47</v>
+        <v>227.69</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -4860,118 +4860,118 @@
     </row>
     <row r="5" ht="24.75" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1">
-        <v>312</v>
+        <v>242</v>
       </c>
       <c r="C5" s="1">
-        <v>15188</v>
+        <v>18210</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>11153.2</v>
+        <v>14742.5</v>
       </c>
       <c r="F5" s="1">
-        <v>3014.8</v>
+        <v>2257.5</v>
       </c>
       <c r="G5" s="1">
-        <v>14168</v>
+        <v>17000</v>
       </c>
       <c r="H5" s="1">
-        <v>2966.372</v>
+        <v>2181.264</v>
       </c>
       <c r="I5" s="1">
-        <v>48.43</v>
+        <v>76.24</v>
       </c>
     </row>
     <row r="6" ht="24.75" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1">
-        <v>263</v>
+        <v>116</v>
       </c>
       <c r="C6" s="1">
-        <v>18442</v>
+        <v>8798</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>14743.55</v>
+        <v>8692.75</v>
       </c>
       <c r="F6" s="1">
-        <v>2003.45</v>
+        <v>-194.75</v>
       </c>
       <c r="G6" s="1">
-        <v>16747</v>
+        <v>8498</v>
       </c>
       <c r="H6" s="1">
-        <v>1942.542</v>
+        <v>-234.842</v>
       </c>
       <c r="I6" s="1">
-        <v>60.91</v>
+        <v>40.09</v>
       </c>
     </row>
     <row r="7" ht="24.75" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="C7" s="1">
-        <v>14836</v>
+        <v>20947</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>10948.25</v>
+        <v>23089.75</v>
       </c>
       <c r="F7" s="1">
-        <v>1971.75</v>
+        <v>-2522.75</v>
       </c>
       <c r="G7" s="1">
-        <v>12920</v>
+        <v>20567</v>
       </c>
       <c r="H7" s="1">
-        <v>1920.07</v>
+        <v>-2604.798</v>
       </c>
       <c r="I7" s="1">
-        <v>51.68</v>
+        <v>82.05</v>
       </c>
     </row>
     <row r="8" ht="24.75" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1">
-        <v>428</v>
+        <v>249</v>
       </c>
       <c r="C8" s="1">
-        <v>32607</v>
+        <v>11671</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>27406.05</v>
+        <v>10895.7</v>
       </c>
       <c r="F8" s="1">
-        <v>1134.95</v>
+        <v>-7.7</v>
       </c>
       <c r="G8" s="1">
-        <v>28541</v>
+        <v>10888</v>
       </c>
       <c r="H8" s="1">
-        <v>1033.666</v>
+        <v>-62.732</v>
       </c>
       <c r="I8" s="1">
-        <v>101.28</v>
+        <v>55.03</v>
       </c>
     </row>
     <row r="9" ht="24" spans="1:9">
@@ -4979,236 +4979,236 @@
         <v>51</v>
       </c>
       <c r="B9" s="1">
-        <v>1076</v>
+        <v>1363</v>
       </c>
       <c r="C9" s="1">
-        <v>40266</v>
+        <v>67473</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E9" s="1">
-        <v>38813.9</v>
+        <v>64952.9</v>
       </c>
       <c r="F9" s="1">
-        <v>-1084.9</v>
+        <v>-2462.9</v>
       </c>
       <c r="G9" s="1">
-        <v>37729</v>
+        <v>62490</v>
       </c>
       <c r="H9" s="1">
-        <v>-1251.932</v>
+        <v>-2698.128</v>
       </c>
       <c r="I9" s="1">
-        <v>167.03</v>
+        <v>235.23</v>
       </c>
     </row>
     <row r="10" ht="24.75" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1">
-        <v>405</v>
+        <v>205</v>
       </c>
       <c r="C10" s="1">
-        <v>38690</v>
+        <v>35571</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>36682.45</v>
+        <v>28541.4</v>
       </c>
       <c r="F10" s="1">
-        <v>-1919.45</v>
+        <v>2383.6</v>
       </c>
       <c r="G10" s="1">
-        <v>34763</v>
+        <v>30925</v>
       </c>
       <c r="H10" s="1">
-        <v>-2053.766</v>
+        <v>2285.052</v>
       </c>
       <c r="I10" s="1">
-        <v>134.32</v>
+        <v>98.55</v>
       </c>
     </row>
     <row r="11" ht="24.75" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1">
-        <v>557</v>
+        <v>218</v>
       </c>
       <c r="C11" s="1">
-        <v>38723</v>
+        <v>22803</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>41804.4</v>
+        <v>22124.35</v>
       </c>
       <c r="F11" s="1">
-        <v>-5836.4</v>
+        <v>-721.35</v>
       </c>
       <c r="G11" s="1">
-        <v>35968</v>
+        <v>21403</v>
       </c>
       <c r="H11" s="1">
-        <v>-5972.004</v>
+        <v>-813.038</v>
       </c>
       <c r="I11" s="1">
-        <v>135.6</v>
+        <v>91.69</v>
       </c>
     </row>
     <row r="12" ht="24.75" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1">
-        <v>629</v>
+        <v>434</v>
       </c>
       <c r="C12" s="1">
-        <v>76443</v>
+        <v>66049</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>57097.75</v>
+        <v>55580.05</v>
       </c>
       <c r="F12" s="1">
-        <v>14625.25</v>
+        <v>6700.95</v>
       </c>
       <c r="G12" s="1">
-        <v>71723</v>
+        <v>62281</v>
       </c>
       <c r="H12" s="1">
-        <v>14336.418</v>
+        <v>6453.606</v>
       </c>
       <c r="I12" s="1">
-        <v>288.83</v>
+        <v>247.34</v>
       </c>
     </row>
     <row r="13" ht="24.75" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1">
-        <v>530</v>
+        <v>492</v>
       </c>
       <c r="C13" s="1">
-        <v>37479</v>
+        <v>27006</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>34145.85</v>
+        <v>27752.1</v>
       </c>
       <c r="F13" s="1">
-        <v>-1434.85</v>
+        <v>-1973.1</v>
       </c>
       <c r="G13" s="1">
-        <v>32711</v>
+        <v>25779</v>
       </c>
       <c r="H13" s="1">
-        <v>-1563.162</v>
+        <v>-2079.328</v>
       </c>
       <c r="I13" s="1">
-        <v>128.31</v>
+        <v>106.23</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1">
-        <v>1005</v>
+        <v>2069</v>
       </c>
       <c r="C14" s="1">
-        <v>31227</v>
+        <v>126819</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>2640</v>
       </c>
       <c r="E14" s="1">
-        <v>29540.2</v>
+        <v>128191.67</v>
       </c>
       <c r="F14" s="1">
-        <v>1686.8</v>
+        <v>-1372.67</v>
       </c>
       <c r="G14" s="1">
-        <v>31227</v>
+        <v>126819</v>
       </c>
       <c r="H14" s="1">
-        <v>1323.81</v>
+        <v>-2977.565</v>
       </c>
       <c r="I14" s="1">
-        <v>362.99</v>
+        <v>1604.89</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1">
-        <v>158</v>
+        <v>334</v>
       </c>
       <c r="C15" s="1">
-        <v>4083</v>
+        <v>13527</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E15" s="1">
-        <v>6324.56</v>
+        <v>15039</v>
       </c>
       <c r="F15" s="1">
-        <v>-2241.56</v>
+        <v>-1512</v>
       </c>
       <c r="G15" s="1">
-        <v>4083</v>
+        <v>13527</v>
       </c>
       <c r="H15" s="1">
-        <v>-2263.389</v>
+        <v>-1681.506</v>
       </c>
       <c r="I15" s="1">
-        <v>21.83</v>
+        <v>169.51</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1">
-        <v>127</v>
+        <v>285</v>
       </c>
       <c r="C16" s="1">
-        <v>1818</v>
+        <v>8685</v>
       </c>
       <c r="D16" s="1">
-        <v>10</v>
+        <v>456</v>
       </c>
       <c r="E16" s="1">
-        <v>2222</v>
+        <v>8921</v>
       </c>
       <c r="F16" s="1">
-        <v>-404</v>
+        <v>-236</v>
       </c>
       <c r="G16" s="1">
-        <v>1818</v>
+        <v>8685</v>
       </c>
       <c r="H16" s="1">
-        <v>-404.05</v>
+        <v>-237.5</v>
       </c>
       <c r="I16" s="1">
-        <v>0.05</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -5237,65 +5237,65 @@
     </row>
     <row r="18" ht="15" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1">
-        <v>361</v>
+        <v>669</v>
       </c>
       <c r="C18" s="1">
-        <v>69073</v>
+        <v>73177</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="E18" s="1">
-        <v>23640.38</v>
+        <v>91259.12</v>
       </c>
       <c r="F18" s="1">
-        <v>45432.62</v>
+        <v>-18082.12</v>
       </c>
       <c r="G18" s="1">
-        <v>69073</v>
+        <v>73177</v>
       </c>
       <c r="H18" s="1">
-        <v>44332.7412</v>
+        <v>-19241.995</v>
       </c>
       <c r="I18" s="1">
-        <v>1050.83</v>
+        <v>1108.88</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B19" s="1">
-        <v>276</v>
+        <v>1186</v>
       </c>
       <c r="C19" s="1">
-        <v>3855</v>
+        <v>8211</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E19" s="1">
-        <v>3479</v>
+        <v>7446.86</v>
       </c>
       <c r="F19" s="1">
-        <v>376</v>
+        <v>764.14</v>
       </c>
       <c r="G19" s="1">
-        <v>3855</v>
+        <v>8211</v>
       </c>
       <c r="H19" s="1">
-        <v>337.8</v>
+        <v>692.65</v>
       </c>
       <c r="I19" s="1">
-        <v>38.2</v>
+        <v>71.49</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -5324,57 +5324,57 @@
     </row>
     <row r="21" ht="15" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B21" s="1">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1">
-        <v>1045</v>
+        <v>181</v>
       </c>
       <c r="D21" s="1">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>1227.6</v>
+        <v>29.7</v>
       </c>
       <c r="F21" s="1">
-        <v>-182.6</v>
+        <v>151.3</v>
       </c>
       <c r="G21" s="1">
-        <v>1045</v>
+        <v>181</v>
       </c>
       <c r="H21" s="1">
-        <v>-184.269</v>
+        <v>145.79</v>
       </c>
       <c r="I21" s="1">
-        <v>1.67</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B22" s="1">
-        <v>1010</v>
+        <v>1201</v>
       </c>
       <c r="C22" s="1">
-        <v>25394</v>
+        <v>29417</v>
       </c>
       <c r="D22" s="1">
-        <v>620</v>
+        <v>1157</v>
       </c>
       <c r="E22" s="1">
-        <v>26570.59</v>
+        <v>30719.9</v>
       </c>
       <c r="F22" s="1">
-        <v>-1176.59</v>
+        <v>-1302.9</v>
       </c>
       <c r="G22" s="1">
-        <v>25394</v>
+        <v>29417</v>
       </c>
       <c r="H22" s="1">
-        <v>-1176.59</v>
+        <v>-1302.9</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -5382,57 +5382,57 @@
     </row>
     <row r="23" ht="15" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>148.24</v>
+        <v>69.84</v>
       </c>
       <c r="F23" s="1">
-        <v>-8.24</v>
+        <v>68.16</v>
       </c>
       <c r="G23" s="1">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H23" s="1">
-        <v>-9.64</v>
+        <v>66.78</v>
       </c>
       <c r="I23" s="1">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="24" ht="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1">
-        <v>149</v>
+        <v>309</v>
       </c>
       <c r="C24" s="1">
-        <v>3599</v>
+        <v>4800</v>
       </c>
       <c r="D24" s="1">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="E24" s="1">
-        <v>3270.71</v>
+        <v>3780.47</v>
       </c>
       <c r="F24" s="1">
-        <v>328.29</v>
+        <v>1019.53</v>
       </c>
       <c r="G24" s="1">
-        <v>3599</v>
+        <v>4800</v>
       </c>
       <c r="H24" s="1">
-        <v>328.29</v>
+        <v>1019.53</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
@@ -5440,86 +5440,86 @@
     </row>
     <row r="25" ht="24" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1">
-        <v>1804</v>
+        <v>2334</v>
       </c>
       <c r="C25" s="1">
-        <v>21500</v>
+        <v>28574</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>19294.46</v>
+        <v>29310.41</v>
       </c>
       <c r="F25" s="1">
-        <v>2205.54</v>
+        <v>-736.41</v>
       </c>
       <c r="G25" s="1">
-        <v>21500</v>
+        <v>28574</v>
       </c>
       <c r="H25" s="1">
-        <v>1997.978</v>
+        <v>-927.415</v>
       </c>
       <c r="I25" s="1">
-        <v>207.56</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B26" s="1">
-        <v>8263</v>
+        <v>10006</v>
       </c>
       <c r="C26" s="1">
-        <v>395464</v>
+        <v>1013996</v>
       </c>
       <c r="D26" s="1">
-        <v>7483</v>
+        <v>14206</v>
       </c>
       <c r="E26" s="1">
-        <v>396505.6</v>
+        <v>908412.37</v>
       </c>
       <c r="F26" s="1">
-        <v>-1041.6</v>
+        <v>105583.63</v>
       </c>
       <c r="G26" s="1">
-        <v>395464</v>
+        <v>1013996</v>
       </c>
       <c r="H26" s="1">
-        <v>-7405.0753</v>
+        <v>87104.6658</v>
       </c>
       <c r="I26" s="1">
-        <v>5538.27</v>
+        <v>16636.17</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B27" s="1">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>3439</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>2795.54</v>
       </c>
       <c r="F27" s="1">
-        <v>0</v>
+        <v>643.46</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>3439</v>
       </c>
       <c r="H27" s="1">
-        <v>0</v>
+        <v>643.46</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
@@ -5527,28 +5527,28 @@
     </row>
     <row r="28" ht="24" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B28" s="1">
-        <v>13422</v>
+        <v>18611</v>
       </c>
       <c r="C28" s="1">
-        <v>101544</v>
+        <v>112964</v>
       </c>
       <c r="D28" s="1">
-        <v>2872</v>
+        <v>4168</v>
       </c>
       <c r="E28" s="1">
-        <v>98084.26</v>
+        <v>107691.9</v>
       </c>
       <c r="F28" s="1">
-        <v>3459.74</v>
+        <v>5272.1</v>
       </c>
       <c r="G28" s="1">
-        <v>101544</v>
+        <v>112964</v>
       </c>
       <c r="H28" s="1">
-        <v>3459.74</v>
+        <v>5272.1</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
@@ -5556,42 +5556,42 @@
     </row>
     <row r="29" ht="15" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B29" s="1">
-        <v>135</v>
+        <v>338</v>
       </c>
       <c r="C29" s="1">
-        <v>433</v>
+        <v>892</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>199.2</v>
+        <v>798.08</v>
       </c>
       <c r="F29" s="1">
-        <v>233.8</v>
+        <v>93.92</v>
       </c>
       <c r="G29" s="1">
-        <v>433</v>
+        <v>892</v>
       </c>
       <c r="H29" s="1">
-        <v>229.47</v>
+        <v>85</v>
       </c>
       <c r="I29" s="1">
-        <v>4.33</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B30" s="1">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C30" s="1">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -5600,13 +5600,13 @@
         <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1">
         <v>0</v>
@@ -5614,57 +5614,57 @@
     </row>
     <row r="31" ht="15" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B31" s="1">
-        <v>4874</v>
+        <v>10714</v>
       </c>
       <c r="C31" s="1">
-        <v>45358</v>
+        <v>34954</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>50372.33</v>
+        <v>37114.99</v>
       </c>
       <c r="F31" s="1">
-        <v>-5014.33</v>
+        <v>-2160.99</v>
       </c>
       <c r="G31" s="1">
-        <v>45358</v>
+        <v>34954</v>
       </c>
       <c r="H31" s="1">
-        <v>-5175.2527</v>
+        <v>-2270.8071</v>
       </c>
       <c r="I31" s="1">
-        <v>157.66</v>
+        <v>104.6</v>
       </c>
     </row>
     <row r="32" ht="24" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B32" s="1">
-        <v>8939</v>
+        <v>13189</v>
       </c>
       <c r="C32" s="1">
-        <v>77136</v>
+        <v>101297</v>
       </c>
       <c r="D32" s="1">
-        <v>2228</v>
+        <v>1549</v>
       </c>
       <c r="E32" s="1">
-        <v>75786.9</v>
+        <v>106105.59</v>
       </c>
       <c r="F32" s="1">
-        <v>1349.1</v>
+        <v>-4808.59</v>
       </c>
       <c r="G32" s="1">
-        <v>77136</v>
+        <v>101297</v>
       </c>
       <c r="H32" s="1">
-        <v>1349.1</v>
+        <v>-4808.59</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
@@ -5672,36 +5672,36 @@
     </row>
     <row r="33" ht="15" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B33" s="1">
-        <v>993</v>
+        <v>919</v>
       </c>
       <c r="C33" s="1">
-        <v>102171</v>
+        <v>81120</v>
       </c>
       <c r="D33" s="1">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E33" s="1">
-        <v>85691.23</v>
+        <v>54157.89</v>
       </c>
       <c r="F33" s="1">
-        <v>16479.77</v>
+        <v>26962.11</v>
       </c>
       <c r="G33" s="1">
-        <v>102171</v>
+        <v>81120</v>
       </c>
       <c r="H33" s="1">
-        <v>13810.4127</v>
+        <v>24555.6058</v>
       </c>
       <c r="I33" s="1">
-        <v>2669.29</v>
+        <v>2065.8</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:9">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>

--- a/document/下级代理帐变报表.xlsx
+++ b/document/下级代理帐变报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="108">
   <si>
     <t>账号名称</t>
   </si>
@@ -122,22 +122,22 @@
     <t>「MCG7001」永利俱乐部</t>
   </si>
   <si>
-    <t>「MCG7004」河洛坊</t>
-  </si>
-  <si>
     <t>「MCG7005」永利俱乐部</t>
   </si>
   <si>
     <t>「yy00hya」YY娱乐城</t>
   </si>
   <si>
-    <t>「yy00dd」MM娱乐城</t>
-  </si>
-  <si>
     <t>「xingyun01」永诚俱乐部</t>
   </si>
   <si>
     <t>「DF1076」江山 -『VIP』</t>
+  </si>
+  <si>
+    <t>「ID666789」VIP俱乐部</t>
+  </si>
+  <si>
+    <t>「boyousan66」皇冠俱乐部</t>
   </si>
   <si>
     <t>「jc0002」旺诚国际</t>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>「byj001」金马俱乐部</t>
-  </si>
-  <si>
-    <t>「boyousan66」皇冠俱乐部</t>
   </si>
   <si>
     <t>BY01</t>
@@ -1909,7 +1906,7 @@
   <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2008,70 +2005,70 @@
         <v>24</v>
       </c>
       <c r="B2" s="4">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D2" s="4">
-        <v>195396</v>
+        <v>177603</v>
       </c>
       <c r="E2" s="4">
-        <v>1932</v>
+        <v>1692</v>
       </c>
       <c r="F2" s="4">
         <v>2</v>
       </c>
       <c r="G2" s="4">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H2" s="4">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I2" s="4">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="J2" s="4">
-        <v>228880</v>
+        <v>90445</v>
       </c>
       <c r="K2" s="4">
-        <v>-33484</v>
+        <v>87158</v>
       </c>
       <c r="L2" s="4">
         <v>0</v>
       </c>
       <c r="M2" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N2" s="4">
         <v>0</v>
       </c>
       <c r="O2" s="4">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P2" s="4">
-        <v>4440.984</v>
+        <v>3303.391</v>
       </c>
       <c r="Q2" s="4">
-        <v>195396</v>
+        <v>177603</v>
       </c>
       <c r="R2" s="4">
-        <v>1351920</v>
+        <v>1205333</v>
       </c>
       <c r="S2" s="4">
-        <v>228880</v>
+        <v>90345</v>
       </c>
       <c r="T2" s="4">
-        <v>1932</v>
+        <v>1692</v>
       </c>
       <c r="U2" s="4">
-        <v>19681.211</v>
+        <v>-12395.866</v>
       </c>
       <c r="V2" s="4">
         <v>0</v>
       </c>
       <c r="W2" s="4">
-        <v>1359349.805</v>
+        <v>1125575.475</v>
       </c>
       <c r="X2" s="4">
         <v>0</v>
@@ -2083,70 +2080,70 @@
         <v>25</v>
       </c>
       <c r="B3" s="4">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C3" s="4">
-        <v>345</v>
+        <v>407</v>
       </c>
       <c r="D3" s="4">
-        <v>231218</v>
+        <v>398131</v>
       </c>
       <c r="E3" s="4">
-        <v>6901.2</v>
+        <v>7365.25</v>
       </c>
       <c r="F3" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G3" s="4">
-        <v>3500</v>
+        <v>6639</v>
       </c>
       <c r="H3" s="4">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="I3" s="4">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J3" s="4">
-        <v>237164</v>
+        <v>289049</v>
       </c>
       <c r="K3" s="4">
-        <v>-5946</v>
+        <v>109082</v>
       </c>
       <c r="L3" s="4">
         <v>0</v>
       </c>
       <c r="M3" s="4">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4">
         <v>0</v>
       </c>
       <c r="O3" s="4">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="P3" s="4">
-        <v>2340.132</v>
+        <v>6790.1025</v>
       </c>
       <c r="Q3" s="4">
-        <v>231218</v>
+        <v>398131</v>
       </c>
       <c r="R3" s="4">
-        <v>1322163</v>
+        <v>3308019</v>
       </c>
       <c r="S3" s="4">
-        <v>235664</v>
+        <v>289049</v>
       </c>
       <c r="T3" s="4">
-        <v>6928.54</v>
+        <v>7396.53</v>
       </c>
       <c r="U3" s="4">
-        <v>44250.834</v>
+        <v>-57995.1265</v>
       </c>
       <c r="V3" s="4">
         <v>0</v>
       </c>
       <c r="W3" s="4">
-        <v>1274589.494</v>
+        <v>3242745.494</v>
       </c>
       <c r="X3" s="4">
         <v>0</v>
@@ -2158,51 +2155,51 @@
       </c>
       <c r="B4" s="2">
         <f>B21+B22</f>
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:X4" si="0">C21+C22</f>
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>117298</v>
+        <v>77997</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>2289</v>
+        <v>963</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>832</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>82194</v>
+        <v>25615</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>35104</v>
+        <v>52382</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>9381</v>
+        <v>29871</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="0"/>
-        <v>8958</v>
+        <v>9771</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
@@ -2210,31 +2207,31 @@
       </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>5422.01</v>
+        <v>3407.9565</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>107917</v>
+        <v>48126</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="0"/>
-        <v>1000669</v>
+        <v>533183</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="0"/>
-        <v>73236</v>
+        <v>15844</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="0"/>
-        <v>2307</v>
+        <v>2319</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>-29719.6055</v>
+        <v>-78725.7525</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="0"/>
@@ -2242,11 +2239,11 @@
       </c>
       <c r="W4" s="2">
         <f t="shared" si="0"/>
-        <v>985530.901</v>
+        <v>552978.67</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>2024.6945</v>
+        <v>821.126</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:24">
@@ -2327,73 +2324,73 @@
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="3">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3">
-        <v>33</v>
-      </c>
-      <c r="D6" s="3">
-        <v>35226</v>
-      </c>
-      <c r="E6" s="3">
-        <v>154</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="B6" s="4">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4">
+        <v>14992</v>
+      </c>
+      <c r="E6" s="4">
+        <v>134</v>
+      </c>
+      <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <v>100</v>
       </c>
-      <c r="H6" s="3">
-        <v>10</v>
-      </c>
-      <c r="I6" s="3">
-        <v>12</v>
-      </c>
-      <c r="J6" s="3">
-        <v>26911</v>
-      </c>
-      <c r="K6" s="3">
-        <v>8315</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>20</v>
-      </c>
-      <c r="P6" s="3">
-        <v>423.434</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>35226</v>
-      </c>
-      <c r="R6" s="3">
-        <v>155889</v>
-      </c>
-      <c r="S6" s="3">
-        <v>26911</v>
-      </c>
-      <c r="T6" s="3">
-        <v>154</v>
-      </c>
-      <c r="U6" s="3">
-        <v>5267.586</v>
-      </c>
-      <c r="V6" s="3">
-        <v>0</v>
-      </c>
-      <c r="W6" s="3">
-        <v>141728.98</v>
-      </c>
-      <c r="X6" s="3">
+      <c r="H6" s="4">
+        <v>9</v>
+      </c>
+      <c r="I6" s="4">
+        <v>11</v>
+      </c>
+      <c r="J6" s="4">
+        <v>12579</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2413</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>18</v>
+      </c>
+      <c r="P6" s="4">
+        <v>374.972</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>14992</v>
+      </c>
+      <c r="R6" s="4">
+        <v>141535</v>
+      </c>
+      <c r="S6" s="4">
+        <v>12579</v>
+      </c>
+      <c r="T6" s="4">
+        <v>134</v>
+      </c>
+      <c r="U6" s="4">
+        <v>-12660.892</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <v>151273.92</v>
+      </c>
+      <c r="X6" s="4">
         <v>0</v>
       </c>
       <c r="Y6" s="6"/>
@@ -2402,73 +2399,73 @@
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3">
-        <v>43</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <v>-54.6</v>
-      </c>
-      <c r="V7" s="3">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3">
-        <v>97.6</v>
-      </c>
-      <c r="X7" s="3">
+      <c r="B7" s="4">
+        <v>48</v>
+      </c>
+      <c r="C7" s="4">
+        <v>110</v>
+      </c>
+      <c r="D7" s="4">
+        <v>162611</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1558</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>100</v>
+      </c>
+      <c r="H7" s="4">
+        <v>20</v>
+      </c>
+      <c r="I7" s="4">
+        <v>25</v>
+      </c>
+      <c r="J7" s="4">
+        <v>77866</v>
+      </c>
+      <c r="K7" s="4">
+        <v>84745</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>100</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>48</v>
+      </c>
+      <c r="P7" s="4">
+        <v>2928.419</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>162611</v>
+      </c>
+      <c r="R7" s="4">
+        <v>1063798</v>
+      </c>
+      <c r="S7" s="4">
+        <v>77766</v>
+      </c>
+      <c r="T7" s="4">
+        <v>1558</v>
+      </c>
+      <c r="U7" s="4">
+        <v>265.026</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
+        <v>974301.555</v>
+      </c>
+      <c r="X7" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2477,34 +2474,34 @@
         <v>30</v>
       </c>
       <c r="B8" s="4">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="D8" s="4">
-        <v>160170</v>
+        <v>37601</v>
       </c>
       <c r="E8" s="4">
-        <v>1778</v>
+        <v>695</v>
       </c>
       <c r="F8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="H8" s="4">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I8" s="4">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J8" s="4">
-        <v>201969</v>
+        <v>20689</v>
       </c>
       <c r="K8" s="4">
-        <v>-41799</v>
+        <v>16912</v>
       </c>
       <c r="L8" s="4">
         <v>0</v>
@@ -2516,31 +2513,31 @@
         <v>0</v>
       </c>
       <c r="O8" s="4">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="P8" s="4">
-        <v>4017.55</v>
+        <v>644.396</v>
       </c>
       <c r="Q8" s="4">
-        <v>160170</v>
+        <v>37601</v>
       </c>
       <c r="R8" s="4">
-        <v>1195988</v>
+        <v>278709</v>
       </c>
       <c r="S8" s="4">
-        <v>201969</v>
+        <v>20689</v>
       </c>
       <c r="T8" s="4">
-        <v>1778</v>
+        <v>708.99</v>
       </c>
       <c r="U8" s="4">
-        <v>14468.225</v>
+        <v>-14393.796</v>
       </c>
       <c r="V8" s="4">
         <v>0</v>
       </c>
       <c r="W8" s="4">
-        <v>1217523.225</v>
+        <v>274837.41</v>
       </c>
       <c r="X8" s="4">
         <v>0</v>
@@ -2551,16 +2548,16 @@
         <v>31</v>
       </c>
       <c r="B9" s="4">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D9" s="4">
-        <v>44137</v>
+        <v>41122</v>
       </c>
       <c r="E9" s="4">
-        <v>693</v>
+        <v>851</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -2569,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="H9" s="4">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I9" s="4">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J9" s="4">
-        <v>11056</v>
+        <v>23254</v>
       </c>
       <c r="K9" s="4">
-        <v>33081</v>
+        <v>17868</v>
       </c>
       <c r="L9" s="4">
         <v>0</v>
@@ -2590,31 +2587,31 @@
         <v>0</v>
       </c>
       <c r="O9" s="4">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="P9" s="4">
-        <v>775.406</v>
+        <v>307.204</v>
       </c>
       <c r="Q9" s="4">
-        <v>44137</v>
+        <v>41122</v>
       </c>
       <c r="R9" s="4">
-        <v>313706</v>
+        <v>134843</v>
       </c>
       <c r="S9" s="4">
-        <v>11056</v>
+        <v>23254</v>
       </c>
       <c r="T9" s="4">
-        <v>710.55</v>
+        <v>851</v>
       </c>
       <c r="U9" s="4">
-        <v>4998.754</v>
+        <v>-13559.911</v>
       </c>
       <c r="V9" s="4">
         <v>0</v>
       </c>
       <c r="W9" s="4">
-        <v>274140.29</v>
+        <v>129376.707</v>
       </c>
       <c r="X9" s="4">
         <v>0</v>
@@ -2625,220 +2622,220 @@
         <v>32</v>
       </c>
       <c r="B10" s="4">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C10" s="4">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="D10" s="4">
-        <v>15750</v>
+        <v>129619</v>
       </c>
       <c r="E10" s="4">
-        <v>246</v>
+        <v>598</v>
       </c>
       <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>16</v>
+      </c>
+      <c r="I10" s="4">
+        <v>23</v>
+      </c>
+      <c r="J10" s="4">
+        <v>64033</v>
+      </c>
+      <c r="K10" s="4">
+        <v>65586</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>33</v>
+      </c>
+      <c r="P10" s="4">
+        <v>3909.08</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>129619</v>
+      </c>
+      <c r="R10" s="4">
+        <v>1935728</v>
+      </c>
+      <c r="S10" s="4">
+        <v>64033</v>
+      </c>
+      <c r="T10" s="4">
+        <v>598</v>
+      </c>
+      <c r="U10" s="4">
+        <v>-44801.132</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
+        <v>1910436.052</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:24">
+      <c r="A11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="4">
+        <v>40</v>
+      </c>
+      <c r="C11" s="4">
+        <v>130</v>
+      </c>
+      <c r="D11" s="4">
+        <v>168177</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2330.3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2000</v>
+      </c>
+      <c r="H11" s="4">
+        <v>23</v>
+      </c>
+      <c r="I11" s="4">
+        <v>52</v>
+      </c>
+      <c r="J11" s="4">
+        <v>160691</v>
+      </c>
+      <c r="K11" s="4">
+        <v>7486</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>38</v>
+      </c>
+      <c r="P11" s="4">
+        <v>1260.5865</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>168177</v>
+      </c>
+      <c r="R11" s="4">
+        <v>757563</v>
+      </c>
+      <c r="S11" s="4">
+        <v>160691</v>
+      </c>
+      <c r="T11" s="4">
+        <v>2330.3</v>
+      </c>
+      <c r="U11" s="4">
+        <v>21799.5285</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0</v>
+      </c>
+      <c r="W11" s="4">
+        <v>724686.585</v>
+      </c>
+      <c r="X11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:24">
+      <c r="A12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4">
+        <v>22</v>
+      </c>
+      <c r="D12" s="4">
+        <v>6892</v>
+      </c>
+      <c r="E12" s="4">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
         <v>2</v>
       </c>
-      <c r="G10" s="4">
-        <v>2000</v>
-      </c>
-      <c r="H10" s="4">
-        <v>7</v>
-      </c>
-      <c r="I10" s="4">
-        <v>13</v>
-      </c>
-      <c r="J10" s="4">
-        <v>26638</v>
-      </c>
-      <c r="K10" s="4">
-        <v>-10888</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>1500</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
-        <v>10</v>
-      </c>
-      <c r="P10" s="4">
-        <v>177.562</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>15750</v>
-      </c>
-      <c r="R10" s="4">
-        <v>98835</v>
-      </c>
-      <c r="S10" s="4">
-        <v>25138</v>
-      </c>
-      <c r="T10" s="4">
-        <v>260.96</v>
-      </c>
-      <c r="U10" s="4">
-        <v>553.238</v>
-      </c>
-      <c r="V10" s="4">
-        <v>0</v>
-      </c>
-      <c r="W10" s="4">
-        <v>108731.24</v>
-      </c>
-      <c r="X10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="15" spans="1:24">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="4">
-        <v>36</v>
-      </c>
-      <c r="C11" s="4">
-        <v>58</v>
-      </c>
-      <c r="D11" s="4">
-        <v>16110</v>
-      </c>
-      <c r="E11" s="4">
-        <v>653</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>14</v>
-      </c>
-      <c r="I11" s="4">
-        <v>17</v>
-      </c>
-      <c r="J11" s="4">
-        <v>28108</v>
-      </c>
-      <c r="K11" s="4">
-        <v>-11998</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <v>36</v>
-      </c>
-      <c r="P11" s="4">
-        <v>202.347</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>16110</v>
-      </c>
-      <c r="R11" s="4">
-        <v>126134</v>
-      </c>
-      <c r="S11" s="4">
-        <v>28108</v>
-      </c>
-      <c r="T11" s="4">
-        <v>653</v>
-      </c>
-      <c r="U11" s="4">
-        <v>29852.833</v>
-      </c>
-      <c r="V11" s="4">
-        <v>0</v>
-      </c>
-      <c r="W11" s="4">
-        <v>107423.82</v>
-      </c>
-      <c r="X11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="15" spans="1:24">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="3">
-        <v>40</v>
-      </c>
-      <c r="C12" s="3">
-        <v>83</v>
-      </c>
-      <c r="D12" s="3">
-        <v>42473</v>
-      </c>
-      <c r="E12" s="3">
-        <v>158</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>19</v>
-      </c>
-      <c r="I12" s="3">
-        <v>31</v>
-      </c>
-      <c r="J12" s="3">
-        <v>35265</v>
-      </c>
-      <c r="K12" s="3">
-        <v>7208</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>40</v>
-      </c>
-      <c r="P12" s="3">
-        <v>737.221</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>42473</v>
-      </c>
-      <c r="R12" s="3">
-        <v>319871</v>
-      </c>
-      <c r="S12" s="3">
-        <v>35265</v>
-      </c>
-      <c r="T12" s="3">
-        <v>158</v>
-      </c>
-      <c r="U12" s="3">
-        <v>1950.729</v>
-      </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
-      <c r="W12" s="3">
-        <v>309817.05</v>
-      </c>
-      <c r="X12" s="3">
+      <c r="I12" s="4">
+        <v>2</v>
+      </c>
+      <c r="J12" s="4">
+        <v>450</v>
+      </c>
+      <c r="K12" s="4">
+        <v>6442</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>9</v>
+      </c>
+      <c r="P12" s="4">
+        <v>13.69</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>6892</v>
+      </c>
+      <c r="R12" s="4">
+        <v>24684</v>
+      </c>
+      <c r="S12" s="4">
+        <v>450</v>
+      </c>
+      <c r="T12" s="4">
+        <v>5</v>
+      </c>
+      <c r="U12" s="4">
+        <v>348.467</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4">
+        <v>17874.843</v>
+      </c>
+      <c r="X12" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2847,16 +2844,16 @@
         <v>35</v>
       </c>
       <c r="B13" s="4">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="4">
-        <v>30</v>
-      </c>
       <c r="D13" s="4">
-        <v>44712</v>
+        <v>28182</v>
       </c>
       <c r="E13" s="4">
-        <v>1425</v>
+        <v>562</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -2865,55 +2862,55 @@
         <v>0</v>
       </c>
       <c r="H13" s="4">
+        <v>4</v>
+      </c>
+      <c r="I13" s="4">
+        <v>4</v>
+      </c>
+      <c r="J13" s="4">
+        <v>9835</v>
+      </c>
+      <c r="K13" s="4">
+        <v>18347</v>
+      </c>
+      <c r="L13" s="4">
+        <v>6841</v>
+      </c>
+      <c r="M13" s="4">
+        <v>6841</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
         <v>3</v>
       </c>
-      <c r="I13" s="4">
-        <v>6</v>
-      </c>
-      <c r="J13" s="4">
-        <v>39120</v>
-      </c>
-      <c r="K13" s="4">
-        <v>5592</v>
-      </c>
-      <c r="L13" s="4">
-        <v>8300</v>
-      </c>
-      <c r="M13" s="4">
-        <v>8858</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <v>6</v>
-      </c>
       <c r="P13" s="4">
-        <v>4533.774</v>
+        <v>1833.7875</v>
       </c>
       <c r="Q13" s="4">
-        <v>36412</v>
+        <v>21341</v>
       </c>
       <c r="R13" s="4">
-        <v>488375</v>
+        <v>187818</v>
       </c>
       <c r="S13" s="4">
-        <v>30262</v>
+        <v>2994</v>
       </c>
       <c r="T13" s="4">
-        <v>1425</v>
+        <v>562</v>
       </c>
       <c r="U13" s="4">
-        <v>-2363.8355</v>
+        <v>-45875.2895</v>
       </c>
       <c r="V13" s="4">
         <v>0</v>
       </c>
       <c r="W13" s="4">
-        <v>478115.89</v>
+        <v>212232.88</v>
       </c>
       <c r="X13" s="4">
-        <v>1072.1715</v>
+        <v>717.622</v>
       </c>
       <c r="Y13" s="6"/>
     </row>
@@ -2922,16 +2919,16 @@
         <v>36</v>
       </c>
       <c r="B14" s="4">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C14" s="4">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D14" s="4">
-        <v>8607</v>
+        <v>5620</v>
       </c>
       <c r="E14" s="4">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F14" s="4">
         <v>0</v>
@@ -2940,19 +2937,19 @@
         <v>0</v>
       </c>
       <c r="H14" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I14" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J14" s="4">
-        <v>4934</v>
+        <v>4500</v>
       </c>
       <c r="K14" s="4">
-        <v>3673</v>
+        <v>1120</v>
       </c>
       <c r="L14" s="4">
-        <v>173</v>
+        <v>600</v>
       </c>
       <c r="M14" s="4">
         <v>0</v>
@@ -2961,31 +2958,31 @@
         <v>0</v>
       </c>
       <c r="O14" s="4">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="P14" s="4">
-        <v>188.257</v>
+        <v>390.524</v>
       </c>
       <c r="Q14" s="4">
-        <v>8434</v>
+        <v>5020</v>
       </c>
       <c r="R14" s="4">
-        <v>55945</v>
+        <v>120728</v>
       </c>
       <c r="S14" s="4">
-        <v>4934</v>
+        <v>4500</v>
       </c>
       <c r="T14" s="4">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="U14" s="4">
-        <v>2196.375</v>
+        <v>5109.437</v>
       </c>
       <c r="V14" s="4">
         <v>0</v>
       </c>
       <c r="W14" s="4">
-        <v>49808.368</v>
+        <v>114014.039</v>
       </c>
       <c r="X14" s="4">
         <v>0</v>
@@ -2999,257 +2996,183 @@
         <v>12</v>
       </c>
       <c r="C15" s="4">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D15" s="4">
-        <v>38037</v>
+        <v>11141</v>
       </c>
       <c r="E15" s="4">
-        <v>488</v>
+        <v>302</v>
       </c>
       <c r="F15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="4">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H15" s="4">
+        <v>4</v>
+      </c>
+      <c r="I15" s="4">
+        <v>4</v>
+      </c>
+      <c r="J15" s="4">
+        <v>10830</v>
+      </c>
+      <c r="K15" s="4">
+        <v>311</v>
+      </c>
+      <c r="L15" s="4">
+        <v>2430</v>
+      </c>
+      <c r="M15" s="4">
+        <v>2930</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
         <v>8</v>
       </c>
-      <c r="I15" s="4">
-        <v>15</v>
-      </c>
-      <c r="J15" s="4">
-        <v>24877</v>
-      </c>
-      <c r="K15" s="4">
-        <v>13160</v>
-      </c>
-      <c r="L15" s="4">
-        <v>658</v>
-      </c>
-      <c r="M15" s="4">
-        <v>100</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4">
-        <v>12</v>
-      </c>
       <c r="P15" s="4">
-        <v>428.368</v>
+        <v>239.8</v>
       </c>
       <c r="Q15" s="4">
-        <v>37379</v>
+        <v>8711</v>
       </c>
       <c r="R15" s="4">
-        <v>334342</v>
+        <v>67835</v>
       </c>
       <c r="S15" s="4">
-        <v>24777</v>
+        <v>7900</v>
       </c>
       <c r="T15" s="4">
-        <v>488</v>
+        <v>302</v>
       </c>
       <c r="U15" s="4">
-        <v>1739.151</v>
+        <v>-768.207</v>
       </c>
       <c r="V15" s="4">
         <v>0</v>
       </c>
       <c r="W15" s="4">
-        <v>317573.958</v>
+        <v>67646.903</v>
       </c>
       <c r="X15" s="4">
-        <v>952.523</v>
+        <v>103.504</v>
       </c>
       <c r="Y15" s="6"/>
-    </row>
-    <row r="16" ht="15" spans="1:24">
-      <c r="A16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="4">
-        <v>13</v>
-      </c>
-      <c r="C16" s="4">
-        <v>49</v>
-      </c>
-      <c r="D16" s="4">
-        <v>15217</v>
-      </c>
-      <c r="E16" s="4">
-        <v>85</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>8</v>
-      </c>
-      <c r="I16" s="4">
-        <v>15</v>
-      </c>
-      <c r="J16" s="4">
-        <v>13063</v>
-      </c>
-      <c r="K16" s="4">
-        <v>2154</v>
-      </c>
-      <c r="L16" s="4">
-        <v>250</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
-        <v>13</v>
-      </c>
-      <c r="P16" s="4">
-        <v>146.798</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>14967</v>
-      </c>
-      <c r="R16" s="4">
-        <v>57796</v>
-      </c>
-      <c r="S16" s="4">
-        <v>13063</v>
-      </c>
-      <c r="T16" s="4">
-        <v>85</v>
-      </c>
-      <c r="U16" s="4">
-        <v>-1346.166</v>
-      </c>
-      <c r="V16" s="4">
-        <v>0</v>
-      </c>
-      <c r="W16" s="4">
-        <v>56756.368</v>
-      </c>
-      <c r="X16" s="4">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" ht="15" spans="1:24">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="4">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C21" s="4">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="D21" s="4">
-        <v>106573</v>
+        <v>51835</v>
       </c>
       <c r="E21" s="4">
-        <v>2077</v>
+        <v>963</v>
       </c>
       <c r="F21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="4">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H21" s="4">
+        <v>12</v>
+      </c>
+      <c r="I21" s="4">
+        <v>12</v>
+      </c>
+      <c r="J21" s="4">
+        <v>25615</v>
+      </c>
+      <c r="K21" s="4">
+        <v>26220</v>
+      </c>
+      <c r="L21" s="4">
+        <v>9871</v>
+      </c>
+      <c r="M21" s="4">
+        <v>9771</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
         <v>25</v>
       </c>
-      <c r="I21" s="4">
-        <v>44</v>
-      </c>
-      <c r="J21" s="4">
-        <v>81994</v>
-      </c>
-      <c r="K21" s="4">
-        <v>24579</v>
-      </c>
-      <c r="L21" s="4">
-        <v>9381</v>
-      </c>
-      <c r="M21" s="4">
-        <v>8958</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <v>44</v>
-      </c>
       <c r="P21" s="4">
-        <v>5297.197</v>
+        <v>2477.8015</v>
       </c>
       <c r="Q21" s="4">
-        <v>97192</v>
+        <v>41964</v>
       </c>
       <c r="R21" s="4">
-        <v>936458</v>
+        <v>401065</v>
       </c>
       <c r="S21" s="4">
-        <v>73036</v>
+        <v>15844</v>
       </c>
       <c r="T21" s="4">
-        <v>2077</v>
+        <v>963</v>
       </c>
       <c r="U21" s="4">
-        <v>225.5245</v>
+        <v>-41185.5925</v>
       </c>
       <c r="V21" s="4">
         <v>0</v>
       </c>
       <c r="W21" s="4">
-        <v>902254.584</v>
+        <v>411768.665</v>
       </c>
       <c r="X21" s="4">
-        <v>2024.6945</v>
+        <v>821.126</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:24">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="4">
         <v>5</v>
       </c>
       <c r="C22" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D22" s="4">
-        <v>10725</v>
+        <v>26162</v>
       </c>
       <c r="E22" s="4">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="F22" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22" s="4">
-        <v>1100</v>
+        <v>232</v>
       </c>
       <c r="H22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K22" s="4">
-        <v>10525</v>
+        <v>26162</v>
       </c>
       <c r="L22" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="M22" s="4">
         <v>0</v>
@@ -3258,31 +3181,31 @@
         <v>0</v>
       </c>
       <c r="O22" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P22" s="4">
-        <v>124.813</v>
+        <v>930.155</v>
       </c>
       <c r="Q22" s="4">
-        <v>10725</v>
+        <v>6162</v>
       </c>
       <c r="R22" s="4">
-        <v>64211</v>
+        <v>132118</v>
       </c>
       <c r="S22" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T22" s="4">
-        <v>230</v>
+        <v>1356</v>
       </c>
       <c r="U22" s="4">
-        <v>-29945.13</v>
+        <v>-37540.16</v>
       </c>
       <c r="V22" s="4">
         <v>0</v>
       </c>
       <c r="W22" s="4">
-        <v>83276.317</v>
+        <v>141210.005</v>
       </c>
       <c r="X22" s="4">
         <v>0</v>
@@ -3365,28 +3288,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
       </c>
       <c r="E1" t="s">
         <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
@@ -3394,71 +3317,71 @@
     </row>
     <row r="2" ht="15" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="3">
-        <v>336</v>
+        <v>19.5</v>
       </c>
       <c r="F2" s="3">
-        <v>-81</v>
+        <v>20.5</v>
       </c>
       <c r="G2" s="3">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="H2" s="3">
-        <v>-82.02</v>
+        <v>20.34</v>
       </c>
       <c r="I2" s="3">
-        <v>1.02</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3" ht="24.75" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="3">
-        <v>116</v>
+        <v>240</v>
       </c>
       <c r="C3" s="3">
-        <v>5657</v>
+        <v>69922</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="3">
-        <v>3232</v>
+        <v>64230</v>
       </c>
       <c r="F3" s="3">
-        <v>2122</v>
+        <v>2942</v>
       </c>
       <c r="G3" s="3">
-        <v>5354</v>
+        <v>67172</v>
       </c>
       <c r="H3" s="3">
-        <v>2109.804</v>
+        <v>2692.8</v>
       </c>
       <c r="I3" s="3">
-        <v>12.196</v>
+        <v>249.2</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -3467,688 +3390,688 @@
         <v>19.5</v>
       </c>
       <c r="F4" s="3">
-        <v>37.5</v>
+        <v>5.5</v>
       </c>
       <c r="G4" s="3">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="H4" s="3">
-        <v>37.272</v>
+        <v>5.4</v>
       </c>
       <c r="I4" s="3">
-        <v>0.228</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" ht="24.75" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3">
-        <v>11345</v>
+        <v>3606</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="3">
-        <v>16625.25</v>
+        <v>2306.7</v>
       </c>
       <c r="F5" s="3">
-        <v>-5280.25</v>
+        <v>299.3</v>
       </c>
       <c r="G5" s="3">
-        <v>11345</v>
+        <v>2606</v>
       </c>
       <c r="H5" s="3">
-        <v>-5325.63</v>
+        <v>288.876</v>
       </c>
       <c r="I5" s="3">
-        <v>45.38</v>
+        <v>10.424</v>
       </c>
     </row>
     <row r="6" ht="24.75" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3">
-        <v>800</v>
+        <v>1032</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
       <c r="E6" s="3">
-        <v>585</v>
+        <v>1199</v>
       </c>
       <c r="F6" s="3">
-        <v>-285</v>
+        <v>-167</v>
       </c>
       <c r="G6" s="3">
-        <v>300</v>
+        <v>1032</v>
       </c>
       <c r="H6" s="3">
-        <v>-286.2</v>
+        <v>-171.128</v>
       </c>
       <c r="I6" s="3">
-        <v>1.2</v>
+        <v>4.128</v>
       </c>
     </row>
     <row r="7" ht="24.75" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3">
-        <v>0</v>
+        <v>1980</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>2640</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>-810</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>1830</v>
       </c>
       <c r="H7" s="3">
-        <v>0</v>
+        <v>-817.32</v>
       </c>
       <c r="I7" s="3">
-        <v>0</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="8" ht="24.75" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3">
-        <v>102</v>
+        <v>10843</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>14747.75</v>
       </c>
       <c r="F8" s="3">
-        <v>102</v>
+        <v>-3924.75</v>
       </c>
       <c r="G8" s="3">
-        <v>102</v>
+        <v>10823</v>
       </c>
       <c r="H8" s="3">
-        <v>101.592</v>
+        <v>-3968.042</v>
       </c>
       <c r="I8" s="3">
-        <v>0.408</v>
+        <v>43.292</v>
       </c>
     </row>
     <row r="9" ht="24.75" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3">
-        <v>1060</v>
+        <v>899</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>702.5</v>
+        <v>1339.8</v>
       </c>
       <c r="F9" s="3">
-        <v>7.5</v>
+        <v>-460.8</v>
       </c>
       <c r="G9" s="3">
-        <v>710</v>
+        <v>879</v>
       </c>
       <c r="H9" s="3">
-        <v>4.66</v>
+        <v>-464.316</v>
       </c>
       <c r="I9" s="3">
-        <v>2.84</v>
+        <v>3.516</v>
       </c>
     </row>
     <row r="10" ht="24.75" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="3">
-        <v>378</v>
+        <v>121</v>
       </c>
       <c r="C10" s="3">
-        <v>257934</v>
+        <v>29791</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>250459.25</v>
+        <v>26585.95</v>
       </c>
       <c r="F10" s="3">
-        <v>-17381.25</v>
+        <v>2185.05</v>
       </c>
       <c r="G10" s="3">
-        <v>233078</v>
+        <v>28771</v>
       </c>
       <c r="H10" s="3">
-        <v>-18313.562</v>
+        <v>2069.966</v>
       </c>
       <c r="I10" s="3">
-        <v>932.312</v>
+        <v>115.084</v>
       </c>
     </row>
     <row r="11" ht="24.75" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="3">
-        <v>239</v>
+        <v>139</v>
       </c>
       <c r="C11" s="3">
-        <v>58038</v>
+        <v>17160</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>40903</v>
+        <v>14906</v>
       </c>
       <c r="F11" s="3">
-        <v>14375</v>
+        <v>-26</v>
       </c>
       <c r="G11" s="3">
-        <v>55278</v>
+        <v>14880</v>
       </c>
       <c r="H11" s="3">
-        <v>14153.888</v>
+        <v>-85.52</v>
       </c>
       <c r="I11" s="3">
-        <v>221.112</v>
+        <v>59.52</v>
       </c>
     </row>
     <row r="12" ht="24" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="3">
-        <v>706</v>
+        <v>994</v>
       </c>
       <c r="C12" s="3">
-        <v>203284</v>
+        <v>452435</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>182755.9</v>
+        <v>422586</v>
       </c>
       <c r="F12" s="3">
-        <v>-581.9</v>
+        <v>-8427</v>
       </c>
       <c r="G12" s="3">
-        <v>182174</v>
+        <v>414159</v>
       </c>
       <c r="H12" s="3">
-        <v>-1308.836</v>
+        <v>-10082.396</v>
       </c>
       <c r="I12" s="3">
-        <v>726.936</v>
+        <v>1655.396</v>
       </c>
     </row>
     <row r="13" ht="24.75" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="3">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3">
-        <v>1690</v>
+        <v>220</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13" s="3">
-        <v>1430</v>
+        <v>260</v>
       </c>
       <c r="F13" s="3">
-        <v>230</v>
+        <v>-60</v>
       </c>
       <c r="G13" s="3">
-        <v>1660</v>
+        <v>200</v>
       </c>
       <c r="H13" s="3">
-        <v>223.36</v>
+        <v>-60.8</v>
       </c>
       <c r="I13" s="3">
-        <v>6.64</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" ht="24.75" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3">
-        <v>32075</v>
+        <v>1185</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>29980.45</v>
+        <v>845.5</v>
       </c>
       <c r="F14" s="3">
-        <v>-1435.45</v>
+        <v>-37.5</v>
       </c>
       <c r="G14" s="3">
-        <v>28545</v>
+        <v>808</v>
       </c>
       <c r="H14" s="3">
-        <v>-1549.63</v>
+        <v>-40.732</v>
       </c>
       <c r="I14" s="3">
-        <v>114.18</v>
+        <v>3.232</v>
       </c>
     </row>
     <row r="15" ht="24.75" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="3">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C15" s="3">
-        <v>2070</v>
+        <v>1560</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>1575</v>
+        <v>2420.5</v>
       </c>
       <c r="F15" s="3">
-        <v>495</v>
+        <v>-860.5</v>
       </c>
       <c r="G15" s="3">
-        <v>2070</v>
+        <v>1560</v>
       </c>
       <c r="H15" s="3">
-        <v>486.72</v>
+        <v>-866.74</v>
       </c>
       <c r="I15" s="3">
-        <v>8.28</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="16" ht="24.75" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="3">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="C16" s="3">
-        <v>141070</v>
+        <v>18500</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
       <c r="E16" s="3">
-        <v>146998.95</v>
+        <v>12520.25</v>
       </c>
       <c r="F16" s="3">
-        <v>-19928.95</v>
+        <v>5369.75</v>
       </c>
       <c r="G16" s="3">
-        <v>127070</v>
+        <v>17890</v>
       </c>
       <c r="H16" s="3">
-        <v>-20436.43</v>
+        <v>5298.19</v>
       </c>
       <c r="I16" s="3">
-        <v>507.48</v>
+        <v>71.56</v>
       </c>
     </row>
     <row r="17" ht="24.75" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="3">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3">
-        <v>0</v>
+        <v>1243</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>1469.95</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>-276.95</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>1193</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>-281.722</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>4.772</v>
       </c>
     </row>
     <row r="18" ht="24.75" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="3">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="C18" s="3">
-        <v>19883</v>
+        <v>17199</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>17870.75</v>
+        <v>16862.5</v>
       </c>
       <c r="F18" s="3">
-        <v>1802.25</v>
+        <v>-653.5</v>
       </c>
       <c r="G18" s="3">
-        <v>19673</v>
+        <v>16209</v>
       </c>
       <c r="H18" s="3">
-        <v>1723.558</v>
+        <v>-718.336</v>
       </c>
       <c r="I18" s="3">
-        <v>78.692</v>
+        <v>64.836</v>
       </c>
     </row>
     <row r="19" ht="24.75" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C19" s="3">
-        <v>40</v>
+        <v>536</v>
       </c>
       <c r="D19" s="3">
         <v>0</v>
       </c>
       <c r="E19" s="3">
-        <v>78</v>
+        <v>279.5</v>
       </c>
       <c r="F19" s="3">
-        <v>-38</v>
+        <v>256.5</v>
       </c>
       <c r="G19" s="3">
-        <v>40</v>
+        <v>536</v>
       </c>
       <c r="H19" s="3">
-        <v>-38.16</v>
+        <v>254.356</v>
       </c>
       <c r="I19" s="3">
-        <v>0.16</v>
+        <v>2.144</v>
       </c>
     </row>
     <row r="20" ht="24.75" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" s="3">
-        <v>1060</v>
+        <v>260</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>975</v>
+        <v>97.5</v>
       </c>
       <c r="F20" s="3">
-        <v>85</v>
+        <v>22.5</v>
       </c>
       <c r="G20" s="3">
-        <v>1060</v>
+        <v>120</v>
       </c>
       <c r="H20" s="3">
-        <v>80.76</v>
+        <v>22.02</v>
       </c>
       <c r="I20" s="3">
-        <v>4.24</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="21" ht="24.75" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="3">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="C21" s="3">
-        <v>119412</v>
+        <v>21801</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>109470.75</v>
+        <v>13742.65</v>
       </c>
       <c r="F21" s="3">
-        <v>-3608.75</v>
+        <v>3104.35</v>
       </c>
       <c r="G21" s="3">
-        <v>105862</v>
+        <v>16847</v>
       </c>
       <c r="H21" s="3">
-        <v>-4032.198</v>
+        <v>3036.962</v>
       </c>
       <c r="I21" s="3">
-        <v>423.448</v>
+        <v>67.388</v>
       </c>
     </row>
     <row r="22" ht="24.75" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="3">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="C22" s="3">
-        <v>58056</v>
+        <v>8560</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>54146</v>
+        <v>6841.75</v>
       </c>
       <c r="F22" s="3">
-        <v>-4355</v>
+        <v>978.25</v>
       </c>
       <c r="G22" s="3">
-        <v>49791</v>
+        <v>7820</v>
       </c>
       <c r="H22" s="3">
-        <v>-4553.364</v>
+        <v>946.97</v>
       </c>
       <c r="I22" s="3">
-        <v>198.364</v>
+        <v>31.28</v>
       </c>
     </row>
     <row r="23" ht="24.75" spans="1:9">
       <c r="A23" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="3">
-        <v>427</v>
+        <v>180</v>
       </c>
       <c r="C23" s="3">
-        <v>192990</v>
+        <v>29017</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>184457.75</v>
+        <v>23674.75</v>
       </c>
       <c r="F23" s="3">
-        <v>-15152.75</v>
+        <v>2920.25</v>
       </c>
       <c r="G23" s="3">
-        <v>169305</v>
+        <v>26595</v>
       </c>
       <c r="H23" s="3">
-        <v>-15829.97</v>
+        <v>2817.87</v>
       </c>
       <c r="I23" s="3">
-        <v>677.22</v>
+        <v>102.38</v>
       </c>
     </row>
     <row r="24" ht="24.75" spans="1:9">
       <c r="A24" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="3">
-        <v>69</v>
+        <v>181</v>
       </c>
       <c r="C24" s="3">
-        <v>10154</v>
+        <v>14351</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>9370</v>
+        <v>12374.5</v>
       </c>
       <c r="F24" s="3">
-        <v>-516</v>
+        <v>1186.5</v>
       </c>
       <c r="G24" s="3">
-        <v>8854</v>
+        <v>13561</v>
       </c>
       <c r="H24" s="3">
-        <v>-551.416</v>
+        <v>1132.256</v>
       </c>
       <c r="I24" s="3">
-        <v>35.416</v>
+        <v>54.244</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:9">
       <c r="A25" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="3">
-        <v>473</v>
+        <v>582</v>
       </c>
       <c r="C25" s="3">
-        <v>7281</v>
+        <v>23751</v>
       </c>
       <c r="D25" s="3">
-        <v>270</v>
+        <v>760</v>
       </c>
       <c r="E25" s="3">
-        <v>8616.555</v>
+        <v>25816.905</v>
       </c>
       <c r="F25" s="3">
-        <v>-1335.555</v>
+        <v>-2065.905</v>
       </c>
       <c r="G25" s="3">
-        <v>7281</v>
+        <v>23751</v>
       </c>
       <c r="H25" s="3">
-        <v>-1349.837</v>
+        <v>-2080.971</v>
       </c>
       <c r="I25" s="3">
-        <v>14.282</v>
+        <v>15.066</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:9">
       <c r="A26" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="3">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="C26" s="3">
-        <v>17387</v>
+        <v>27000</v>
       </c>
       <c r="D26" s="3">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3">
-        <v>8568.95</v>
+        <v>29700</v>
       </c>
       <c r="F26" s="3">
-        <v>8818.05</v>
+        <v>-2700</v>
       </c>
       <c r="G26" s="3">
-        <v>17387</v>
+        <v>27000</v>
       </c>
       <c r="H26" s="3">
-        <v>8783.276</v>
+        <v>-2754</v>
       </c>
       <c r="I26" s="3">
-        <v>34.774</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:9">
       <c r="A27" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="3">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="C27" s="3">
-        <v>1594</v>
+        <v>293</v>
       </c>
       <c r="D27" s="3">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="E27" s="3">
-        <v>1116.26</v>
+        <v>114.95</v>
       </c>
       <c r="F27" s="3">
-        <v>477.74</v>
+        <v>178.05</v>
       </c>
       <c r="G27" s="3">
-        <v>1594</v>
+        <v>293</v>
       </c>
       <c r="H27" s="3">
-        <v>476.146</v>
+        <v>177.757</v>
       </c>
       <c r="I27" s="3">
-        <v>1.594</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:9">
       <c r="A28" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -4177,7 +4100,7 @@
     </row>
     <row r="29" ht="15" spans="1:9">
       <c r="A29" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -4206,36 +4129,36 @@
     </row>
     <row r="30" ht="15" spans="1:9">
       <c r="A30" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" s="3">
-        <v>436</v>
+        <v>259</v>
       </c>
       <c r="C30" s="3">
-        <v>5831</v>
+        <v>4439</v>
       </c>
       <c r="D30" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E30" s="3">
-        <v>5581.74</v>
+        <v>2847.68</v>
       </c>
       <c r="F30" s="3">
-        <v>249.26</v>
+        <v>1591.32</v>
       </c>
       <c r="G30" s="3">
-        <v>5831</v>
+        <v>4439</v>
       </c>
       <c r="H30" s="3">
-        <v>237.598</v>
+        <v>1582.442</v>
       </c>
       <c r="I30" s="3">
-        <v>11.662</v>
+        <v>8.878</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:9">
       <c r="A31" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -4264,57 +4187,57 @@
     </row>
     <row r="32" ht="15" spans="1:9">
       <c r="A32" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" s="3">
-        <v>1268</v>
+        <v>806</v>
       </c>
       <c r="C32" s="3">
-        <v>89381</v>
+        <v>218130</v>
       </c>
       <c r="D32" s="3">
-        <v>125</v>
+        <v>1550</v>
       </c>
       <c r="E32" s="3">
-        <v>65375.415</v>
+        <v>189092.885</v>
       </c>
       <c r="F32" s="3">
-        <v>24005.585</v>
+        <v>29037.115</v>
       </c>
       <c r="G32" s="3">
-        <v>89381</v>
+        <v>218130</v>
       </c>
       <c r="H32" s="3">
-        <v>23826.823</v>
+        <v>28600.855</v>
       </c>
       <c r="I32" s="3">
-        <v>178.762</v>
+        <v>436.26</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:9">
       <c r="A33" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="3">
-        <v>1670</v>
+        <v>1423</v>
       </c>
       <c r="C33" s="3">
-        <v>77794</v>
+        <v>59072</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>83772.6</v>
+        <v>49104.25</v>
       </c>
       <c r="F33" s="3">
-        <v>-6088.6</v>
+        <v>9624.75</v>
       </c>
       <c r="G33" s="3">
-        <v>77684</v>
+        <v>58729</v>
       </c>
       <c r="H33" s="3">
-        <v>-6088.6</v>
+        <v>9624.75</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
@@ -4322,28 +4245,28 @@
     </row>
     <row r="34" ht="15" spans="1:9">
       <c r="A34" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C34" s="3">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
       </c>
       <c r="E34" s="3">
-        <v>125.7</v>
+        <v>0</v>
       </c>
       <c r="F34" s="3">
-        <v>-30.7</v>
+        <v>170</v>
       </c>
       <c r="G34" s="3">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="H34" s="3">
-        <v>-30.7</v>
+        <v>170</v>
       </c>
       <c r="I34" s="3">
         <v>0</v>
@@ -4351,28 +4274,28 @@
     </row>
     <row r="35" ht="24" spans="1:9">
       <c r="A35" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B35" s="3">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C35" s="3">
-        <v>43</v>
+        <v>1893</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>58</v>
+        <v>1748.26</v>
       </c>
       <c r="F35" s="3">
-        <v>-15</v>
+        <v>144.74</v>
       </c>
       <c r="G35" s="3">
-        <v>43</v>
+        <v>1893</v>
       </c>
       <c r="H35" s="3">
-        <v>-15</v>
+        <v>144.74</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
@@ -4380,86 +4303,86 @@
     </row>
     <row r="36" ht="24" spans="1:9">
       <c r="A36" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" s="3">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C36" s="3">
-        <v>535</v>
+        <v>10</v>
       </c>
       <c r="D36" s="3">
         <v>0</v>
       </c>
       <c r="E36" s="3">
-        <v>445.5</v>
+        <v>19.8</v>
       </c>
       <c r="F36" s="3">
-        <v>89.5</v>
+        <v>-9.8</v>
       </c>
       <c r="G36" s="3">
-        <v>535</v>
+        <v>10</v>
       </c>
       <c r="H36" s="3">
-        <v>88.43</v>
+        <v>-9.82</v>
       </c>
       <c r="I36" s="3">
-        <v>1.07</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="37" ht="15" spans="1:9">
       <c r="A37" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="3">
-        <v>1701</v>
+        <v>2257</v>
       </c>
       <c r="C37" s="3">
-        <v>76036</v>
+        <v>38992</v>
       </c>
       <c r="D37" s="3">
-        <v>670</v>
+        <v>0</v>
       </c>
       <c r="E37" s="3">
-        <v>64524.675</v>
+        <v>40224.275</v>
       </c>
       <c r="F37" s="3">
-        <v>11511.325</v>
+        <v>-1232.275</v>
       </c>
       <c r="G37" s="3">
-        <v>76036</v>
+        <v>38992</v>
       </c>
       <c r="H37" s="3">
-        <v>11359.253</v>
+        <v>-1310.209</v>
       </c>
       <c r="I37" s="3">
-        <v>152.072</v>
+        <v>77.934</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:9">
       <c r="A38" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="3">
-        <v>1</v>
+        <v>533</v>
       </c>
       <c r="C38" s="3">
-        <v>24</v>
+        <v>50243</v>
       </c>
       <c r="D38" s="3">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E38" s="3">
-        <v>0</v>
+        <v>27040.8</v>
       </c>
       <c r="F38" s="3">
-        <v>0</v>
+        <v>23202.2</v>
       </c>
       <c r="G38" s="3">
-        <v>0</v>
+        <v>50243</v>
       </c>
       <c r="H38" s="3">
-        <v>0</v>
+        <v>23202.2</v>
       </c>
       <c r="I38" s="3">
         <v>0</v>
@@ -4467,28 +4390,28 @@
     </row>
     <row r="39" ht="24" spans="1:9">
       <c r="A39" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39" s="3">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="C39" s="3">
-        <v>3156</v>
+        <v>7309</v>
       </c>
       <c r="D39" s="3">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E39" s="3">
-        <v>1899.4</v>
+        <v>7547.47</v>
       </c>
       <c r="F39" s="3">
-        <v>1256.6</v>
+        <v>-323.47</v>
       </c>
       <c r="G39" s="3">
-        <v>3156</v>
+        <v>7224</v>
       </c>
       <c r="H39" s="3">
-        <v>1256.6</v>
+        <v>-323.47</v>
       </c>
       <c r="I39" s="3">
         <v>0</v>
@@ -4496,28 +4419,28 @@
     </row>
     <row r="40" ht="15" spans="1:9">
       <c r="A40" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40" s="3">
         <v>18</v>
       </c>
       <c r="C40" s="3">
-        <v>68</v>
+        <v>264</v>
       </c>
       <c r="D40" s="3">
         <v>0</v>
       </c>
       <c r="E40" s="3">
-        <v>229.48</v>
+        <v>138.8</v>
       </c>
       <c r="F40" s="3">
-        <v>-161.48</v>
+        <v>125.2</v>
       </c>
       <c r="G40" s="3">
-        <v>68</v>
+        <v>264</v>
       </c>
       <c r="H40" s="3">
-        <v>-161.48</v>
+        <v>125.2</v>
       </c>
       <c r="I40" s="3">
         <v>0</v>
@@ -4525,28 +4448,28 @@
     </row>
     <row r="41" ht="15" spans="1:9">
       <c r="A41" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B41" s="3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C41" s="3">
-        <v>2637</v>
+        <v>0</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>3416</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>-779</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>2637</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>-779</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -4554,28 +4477,28 @@
     </row>
     <row r="42" ht="15" spans="1:9">
       <c r="A42" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="3">
-        <v>2319</v>
+        <v>2862</v>
       </c>
       <c r="C42" s="3">
-        <v>42476</v>
+        <v>51282</v>
       </c>
       <c r="D42" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="E42" s="3">
-        <v>38715.35</v>
+        <v>43569.7</v>
       </c>
       <c r="F42" s="3">
-        <v>3760.65</v>
+        <v>7712.3</v>
       </c>
       <c r="G42" s="3">
-        <v>42476</v>
+        <v>51282</v>
       </c>
       <c r="H42" s="3">
-        <v>3760.65</v>
+        <v>7712.3</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -4583,28 +4506,28 @@
     </row>
     <row r="43" ht="24" spans="1:9">
       <c r="A43" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B43" s="3">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C43" s="3">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>663.4</v>
+        <v>732</v>
       </c>
       <c r="F43" s="3">
-        <v>-38.4</v>
+        <v>-97</v>
       </c>
       <c r="G43" s="3">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="H43" s="3">
-        <v>-38.4</v>
+        <v>-97</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -4612,36 +4535,36 @@
     </row>
     <row r="44" ht="15" spans="1:9">
       <c r="A44" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B44" s="4">
-        <v>1139</v>
+        <v>887</v>
       </c>
       <c r="C44" s="4">
-        <v>24508</v>
+        <v>76722</v>
       </c>
       <c r="D44" s="4">
         <v>0</v>
       </c>
       <c r="E44" s="4">
-        <v>24269.73</v>
+        <v>65908.15</v>
       </c>
       <c r="F44" s="4">
-        <v>238.27</v>
+        <v>10813.85</v>
       </c>
       <c r="G44" s="4">
-        <v>24508</v>
+        <v>76722</v>
       </c>
       <c r="H44" s="4">
-        <v>189.254</v>
+        <v>10660.406</v>
       </c>
       <c r="I44" s="4">
-        <v>49.016</v>
+        <v>153.444</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B45" s="1">
         <v>0</v>
@@ -4670,7 +4593,7 @@
     </row>
     <row r="46" ht="15" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B46" s="1">
         <v>0</v>
@@ -4699,7 +4622,7 @@
     </row>
     <row r="47" ht="15" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
@@ -4728,7 +4651,7 @@
     </row>
     <row r="48" ht="15" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
@@ -4757,7 +4680,7 @@
     </row>
     <row r="49" ht="15" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B49" s="1">
         <v>0</v>
@@ -4786,7 +4709,7 @@
     </row>
     <row r="50" ht="15" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
@@ -4815,7 +4738,7 @@
     </row>
     <row r="51" ht="15" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
@@ -4844,7 +4767,7 @@
     </row>
     <row r="52" ht="15" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
@@ -4873,7 +4796,7 @@
     </row>
     <row r="53" ht="15" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
@@ -4902,7 +4825,7 @@
     </row>
     <row r="54" ht="15" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B54" s="1">
         <v>0</v>
@@ -4931,7 +4854,7 @@
     </row>
     <row r="55" ht="15" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B55" s="1">
         <v>0</v>
@@ -4960,7 +4883,7 @@
     </row>
     <row r="56" ht="15" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
@@ -4989,7 +4912,7 @@
     </row>
     <row r="57" ht="15" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B57" s="1">
         <v>0</v>
@@ -5018,7 +4941,7 @@
     </row>
     <row r="58" ht="15" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -5047,7 +4970,7 @@
     </row>
     <row r="59" ht="15" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
@@ -5076,7 +4999,7 @@
     </row>
     <row r="60" ht="15" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B60" s="1">
         <v>0</v>
@@ -5105,7 +5028,7 @@
     </row>
     <row r="61" ht="15" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B61" s="1">
         <v>0</v>
@@ -5134,59 +5057,59 @@
     </row>
     <row r="62" ht="15" spans="1:9">
       <c r="A62" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" ht="15" spans="1:9">
+      <c r="A63" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="1">
-        <v>0</v>
-      </c>
-      <c r="C62" s="1">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1">
-        <v>0</v>
-      </c>
-      <c r="E62" s="1">
-        <v>0</v>
-      </c>
-      <c r="F62" s="1">
-        <v>0</v>
-      </c>
-      <c r="G62" s="1">
-        <v>0</v>
-      </c>
-      <c r="H62" s="1">
-        <v>0</v>
-      </c>
-      <c r="I62" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" ht="15" spans="1:9">
-      <c r="A63" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B63" s="2">
-        <v>0</v>
-      </c>
-      <c r="C63" s="2">
-        <v>0</v>
-      </c>
-      <c r="D63" s="2">
-        <v>0</v>
-      </c>
-      <c r="E63" s="2">
-        <v>0</v>
-      </c>
-      <c r="F63" s="2">
-        <v>0</v>
-      </c>
-      <c r="G63" s="2">
-        <v>0</v>
-      </c>
-      <c r="H63" s="2">
-        <v>0</v>
-      </c>
-      <c r="I63" s="2">
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5215,28 +5138,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
       </c>
       <c r="E1" t="s">
         <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
@@ -5244,94 +5167,94 @@
     </row>
     <row r="2" ht="15" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3">
-        <v>67</v>
+        <v>1014</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="3">
-        <v>50.7</v>
+        <v>510.9</v>
       </c>
       <c r="F2" s="3">
-        <v>16.3</v>
+        <v>503.1</v>
       </c>
       <c r="G2" s="3">
-        <v>67</v>
+        <v>1014</v>
       </c>
       <c r="H2" s="3">
-        <v>16.04</v>
+        <v>499.036</v>
       </c>
       <c r="I2" s="3">
-        <v>0.26</v>
+        <v>4.064</v>
       </c>
     </row>
     <row r="3" ht="24.75" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="3">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C3" s="3">
-        <v>5745</v>
+        <v>26869</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="3">
-        <v>2440</v>
+        <v>26508</v>
       </c>
       <c r="F3" s="3">
-        <v>3305</v>
+        <v>-220</v>
       </c>
       <c r="G3" s="3">
-        <v>5745</v>
+        <v>26288</v>
       </c>
       <c r="H3" s="3">
-        <v>3278.124</v>
+        <v>-238.956</v>
       </c>
       <c r="I3" s="3">
-        <v>26.876</v>
+        <v>18.956</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C4" s="3">
-        <v>645</v>
+        <v>1962</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>526.5</v>
+        <v>1944.15</v>
       </c>
       <c r="F4" s="3">
-        <v>118.5</v>
+        <v>17.85</v>
       </c>
       <c r="G4" s="3">
-        <v>645</v>
+        <v>1962</v>
       </c>
       <c r="H4" s="3">
-        <v>115.48</v>
+        <v>10.002</v>
       </c>
       <c r="I4" s="3">
-        <v>3.02</v>
+        <v>7.848</v>
       </c>
     </row>
     <row r="5" ht="24.75" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -5360,94 +5283,94 @@
     </row>
     <row r="6" ht="24.75" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>18.844</v>
       </c>
       <c r="I6" s="3">
-        <v>0</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="7" ht="24.75" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="3">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C7" s="3">
-        <v>0</v>
+        <v>494688</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>433760</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>7732</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>441492</v>
       </c>
       <c r="H7" s="3">
-        <v>0</v>
+        <v>5904.572</v>
       </c>
       <c r="I7" s="3">
-        <v>0</v>
+        <v>1827.428</v>
       </c>
     </row>
     <row r="8" ht="24.75" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>0</v>
+        <v>1136</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>415.35</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>210.65</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>208.146</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>2.504</v>
       </c>
     </row>
     <row r="9" ht="24.75" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -5476,158 +5399,158 @@
     </row>
     <row r="10" ht="24.75" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="3">
-        <v>383</v>
+        <v>248</v>
       </c>
       <c r="C10" s="3">
-        <v>95172</v>
+        <v>23533</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>69659.15</v>
+        <v>16556.85</v>
       </c>
       <c r="F10" s="3">
-        <v>19023.85</v>
+        <v>6311.15</v>
       </c>
       <c r="G10" s="3">
-        <v>88683</v>
+        <v>22868</v>
       </c>
       <c r="H10" s="3">
-        <v>18669.118</v>
+        <v>6219.678</v>
       </c>
       <c r="I10" s="3">
-        <v>354.732</v>
+        <v>91.472</v>
       </c>
     </row>
     <row r="11" ht="24.75" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="3">
-        <v>272</v>
+        <v>740</v>
       </c>
       <c r="C11" s="3">
-        <v>10097</v>
+        <v>45000</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>12596.55</v>
+        <v>36937.6</v>
       </c>
       <c r="F11" s="3">
-        <v>-2962.55</v>
+        <v>3394.4</v>
       </c>
       <c r="G11" s="3">
-        <v>9634</v>
+        <v>40332</v>
       </c>
       <c r="H11" s="3">
-        <v>-3002.058</v>
+        <v>3233.072</v>
       </c>
       <c r="I11" s="3">
-        <v>39.508</v>
+        <v>161.328</v>
       </c>
     </row>
     <row r="12" ht="24" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="3">
-        <v>443</v>
+        <v>382</v>
       </c>
       <c r="C12" s="3">
-        <v>36942</v>
+        <v>30700</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>33562.4</v>
+        <v>33897.4</v>
       </c>
       <c r="F12" s="3">
-        <v>-1304.4</v>
+        <v>-6115.4</v>
       </c>
       <c r="G12" s="3">
-        <v>32258</v>
+        <v>27782</v>
       </c>
       <c r="H12" s="3">
-        <v>-1433.628</v>
+        <v>-6226.532</v>
       </c>
       <c r="I12" s="3">
-        <v>129.228</v>
+        <v>111.132</v>
       </c>
     </row>
     <row r="13" ht="24.75" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="3">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3">
-        <v>14955</v>
+        <v>112629</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13" s="3">
-        <v>14060</v>
+        <v>80222</v>
       </c>
       <c r="F13" s="3">
-        <v>495</v>
+        <v>25337</v>
       </c>
       <c r="G13" s="3">
-        <v>14555</v>
+        <v>105559</v>
       </c>
       <c r="H13" s="3">
-        <v>424.98</v>
+        <v>24914.764</v>
       </c>
       <c r="I13" s="3">
-        <v>70.02</v>
+        <v>422.236</v>
       </c>
     </row>
     <row r="14" ht="24.75" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="3">
-        <v>286</v>
+        <v>632</v>
       </c>
       <c r="C14" s="3">
-        <v>10448</v>
+        <v>54357</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>8852.95</v>
+        <v>53832.7</v>
       </c>
       <c r="F14" s="3">
-        <v>811.05</v>
+        <v>-1916.7</v>
       </c>
       <c r="G14" s="3">
-        <v>9664</v>
+        <v>51916</v>
       </c>
       <c r="H14" s="3">
-        <v>771.794</v>
+        <v>-2124.364</v>
       </c>
       <c r="I14" s="3">
-        <v>39.256</v>
+        <v>207.664</v>
       </c>
     </row>
     <row r="15" ht="24.75" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -5636,50 +5559,50 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>9.96</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="16" ht="24.75" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="3">
-        <v>291</v>
+        <v>511</v>
       </c>
       <c r="C16" s="3">
-        <v>23875</v>
+        <v>82544</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
       <c r="E16" s="3">
-        <v>22877.35</v>
+        <v>71913.25</v>
       </c>
       <c r="F16" s="3">
-        <v>-3367.35</v>
+        <v>5966.75</v>
       </c>
       <c r="G16" s="3">
-        <v>19510</v>
+        <v>77880</v>
       </c>
       <c r="H16" s="3">
-        <v>-3444.166</v>
+        <v>5655.23</v>
       </c>
       <c r="I16" s="3">
-        <v>76.816</v>
+        <v>311.52</v>
       </c>
     </row>
     <row r="17" ht="24.75" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -5708,36 +5631,36 @@
     </row>
     <row r="18" ht="24.75" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="3">
-        <v>234</v>
+        <v>480</v>
       </c>
       <c r="C18" s="3">
-        <v>21891</v>
+        <v>61693</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>11713.45</v>
+        <v>61532.35</v>
       </c>
       <c r="F18" s="3">
-        <v>6538.55</v>
+        <v>-4667.35</v>
       </c>
       <c r="G18" s="3">
-        <v>18252</v>
+        <v>56865</v>
       </c>
       <c r="H18" s="3">
-        <v>6463.19</v>
+        <v>-4894.81</v>
       </c>
       <c r="I18" s="3">
-        <v>75.36</v>
+        <v>227.46</v>
       </c>
     </row>
     <row r="19" ht="24.75" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -5766,13 +5689,13 @@
     </row>
     <row r="20" ht="24.75" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -5781,224 +5704,224 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1.992</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="21" ht="24.75" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="3">
-        <v>145</v>
+        <v>357</v>
       </c>
       <c r="C21" s="3">
-        <v>6025</v>
+        <v>44366</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>5385.25</v>
+        <v>44499.35</v>
       </c>
       <c r="F21" s="3">
-        <v>9.75</v>
+        <v>-2794.35</v>
       </c>
       <c r="G21" s="3">
-        <v>5395</v>
+        <v>41705</v>
       </c>
       <c r="H21" s="3">
-        <v>-9.702</v>
+        <v>-2961.17</v>
       </c>
       <c r="I21" s="3">
-        <v>19.452</v>
+        <v>166.82</v>
       </c>
     </row>
     <row r="22" ht="24.75" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="3">
-        <v>209</v>
+        <v>462</v>
       </c>
       <c r="C22" s="3">
-        <v>61608</v>
+        <v>132700</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>60869.65</v>
+        <v>105774.15</v>
       </c>
       <c r="F22" s="3">
-        <v>-4021.65</v>
+        <v>17435.85</v>
       </c>
       <c r="G22" s="3">
-        <v>56848</v>
+        <v>123210</v>
       </c>
       <c r="H22" s="3">
-        <v>-4247.854</v>
+        <v>16943.81</v>
       </c>
       <c r="I22" s="3">
-        <v>226.204</v>
+        <v>492.04</v>
       </c>
     </row>
     <row r="23" ht="24.75" spans="1:9">
       <c r="A23" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="3">
-        <v>233</v>
+        <v>95</v>
       </c>
       <c r="C23" s="3">
-        <v>71040</v>
+        <v>13823</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>58913.05</v>
+        <v>13371.9</v>
       </c>
       <c r="F23" s="3">
-        <v>3947.95</v>
+        <v>-1207.9</v>
       </c>
       <c r="G23" s="3">
-        <v>62861</v>
+        <v>12164</v>
       </c>
       <c r="H23" s="3">
-        <v>3696.49</v>
+        <v>-1256.576</v>
       </c>
       <c r="I23" s="3">
-        <v>251.46</v>
+        <v>48.676</v>
       </c>
     </row>
     <row r="24" ht="24.75" spans="1:9">
       <c r="A24" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="3">
-        <v>269</v>
+        <v>414</v>
       </c>
       <c r="C24" s="3">
-        <v>15829</v>
+        <v>32985</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>15761.65</v>
+        <v>24714.55</v>
       </c>
       <c r="F24" s="3">
-        <v>-738.65</v>
+        <v>5160.45</v>
       </c>
       <c r="G24" s="3">
-        <v>15023</v>
+        <v>29875</v>
       </c>
       <c r="H24" s="3">
-        <v>-802.746</v>
+        <v>5040.694</v>
       </c>
       <c r="I24" s="3">
-        <v>64.096</v>
+        <v>119.756</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:9">
       <c r="A25" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="3">
-        <v>2613</v>
+        <v>6030</v>
       </c>
       <c r="C25" s="3">
-        <v>43285</v>
+        <v>137112</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
       </c>
       <c r="E25" s="3">
-        <v>44812.05</v>
+        <v>138105.98</v>
       </c>
       <c r="F25" s="3">
-        <v>-1527.05</v>
+        <v>-993.98</v>
       </c>
       <c r="G25" s="3">
-        <v>43285</v>
+        <v>137112</v>
       </c>
       <c r="H25" s="3">
-        <v>-1570.282</v>
+        <v>-1131.386</v>
       </c>
       <c r="I25" s="3">
-        <v>43.232</v>
+        <v>137.406</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:9">
       <c r="A26" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="3">
-        <v>257</v>
+        <v>55</v>
       </c>
       <c r="C26" s="3">
-        <v>2859</v>
+        <v>747</v>
       </c>
       <c r="D26" s="3">
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>3065.04</v>
+        <v>970.2</v>
       </c>
       <c r="F26" s="3">
-        <v>-206.04</v>
+        <v>-223.2</v>
       </c>
       <c r="G26" s="3">
-        <v>2859</v>
+        <v>747</v>
       </c>
       <c r="H26" s="3">
-        <v>-208.947</v>
+        <v>-223.947</v>
       </c>
       <c r="I26" s="3">
-        <v>2.907</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:9">
       <c r="A27" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="3">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C27" s="3">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="D27" s="3">
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="F27" s="3">
-        <v>10</v>
+        <v>-99</v>
       </c>
       <c r="G27" s="3">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="H27" s="3">
-        <v>9.99</v>
+        <v>-99.181</v>
       </c>
       <c r="I27" s="3">
-        <v>0.01</v>
+        <v>0.181</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:9">
       <c r="A28" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -6027,65 +5950,65 @@
     </row>
     <row r="29" ht="15" spans="1:9">
       <c r="A29" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" s="3">
-        <v>659</v>
+        <v>542</v>
       </c>
       <c r="C29" s="3">
-        <v>8944</v>
+        <v>18150</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E29" s="3">
-        <v>11063.12</v>
+        <v>20859.3</v>
       </c>
       <c r="F29" s="3">
-        <v>-2119.12</v>
+        <v>-2709.3</v>
       </c>
       <c r="G29" s="3">
-        <v>8944</v>
+        <v>18150</v>
       </c>
       <c r="H29" s="3">
-        <v>-2127.988</v>
+        <v>-2727.45</v>
       </c>
       <c r="I29" s="3">
-        <v>8.868</v>
+        <v>18.15</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:9">
       <c r="A30" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" s="3">
-        <v>2899</v>
+        <v>487</v>
       </c>
       <c r="C30" s="3">
-        <v>50535</v>
+        <v>12177</v>
       </c>
       <c r="D30" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E30" s="3">
-        <v>57989.48</v>
+        <v>12553.2</v>
       </c>
       <c r="F30" s="3">
-        <v>-7454.48</v>
+        <v>-376.2</v>
       </c>
       <c r="G30" s="3">
-        <v>50535</v>
+        <v>12177</v>
       </c>
       <c r="H30" s="3">
-        <v>-7514.788</v>
+        <v>-394.364</v>
       </c>
       <c r="I30" s="3">
-        <v>60.308</v>
+        <v>18.164</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:9">
       <c r="A31" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -6114,57 +6037,57 @@
     </row>
     <row r="32" ht="15" spans="1:9">
       <c r="A32" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" s="3">
-        <v>2530</v>
+        <v>859</v>
       </c>
       <c r="C32" s="3">
-        <v>20928</v>
+        <v>18738</v>
       </c>
       <c r="D32" s="3">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="E32" s="3">
-        <v>18974.14</v>
+        <v>17315.1</v>
       </c>
       <c r="F32" s="3">
-        <v>1953.86</v>
+        <v>1422.9</v>
       </c>
       <c r="G32" s="3">
-        <v>20928</v>
+        <v>18738</v>
       </c>
       <c r="H32" s="3">
-        <v>1933.597</v>
+        <v>1402.481</v>
       </c>
       <c r="I32" s="3">
-        <v>20.263</v>
+        <v>20.419</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:9">
       <c r="A33" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="3">
-        <v>3592</v>
+        <v>2917</v>
       </c>
       <c r="C33" s="3">
-        <v>105572</v>
+        <v>108589</v>
       </c>
       <c r="D33" s="3">
-        <v>5088</v>
+        <v>5739</v>
       </c>
       <c r="E33" s="3">
-        <v>90253.55</v>
+        <v>107586.197</v>
       </c>
       <c r="F33" s="3">
-        <v>14793.45</v>
+        <v>563.803</v>
       </c>
       <c r="G33" s="3">
-        <v>105047</v>
+        <v>108150</v>
       </c>
       <c r="H33" s="3">
-        <v>14793.45</v>
+        <v>563.803</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
@@ -6172,13 +6095,13 @@
     </row>
     <row r="34" ht="15" spans="1:9">
       <c r="A34" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C34" s="3">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
@@ -6187,42 +6110,42 @@
         <v>0</v>
       </c>
       <c r="F34" s="3">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G34" s="3">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H34" s="3">
-        <v>19.96</v>
+        <v>31.936</v>
       </c>
       <c r="I34" s="3">
-        <v>0.04</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="35" ht="24" spans="1:9">
       <c r="A35" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B35" s="3">
-        <v>297</v>
+        <v>484</v>
       </c>
       <c r="C35" s="3">
-        <v>22138</v>
+        <v>2725</v>
       </c>
       <c r="D35" s="3">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>29537.14</v>
+        <v>2475.31</v>
       </c>
       <c r="F35" s="3">
-        <v>-7399.14</v>
+        <v>249.69</v>
       </c>
       <c r="G35" s="3">
-        <v>22138</v>
+        <v>2725</v>
       </c>
       <c r="H35" s="3">
-        <v>-7399.14</v>
+        <v>249.69</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
@@ -6230,86 +6153,86 @@
     </row>
     <row r="36" ht="24" spans="1:9">
       <c r="A36" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" s="3">
-        <v>2376</v>
+        <v>633</v>
       </c>
       <c r="C36" s="3">
-        <v>16189</v>
+        <v>11264</v>
       </c>
       <c r="D36" s="3">
         <v>0</v>
       </c>
       <c r="E36" s="3">
-        <v>15041.56</v>
+        <v>9230.76</v>
       </c>
       <c r="F36" s="3">
-        <v>1147.44</v>
+        <v>2033.24</v>
       </c>
       <c r="G36" s="3">
-        <v>16189</v>
+        <v>11264</v>
       </c>
       <c r="H36" s="3">
-        <v>1119.362</v>
+        <v>2022.272</v>
       </c>
       <c r="I36" s="3">
-        <v>28.078</v>
+        <v>10.968</v>
       </c>
     </row>
     <row r="37" ht="15" spans="1:9">
       <c r="A37" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="3">
-        <v>17012</v>
+        <v>12883</v>
       </c>
       <c r="C37" s="3">
-        <v>169795</v>
+        <v>290780</v>
       </c>
       <c r="D37" s="3">
-        <v>883</v>
+        <v>157</v>
       </c>
       <c r="E37" s="3">
-        <v>166548.32</v>
+        <v>325279.8</v>
       </c>
       <c r="F37" s="3">
-        <v>3246.68</v>
+        <v>-34499.8</v>
       </c>
       <c r="G37" s="3">
-        <v>169795</v>
+        <v>290780</v>
       </c>
       <c r="H37" s="3">
-        <v>3037.275</v>
+        <v>-34826.073</v>
       </c>
       <c r="I37" s="3">
-        <v>209.405</v>
+        <v>326.273</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:9">
       <c r="A38" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="3">
-        <v>37</v>
+        <v>785</v>
       </c>
       <c r="C38" s="3">
-        <v>907</v>
+        <v>19822</v>
       </c>
       <c r="D38" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E38" s="3">
-        <v>0</v>
+        <v>15018.582</v>
       </c>
       <c r="F38" s="3">
-        <v>0</v>
+        <v>4803.418</v>
       </c>
       <c r="G38" s="3">
-        <v>0</v>
+        <v>19822</v>
       </c>
       <c r="H38" s="3">
-        <v>0</v>
+        <v>4803.418</v>
       </c>
       <c r="I38" s="3">
         <v>0</v>
@@ -6317,86 +6240,86 @@
     </row>
     <row r="39" ht="24" spans="1:9">
       <c r="A39" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39" s="3">
-        <v>3253</v>
+        <v>1507</v>
       </c>
       <c r="C39" s="3">
-        <v>72627</v>
+        <v>70026</v>
       </c>
       <c r="D39" s="3">
         <v>0</v>
       </c>
       <c r="E39" s="3">
-        <v>72442.57</v>
+        <v>75789.644</v>
       </c>
       <c r="F39" s="3">
-        <v>184.43</v>
+        <v>-5763.644</v>
       </c>
       <c r="G39" s="3">
-        <v>72627</v>
+        <v>70026</v>
       </c>
       <c r="H39" s="3">
-        <v>164.208</v>
+        <v>-5893.0645</v>
       </c>
       <c r="I39" s="3">
-        <v>20.222</v>
+        <v>129.4205</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:9">
       <c r="A40" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40" s="3">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C40" s="3">
-        <v>15</v>
+        <v>945</v>
       </c>
       <c r="D40" s="3">
         <v>0</v>
       </c>
       <c r="E40" s="3">
-        <v>0</v>
+        <v>1192.76</v>
       </c>
       <c r="F40" s="3">
-        <v>15</v>
+        <v>-247.76</v>
       </c>
       <c r="G40" s="3">
-        <v>15</v>
+        <v>945</v>
       </c>
       <c r="H40" s="3">
-        <v>14.97</v>
+        <v>-249.15</v>
       </c>
       <c r="I40" s="3">
-        <v>0.03</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:9">
       <c r="A41" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B41" s="3">
-        <v>178</v>
+        <v>69</v>
       </c>
       <c r="C41" s="3">
-        <v>4871</v>
+        <v>6255</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>7964.84</v>
+        <v>7802.281</v>
       </c>
       <c r="F41" s="3">
-        <v>-3493.84</v>
+        <v>-1547.281</v>
       </c>
       <c r="G41" s="3">
-        <v>4471</v>
+        <v>6255</v>
       </c>
       <c r="H41" s="3">
-        <v>-3493.84</v>
+        <v>-1547.281</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -6404,94 +6327,94 @@
     </row>
     <row r="42" ht="15" spans="1:9">
       <c r="A42" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="3">
-        <v>4261</v>
+        <v>5974</v>
       </c>
       <c r="C42" s="3">
-        <v>13466</v>
+        <v>164171</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>13719.39</v>
+        <v>141970.24</v>
       </c>
       <c r="F42" s="3">
-        <v>-253.39</v>
+        <v>22200.76</v>
       </c>
       <c r="G42" s="3">
-        <v>13466</v>
+        <v>164171</v>
       </c>
       <c r="H42" s="3">
-        <v>-280.892</v>
+        <v>21931.806</v>
       </c>
       <c r="I42" s="3">
-        <v>27.502</v>
+        <v>268.954</v>
       </c>
     </row>
     <row r="43" ht="24" spans="1:9">
       <c r="A43" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B43" s="3">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="C43" s="3">
-        <v>1737</v>
+        <v>2561</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>1110.544</v>
+        <v>2497</v>
       </c>
       <c r="F43" s="3">
-        <v>626.456</v>
+        <v>64</v>
       </c>
       <c r="G43" s="3">
-        <v>1737</v>
+        <v>2561</v>
       </c>
       <c r="H43" s="3">
-        <v>625.716</v>
+        <v>64</v>
       </c>
       <c r="I43" s="3">
-        <v>0.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:9">
       <c r="A44" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B44" s="4">
-        <v>25674</v>
+        <v>47237</v>
       </c>
       <c r="C44" s="4">
-        <v>450957</v>
+        <v>1382594</v>
       </c>
       <c r="D44" s="4">
-        <v>3403</v>
+        <v>9373</v>
       </c>
       <c r="E44" s="4">
-        <v>424799.1</v>
+        <v>1357408.64</v>
       </c>
       <c r="F44" s="4">
-        <v>26157.9</v>
+        <v>25185.36</v>
       </c>
       <c r="G44" s="4">
-        <v>450957</v>
+        <v>1382594</v>
       </c>
       <c r="H44" s="4">
-        <v>25615.661</v>
+        <v>23548.502</v>
       </c>
       <c r="I44" s="4">
-        <v>542.239</v>
+        <v>1636.858</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B45" s="1">
         <v>0</v>
@@ -6520,7 +6443,7 @@
     </row>
     <row r="46" ht="15" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B46" s="1">
         <v>0</v>
@@ -6549,7 +6472,7 @@
     </row>
     <row r="47" ht="15" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
@@ -6578,7 +6501,7 @@
     </row>
     <row r="48" ht="15" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
@@ -6607,7 +6530,7 @@
     </row>
     <row r="49" ht="15" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B49" s="1">
         <v>0</v>
@@ -6636,7 +6559,7 @@
     </row>
     <row r="50" ht="15" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
@@ -6665,7 +6588,7 @@
     </row>
     <row r="51" ht="15" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
@@ -6694,7 +6617,7 @@
     </row>
     <row r="52" ht="15" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
@@ -6723,7 +6646,7 @@
     </row>
     <row r="53" ht="15" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
@@ -6752,7 +6675,7 @@
     </row>
     <row r="54" ht="15" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B54" s="1">
         <v>0</v>
@@ -6781,7 +6704,7 @@
     </row>
     <row r="55" ht="15" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B55" s="1">
         <v>0</v>
@@ -6810,7 +6733,7 @@
     </row>
     <row r="56" ht="15" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
@@ -6839,7 +6762,7 @@
     </row>
     <row r="57" ht="15" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B57" s="1">
         <v>0</v>
@@ -6868,7 +6791,7 @@
     </row>
     <row r="58" ht="15" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -6897,7 +6820,7 @@
     </row>
     <row r="59" ht="15" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
@@ -6926,7 +6849,7 @@
     </row>
     <row r="60" ht="15" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B60" s="1">
         <v>0</v>
@@ -6955,88 +6878,88 @@
     </row>
     <row r="61" ht="15" spans="1:9">
       <c r="A61" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" ht="15" spans="1:9">
+      <c r="A62" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="1">
-        <v>0</v>
-      </c>
-      <c r="C61" s="1">
-        <v>0</v>
-      </c>
-      <c r="D61" s="1">
-        <v>0</v>
-      </c>
-      <c r="E61" s="1">
-        <v>0</v>
-      </c>
-      <c r="F61" s="1">
-        <v>0</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0</v>
-      </c>
-      <c r="H61" s="1">
-        <v>0</v>
-      </c>
-      <c r="I61" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" ht="15" spans="1:9">
-      <c r="A62" s="1" t="s">
+      <c r="B62" s="2">
+        <v>0</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" ht="15" spans="1:9">
+      <c r="A63" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="1">
-        <v>0</v>
-      </c>
-      <c r="C62" s="1">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1">
-        <v>0</v>
-      </c>
-      <c r="E62" s="1">
-        <v>0</v>
-      </c>
-      <c r="F62" s="1">
-        <v>0</v>
-      </c>
-      <c r="G62" s="1">
-        <v>0</v>
-      </c>
-      <c r="H62" s="1">
-        <v>0</v>
-      </c>
-      <c r="I62" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" ht="15" spans="1:9">
-      <c r="A63" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B63" s="2">
-        <v>0</v>
-      </c>
-      <c r="C63" s="2">
-        <v>0</v>
-      </c>
-      <c r="D63" s="2">
-        <v>0</v>
-      </c>
-      <c r="E63" s="2">
-        <v>0</v>
-      </c>
-      <c r="F63" s="2">
-        <v>0</v>
-      </c>
-      <c r="G63" s="2">
-        <v>0</v>
-      </c>
-      <c r="H63" s="2">
-        <v>0</v>
-      </c>
-      <c r="I63" s="2">
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7052,7 +6975,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7062,28 +6985,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
       </c>
       <c r="E1" t="s">
         <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
@@ -7091,94 +7014,94 @@
     </row>
     <row r="2" ht="15" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="3">
-        <v>9.75</v>
+        <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>15.25</v>
+        <v>0</v>
       </c>
       <c r="G2" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H2" s="3">
-        <v>15.15</v>
+        <v>0</v>
       </c>
       <c r="I2" s="3">
-        <v>0.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" ht="24.75" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="3">
-        <v>105</v>
+        <v>292</v>
       </c>
       <c r="C3" s="3">
-        <v>2250</v>
+        <v>28659</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="3">
-        <v>1420</v>
+        <v>25638</v>
       </c>
       <c r="F3" s="3">
-        <v>755</v>
+        <v>1254</v>
       </c>
       <c r="G3" s="3">
-        <v>2175</v>
+        <v>26892</v>
       </c>
       <c r="H3" s="3">
-        <v>750.045</v>
+        <v>1173.279</v>
       </c>
       <c r="I3" s="3">
-        <v>4.625</v>
+        <v>80.586</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>48.75</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="24.75" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -7207,7 +7130,7 @@
     </row>
     <row r="6" ht="24.75" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -7236,7 +7159,7 @@
     </row>
     <row r="7" ht="24.75" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -7265,7 +7188,7 @@
     </row>
     <row r="8" ht="24.75" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -7294,7 +7217,7 @@
     </row>
     <row r="9" ht="24.75" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -7323,94 +7246,94 @@
     </row>
     <row r="10" ht="24.75" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="3">
-        <v>284</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3">
-        <v>14673</v>
+        <v>4380</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>13504.3</v>
+        <v>2913.65</v>
       </c>
       <c r="F10" s="3">
-        <v>-220.3</v>
+        <v>1326.35</v>
       </c>
       <c r="G10" s="3">
-        <v>13284</v>
+        <v>4240</v>
       </c>
       <c r="H10" s="3">
-        <v>-272.142</v>
+        <v>1310.663</v>
       </c>
       <c r="I10" s="3">
-        <v>18.734</v>
+        <v>6.786</v>
       </c>
     </row>
     <row r="11" ht="24.75" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="3">
-        <v>267</v>
+        <v>517</v>
       </c>
       <c r="C11" s="3">
-        <v>42754</v>
+        <v>28998</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>42140.8</v>
+        <v>25832.4</v>
       </c>
       <c r="F11" s="3">
-        <v>-2777.8</v>
+        <v>1927.6</v>
       </c>
       <c r="G11" s="3">
-        <v>39363</v>
+        <v>27760</v>
       </c>
       <c r="H11" s="3">
-        <v>-2922.991</v>
+        <v>1844.02</v>
       </c>
       <c r="I11" s="3">
-        <v>45.528</v>
+        <v>82.68</v>
       </c>
     </row>
     <row r="12" ht="24" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="3">
-        <v>945</v>
+        <v>435</v>
       </c>
       <c r="C12" s="3">
-        <v>68136</v>
+        <v>44034</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>50779.65</v>
+        <v>37037.8</v>
       </c>
       <c r="F12" s="3">
-        <v>10072.35</v>
+        <v>2621.2</v>
       </c>
       <c r="G12" s="3">
-        <v>60852</v>
+        <v>39659</v>
       </c>
       <c r="H12" s="3">
-        <v>9871.659</v>
+        <v>2471.092</v>
       </c>
       <c r="I12" s="3">
-        <v>125.523</v>
+        <v>121.506</v>
       </c>
     </row>
     <row r="13" ht="24.75" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
@@ -7439,36 +7362,36 @@
     </row>
     <row r="14" ht="24.75" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="3">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="C14" s="3">
-        <v>33265</v>
+        <v>502</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>26448.15</v>
+        <v>81.9</v>
       </c>
       <c r="F14" s="3">
-        <v>1985.85</v>
+        <v>420.1</v>
       </c>
       <c r="G14" s="3">
-        <v>28434</v>
+        <v>502</v>
       </c>
       <c r="H14" s="3">
-        <v>1874.525</v>
+        <v>418.512</v>
       </c>
       <c r="I14" s="3">
-        <v>30.124</v>
+        <v>1.342</v>
       </c>
     </row>
     <row r="15" ht="24.75" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -7497,36 +7420,36 @@
     </row>
     <row r="16" ht="24.75" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="3">
-        <v>310</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3">
-        <v>33707</v>
+        <v>1381</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
       <c r="E16" s="3">
-        <v>31825.45</v>
+        <v>1477.5</v>
       </c>
       <c r="F16" s="3">
-        <v>-355.45</v>
+        <v>-338.5</v>
       </c>
       <c r="G16" s="3">
-        <v>31470</v>
+        <v>1139</v>
       </c>
       <c r="H16" s="3">
-        <v>-484.759</v>
+        <v>-342.809</v>
       </c>
       <c r="I16" s="3">
-        <v>35.76</v>
+        <v>1.273</v>
       </c>
     </row>
     <row r="17" ht="24.75" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -7555,36 +7478,36 @@
     </row>
     <row r="18" ht="24.75" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="3">
-        <v>323</v>
+        <v>133</v>
       </c>
       <c r="C18" s="3">
-        <v>42572</v>
+        <v>11771</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>33356.1</v>
+        <v>9929</v>
       </c>
       <c r="F18" s="3">
-        <v>5206.9</v>
+        <v>1087</v>
       </c>
       <c r="G18" s="3">
-        <v>38563</v>
+        <v>11016</v>
       </c>
       <c r="H18" s="3">
-        <v>5051.141</v>
+        <v>1048.759</v>
       </c>
       <c r="I18" s="3">
-        <v>41.084</v>
+        <v>20.628</v>
       </c>
     </row>
     <row r="19" ht="24.75" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -7613,239 +7536,239 @@
     </row>
     <row r="20" ht="24.75" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" s="3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>6.916</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>0.021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" ht="24.75" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="3">
-        <v>329</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3">
-        <v>51292</v>
+        <v>2644</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>44072.35</v>
+        <v>679.8</v>
       </c>
       <c r="F21" s="3">
-        <v>-1886.35</v>
+        <v>1931.2</v>
       </c>
       <c r="G21" s="3">
-        <v>42186</v>
+        <v>2611</v>
       </c>
       <c r="H21" s="3">
-        <v>-2052.574</v>
+        <v>1921.781</v>
       </c>
       <c r="I21" s="3">
-        <v>46.014</v>
+        <v>4.661</v>
       </c>
     </row>
     <row r="22" ht="24.75" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="3">
-        <v>559</v>
+        <v>25</v>
       </c>
       <c r="C22" s="3">
-        <v>79010</v>
+        <v>2090</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>68120.3</v>
+        <v>1764.5</v>
       </c>
       <c r="F22" s="3">
-        <v>5084.7</v>
+        <v>-246.5</v>
       </c>
       <c r="G22" s="3">
-        <v>73205</v>
+        <v>1518</v>
       </c>
       <c r="H22" s="3">
-        <v>4807.592</v>
+        <v>-248.562</v>
       </c>
       <c r="I22" s="3">
-        <v>77.107</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="23" ht="24.75" spans="1:9">
       <c r="A23" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="3">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="C23" s="3">
-        <v>11958</v>
+        <v>13199</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>10055.5</v>
+        <v>12042.8</v>
       </c>
       <c r="F23" s="3">
-        <v>907.5</v>
+        <v>-213.8</v>
       </c>
       <c r="G23" s="3">
-        <v>10963</v>
+        <v>11829</v>
       </c>
       <c r="H23" s="3">
-        <v>872.556</v>
+        <v>-252.476</v>
       </c>
       <c r="I23" s="3">
-        <v>11.247</v>
+        <v>28.101</v>
       </c>
     </row>
     <row r="24" ht="24.75" spans="1:9">
       <c r="A24" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="3">
-        <v>329</v>
+        <v>268</v>
       </c>
       <c r="C24" s="3">
-        <v>84495</v>
+        <v>15516</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>73067.7</v>
+        <v>15755.35</v>
       </c>
       <c r="F24" s="3">
-        <v>772.3</v>
+        <v>-809.35</v>
       </c>
       <c r="G24" s="3">
-        <v>73840</v>
+        <v>14946</v>
       </c>
       <c r="H24" s="3">
-        <v>473.455</v>
+        <v>-858.05</v>
       </c>
       <c r="I24" s="3">
-        <v>77.106</v>
+        <v>37.114</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:9">
       <c r="A25" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="3">
-        <v>2294</v>
+        <v>748</v>
       </c>
       <c r="C25" s="3">
-        <v>134720</v>
+        <v>12035</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
       </c>
       <c r="E25" s="3">
-        <v>134652.9</v>
+        <v>10845.98</v>
       </c>
       <c r="F25" s="3">
-        <v>67.1</v>
+        <v>1189.02</v>
       </c>
       <c r="G25" s="3">
-        <v>134720</v>
+        <v>12035</v>
       </c>
       <c r="H25" s="3">
-        <v>-1667.1125</v>
+        <v>1052.443</v>
       </c>
       <c r="I25" s="3">
-        <v>1537.0665</v>
+        <v>117.856</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:9">
       <c r="A26" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="3">
-        <v>64</v>
+        <v>375</v>
       </c>
       <c r="C26" s="3">
-        <v>672</v>
+        <v>3586</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3">
-        <v>651.2</v>
+        <v>3368.1</v>
       </c>
       <c r="F26" s="3">
-        <v>20.8</v>
+        <v>217.9</v>
       </c>
       <c r="G26" s="3">
-        <v>672</v>
+        <v>3586</v>
       </c>
       <c r="H26" s="3">
-        <v>15.84</v>
+        <v>199.97</v>
       </c>
       <c r="I26" s="3">
-        <v>3.96</v>
+        <v>17.93</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:9">
       <c r="A27" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="3">
-        <v>159</v>
+        <v>297</v>
       </c>
       <c r="C27" s="3">
-        <v>4736</v>
+        <v>8424</v>
       </c>
       <c r="D27" s="3">
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>3613</v>
+        <v>8107.5</v>
       </c>
       <c r="F27" s="3">
-        <v>1123</v>
+        <v>316.5</v>
       </c>
       <c r="G27" s="3">
-        <v>4736</v>
+        <v>8424</v>
       </c>
       <c r="H27" s="3">
-        <v>1122.65</v>
+        <v>316.5</v>
       </c>
       <c r="I27" s="3">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:9">
       <c r="A28" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -7874,65 +7797,65 @@
     </row>
     <row r="29" ht="15" spans="1:9">
       <c r="A29" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C29" s="3">
-        <v>31</v>
+        <v>1609</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>2383.36</v>
       </c>
       <c r="F29" s="3">
-        <v>31</v>
+        <v>-774.36</v>
       </c>
       <c r="G29" s="3">
-        <v>31</v>
+        <v>1609</v>
       </c>
       <c r="H29" s="3">
-        <v>30.597</v>
+        <v>-787.232</v>
       </c>
       <c r="I29" s="3">
-        <v>0.403</v>
+        <v>12.872</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:9">
       <c r="A30" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" s="3">
-        <v>978</v>
+        <v>37</v>
       </c>
       <c r="C30" s="3">
-        <v>11739</v>
+        <v>145</v>
       </c>
       <c r="D30" s="3">
         <v>0</v>
       </c>
       <c r="E30" s="3">
-        <v>12108.75</v>
+        <v>68.6</v>
       </c>
       <c r="F30" s="3">
-        <v>-369.75</v>
+        <v>76.4</v>
       </c>
       <c r="G30" s="3">
-        <v>11739</v>
+        <v>145</v>
       </c>
       <c r="H30" s="3">
-        <v>-454.239</v>
+        <v>74.544</v>
       </c>
       <c r="I30" s="3">
-        <v>80.124</v>
+        <v>1.363</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:9">
       <c r="A31" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -7961,57 +7884,57 @@
     </row>
     <row r="32" ht="15" spans="1:9">
       <c r="A32" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" s="3">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="C32" s="3">
-        <v>312</v>
+        <v>637</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>158.4</v>
+        <v>1080.7</v>
       </c>
       <c r="F32" s="3">
-        <v>153.6</v>
+        <v>-443.7</v>
       </c>
       <c r="G32" s="3">
-        <v>312</v>
+        <v>637</v>
       </c>
       <c r="H32" s="3">
-        <v>152.04</v>
+        <v>-448.069</v>
       </c>
       <c r="I32" s="3">
-        <v>1.56</v>
+        <v>3.629</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:9">
       <c r="A33" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="3">
-        <v>579</v>
+        <v>650</v>
       </c>
       <c r="C33" s="3">
-        <v>7178</v>
+        <v>6123</v>
       </c>
       <c r="D33" s="3">
-        <v>1921</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>5824.229</v>
+        <v>3906.92</v>
       </c>
       <c r="F33" s="3">
-        <v>1248.771</v>
+        <v>2216.08</v>
       </c>
       <c r="G33" s="3">
-        <v>7073</v>
+        <v>6123</v>
       </c>
       <c r="H33" s="3">
-        <v>1248.771</v>
+        <v>2216.08</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
@@ -8019,57 +7942,57 @@
     </row>
     <row r="34" ht="15" spans="1:9">
       <c r="A34" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C34" s="3">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
       </c>
       <c r="E34" s="3">
-        <v>17.64</v>
+        <v>0</v>
       </c>
       <c r="F34" s="3">
-        <v>41.36</v>
+        <v>0</v>
       </c>
       <c r="G34" s="3">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="H34" s="3">
-        <v>40.77</v>
+        <v>0</v>
       </c>
       <c r="I34" s="3">
-        <v>0.059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" ht="24" spans="1:9">
       <c r="A35" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B35" s="3">
-        <v>831</v>
+        <v>548</v>
       </c>
       <c r="C35" s="3">
-        <v>11268</v>
+        <v>3450</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>10339.03</v>
+        <v>3410.232</v>
       </c>
       <c r="F35" s="3">
-        <v>928.97</v>
+        <v>39.768</v>
       </c>
       <c r="G35" s="3">
-        <v>11268</v>
+        <v>3450</v>
       </c>
       <c r="H35" s="3">
-        <v>928.97</v>
+        <v>39.768</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
@@ -8077,86 +8000,86 @@
     </row>
     <row r="36" ht="24" spans="1:9">
       <c r="A36" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" s="3">
-        <v>2084</v>
+        <v>129</v>
       </c>
       <c r="C36" s="3">
-        <v>15456</v>
+        <v>672</v>
       </c>
       <c r="D36" s="3">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="E36" s="3">
-        <v>12316.17</v>
+        <v>376.2</v>
       </c>
       <c r="F36" s="3">
-        <v>3139.83</v>
+        <v>295.8</v>
       </c>
       <c r="G36" s="3">
-        <v>15456</v>
+        <v>672</v>
       </c>
       <c r="H36" s="3">
-        <v>3053.815</v>
+        <v>291.76</v>
       </c>
       <c r="I36" s="3">
-        <v>80.74</v>
+        <v>3.615</v>
       </c>
     </row>
     <row r="37" ht="15" spans="1:9">
       <c r="A37" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="3">
-        <v>6370</v>
+        <v>3147</v>
       </c>
       <c r="C37" s="3">
-        <v>291613</v>
+        <v>155394</v>
       </c>
       <c r="D37" s="3">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="E37" s="3">
-        <v>282820.92</v>
+        <v>181283.48</v>
       </c>
       <c r="F37" s="3">
-        <v>8792.08</v>
+        <v>-25889.48</v>
       </c>
       <c r="G37" s="3">
-        <v>291613</v>
+        <v>155394</v>
       </c>
       <c r="H37" s="3">
-        <v>5099.706</v>
+        <v>-28163.6995</v>
       </c>
       <c r="I37" s="3">
-        <v>3032.812</v>
+        <v>1735.2645</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:9">
       <c r="A38" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="3">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="C38" s="3">
-        <v>255</v>
+        <v>1684</v>
       </c>
       <c r="D38" s="3">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E38" s="3">
-        <v>0</v>
+        <v>683.2</v>
       </c>
       <c r="F38" s="3">
-        <v>0</v>
+        <v>950.8</v>
       </c>
       <c r="G38" s="3">
-        <v>0</v>
+        <v>1634</v>
       </c>
       <c r="H38" s="3">
-        <v>0</v>
+        <v>950.8</v>
       </c>
       <c r="I38" s="3">
         <v>0</v>
@@ -8164,28 +8087,28 @@
     </row>
     <row r="39" ht="24" spans="1:9">
       <c r="A39" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39" s="3">
-        <v>2321</v>
+        <v>1193</v>
       </c>
       <c r="C39" s="3">
-        <v>13008</v>
+        <v>17490</v>
       </c>
       <c r="D39" s="3">
         <v>0</v>
       </c>
       <c r="E39" s="3">
-        <v>13115.641</v>
+        <v>14264.368</v>
       </c>
       <c r="F39" s="3">
-        <v>-107.641</v>
+        <v>3225.632</v>
       </c>
       <c r="G39" s="3">
-        <v>13008</v>
+        <v>17490</v>
       </c>
       <c r="H39" s="3">
-        <v>-107.641</v>
+        <v>3225.632</v>
       </c>
       <c r="I39" s="3">
         <v>0</v>
@@ -8193,152 +8116,152 @@
     </row>
     <row r="40" ht="15" spans="1:9">
       <c r="A40" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40" s="3">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="C40" s="3">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="D40" s="3">
         <v>0</v>
       </c>
       <c r="E40" s="3">
-        <v>335.68</v>
+        <v>0</v>
       </c>
       <c r="F40" s="3">
-        <v>168.32</v>
+        <v>0</v>
       </c>
       <c r="G40" s="3">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="H40" s="3">
-        <v>163.28</v>
+        <v>0</v>
       </c>
       <c r="I40" s="3">
-        <v>0.504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:9">
       <c r="A41" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B41" s="3">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C41" s="3">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>-171</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>-171.144</v>
+        <v>-1.12</v>
       </c>
       <c r="I41" s="3">
-        <v>0.144</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:9">
       <c r="A42" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="3">
-        <v>4164</v>
+        <v>1720</v>
       </c>
       <c r="C42" s="3">
-        <v>10779</v>
+        <v>24023</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>10873.58</v>
+        <v>26356.58</v>
       </c>
       <c r="F42" s="3">
-        <v>-94.58</v>
+        <v>-2333.58</v>
       </c>
       <c r="G42" s="3">
-        <v>10779</v>
+        <v>24023</v>
       </c>
       <c r="H42" s="3">
-        <v>-199.2</v>
+        <v>-2573.87</v>
       </c>
       <c r="I42" s="3">
-        <v>17.757</v>
+        <v>72.129</v>
       </c>
     </row>
     <row r="43" ht="24" spans="1:9">
       <c r="A43" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B43" s="3">
-        <v>2037</v>
+        <v>1457</v>
       </c>
       <c r="C43" s="3">
-        <v>18071</v>
+        <v>10257</v>
       </c>
       <c r="D43" s="3">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>18295.474</v>
+        <v>10484.705</v>
       </c>
       <c r="F43" s="3">
-        <v>-224.474</v>
+        <v>-227.705</v>
       </c>
       <c r="G43" s="3">
-        <v>18071</v>
+        <v>10257</v>
       </c>
       <c r="H43" s="3">
-        <v>-241.31</v>
+        <v>-244.299</v>
       </c>
       <c r="I43" s="3">
-        <v>16.836</v>
+        <v>16.594</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:9">
       <c r="A44" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B44" s="4">
-        <v>278</v>
+        <v>1401</v>
       </c>
       <c r="C44" s="4">
-        <v>1914</v>
+        <v>13474</v>
       </c>
       <c r="D44" s="4">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E44" s="4">
-        <v>2026.17</v>
+        <v>11996.04</v>
       </c>
       <c r="F44" s="4">
-        <v>-112.17</v>
+        <v>1477.96</v>
       </c>
       <c r="G44" s="4">
-        <v>1914</v>
+        <v>13474</v>
       </c>
       <c r="H44" s="4">
-        <v>-125.891</v>
+        <v>1361.991</v>
       </c>
       <c r="I44" s="4">
-        <v>11.9335</v>
+        <v>110.124</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B45" s="1">
         <v>0</v>
@@ -8367,7 +8290,7 @@
     </row>
     <row r="46" ht="15" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B46" s="1">
         <v>0</v>
@@ -8396,7 +8319,7 @@
     </row>
     <row r="47" ht="15" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
@@ -8425,7 +8348,7 @@
     </row>
     <row r="48" ht="15" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
@@ -8454,7 +8377,7 @@
     </row>
     <row r="49" ht="15" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B49" s="1">
         <v>0</v>
@@ -8483,7 +8406,7 @@
     </row>
     <row r="50" ht="15" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
@@ -8512,7 +8435,7 @@
     </row>
     <row r="51" ht="15" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
@@ -8541,7 +8464,7 @@
     </row>
     <row r="52" ht="15" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
@@ -8570,7 +8493,7 @@
     </row>
     <row r="53" ht="15" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
@@ -8599,7 +8522,7 @@
     </row>
     <row r="54" ht="15" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B54" s="1">
         <v>0</v>
@@ -8628,7 +8551,7 @@
     </row>
     <row r="55" ht="15" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B55" s="1">
         <v>0</v>
@@ -8657,7 +8580,7 @@
     </row>
     <row r="56" ht="15" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
@@ -8686,7 +8609,7 @@
     </row>
     <row r="57" ht="15" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B57" s="1">
         <v>0</v>
@@ -8715,7 +8638,7 @@
     </row>
     <row r="58" ht="15" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -8744,7 +8667,7 @@
     </row>
     <row r="59" ht="15" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
@@ -8773,7 +8696,7 @@
     </row>
     <row r="60" ht="15" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B60" s="1">
         <v>0</v>
@@ -8802,88 +8725,88 @@
     </row>
     <row r="61" ht="15" spans="1:9">
       <c r="A61" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" ht="15" spans="1:9">
+      <c r="A62" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="1">
-        <v>0</v>
-      </c>
-      <c r="C61" s="1">
-        <v>0</v>
-      </c>
-      <c r="D61" s="1">
-        <v>0</v>
-      </c>
-      <c r="E61" s="1">
-        <v>0</v>
-      </c>
-      <c r="F61" s="1">
-        <v>0</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0</v>
-      </c>
-      <c r="H61" s="1">
-        <v>0</v>
-      </c>
-      <c r="I61" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" ht="15" spans="1:9">
-      <c r="A62" s="2" t="s">
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" ht="15" spans="1:9">
+      <c r="A63" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="2">
-        <v>0</v>
-      </c>
-      <c r="C62" s="2">
-        <v>0</v>
-      </c>
-      <c r="D62" s="2">
-        <v>0</v>
-      </c>
-      <c r="E62" s="2">
-        <v>0</v>
-      </c>
-      <c r="F62" s="2">
-        <v>0</v>
-      </c>
-      <c r="G62" s="2">
-        <v>0</v>
-      </c>
-      <c r="H62" s="2">
-        <v>0</v>
-      </c>
-      <c r="I62" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" ht="15" spans="1:9">
-      <c r="A63" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B63" s="1">
-        <v>0</v>
-      </c>
-      <c r="C63" s="1">
-        <v>0</v>
-      </c>
-      <c r="D63" s="1">
-        <v>0</v>
-      </c>
-      <c r="E63" s="1">
-        <v>0</v>
-      </c>
-      <c r="F63" s="1">
-        <v>0</v>
-      </c>
-      <c r="G63" s="1">
-        <v>0</v>
-      </c>
-      <c r="H63" s="1">
-        <v>0</v>
-      </c>
-      <c r="I63" s="1">
+      <c r="B63" s="2">
+        <v>0</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2">
         <v>0</v>
       </c>
     </row>
@@ -8898,36 +8821,36 @@
   <sheetPr/>
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
       </c>
       <c r="E1" t="s">
         <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
@@ -8935,7 +8858,7 @@
     </row>
     <row r="2" ht="15" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -8964,7 +8887,7 @@
     </row>
     <row r="3" ht="24.75" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -8993,7 +8916,7 @@
     </row>
     <row r="4" ht="15" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -9022,7 +8945,7 @@
     </row>
     <row r="5" ht="24.75" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -9051,7 +8974,7 @@
     </row>
     <row r="6" ht="24.75" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -9080,7 +9003,7 @@
     </row>
     <row r="7" ht="24.75" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -9109,7 +9032,7 @@
     </row>
     <row r="8" ht="24.75" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -9138,7 +9061,7 @@
     </row>
     <row r="9" ht="24.75" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -9167,71 +9090,71 @@
     </row>
     <row r="10" ht="24.75" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="3">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="C10" s="3">
-        <v>0</v>
+        <v>8560</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>8351</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>-26</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>8325</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>-59.3</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="11" ht="24.75" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>0</v>
+        <v>1775</v>
       </c>
       <c r="F11" s="3">
-        <v>0</v>
+        <v>-475</v>
       </c>
       <c r="G11" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="H11" s="3">
-        <v>0</v>
+        <v>-480.2</v>
       </c>
       <c r="I11" s="3">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="12" ht="24" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
@@ -9240,21 +9163,21 @@
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>54.78</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="13" ht="24.75" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
@@ -9283,36 +9206,36 @@
     </row>
     <row r="14" ht="24.75" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>11915</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>11871.25</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>-841.25</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>11030</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>-885.37</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>44.12</v>
       </c>
     </row>
     <row r="15" ht="24.75" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -9341,36 +9264,36 @@
     </row>
     <row r="16" ht="24.75" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>2540</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>3299.5</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>-1214.5</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>2085</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>-1222.84</v>
       </c>
       <c r="I16" s="3">
-        <v>0</v>
+        <v>8.34</v>
       </c>
     </row>
     <row r="17" ht="24.75" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -9399,7 +9322,7 @@
     </row>
     <row r="18" ht="24.75" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="3">
         <v>0</v>
@@ -9428,7 +9351,7 @@
     </row>
     <row r="19" ht="24.75" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -9457,7 +9380,7 @@
     </row>
     <row r="20" ht="24.75" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -9486,123 +9409,123 @@
     </row>
     <row r="21" ht="24.75" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C21" s="3">
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>1609</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-399</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>1210</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>-403.84</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="22" ht="24.75" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C22" s="3">
-        <v>0</v>
+        <v>18600</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>17100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>-1240.4</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>340.4</v>
       </c>
     </row>
     <row r="23" ht="24.75" spans="1:9">
       <c r="A23" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="3">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="C23" s="3">
-        <v>0</v>
+        <v>14650</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>13918.5</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-503.5</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>13415</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-557.16</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>53.66</v>
       </c>
     </row>
     <row r="24" ht="24.75" spans="1:9">
       <c r="A24" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C24" s="3">
-        <v>0</v>
+        <v>2490</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>254.5</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>1455.5</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>1710</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>1448.66</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:9">
       <c r="A25" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
@@ -9631,7 +9554,7 @@
     </row>
     <row r="26" ht="15" spans="1:9">
       <c r="A26" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="3">
         <v>0</v>
@@ -9660,7 +9583,7 @@
     </row>
     <row r="27" ht="15" spans="1:9">
       <c r="A27" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -9689,7 +9612,7 @@
     </row>
     <row r="28" ht="15" spans="1:9">
       <c r="A28" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -9718,7 +9641,7 @@
     </row>
     <row r="29" ht="15" spans="1:9">
       <c r="A29" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -9747,7 +9670,7 @@
     </row>
     <row r="30" ht="15" spans="1:9">
       <c r="A30" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -9776,7 +9699,7 @@
     </row>
     <row r="31" ht="15" spans="1:9">
       <c r="A31" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -9805,7 +9728,7 @@
     </row>
     <row r="32" ht="15" spans="1:9">
       <c r="A32" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -9834,36 +9757,36 @@
     </row>
     <row r="33" ht="15" spans="1:9">
       <c r="A33" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="3">
-        <v>250</v>
+        <v>159</v>
       </c>
       <c r="C33" s="3">
-        <v>63650</v>
+        <v>73804</v>
       </c>
       <c r="D33" s="3">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>82814.677</v>
+        <v>81751</v>
       </c>
       <c r="F33" s="3">
-        <v>-19164.677</v>
+        <v>-7947</v>
       </c>
       <c r="G33" s="3">
-        <v>63650</v>
+        <v>73804</v>
       </c>
       <c r="H33" s="3">
-        <v>-19288.527</v>
+        <v>-8379.2</v>
       </c>
       <c r="I33" s="3">
-        <v>123.85</v>
+        <v>432.2</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:9">
       <c r="A34" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="3">
         <v>0</v>
@@ -9892,7 +9815,7 @@
     </row>
     <row r="35" ht="24" spans="1:9">
       <c r="A35" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
@@ -9921,7 +9844,7 @@
     </row>
     <row r="36" ht="24" spans="1:9">
       <c r="A36" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" s="3">
         <v>0</v>
@@ -9950,57 +9873,57 @@
     </row>
     <row r="37" ht="15" spans="1:9">
       <c r="A37" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="3">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C37" s="3">
-        <v>142</v>
+        <v>207</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
       </c>
       <c r="E37" s="3">
-        <v>186.2</v>
+        <v>39.2</v>
       </c>
       <c r="F37" s="3">
-        <v>-44.2</v>
+        <v>167.8</v>
       </c>
       <c r="G37" s="3">
-        <v>142</v>
+        <v>207</v>
       </c>
       <c r="H37" s="3">
-        <v>-44.626</v>
+        <v>166.765</v>
       </c>
       <c r="I37" s="3">
-        <v>0.426</v>
+        <v>1.035</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:9">
       <c r="A38" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="3">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C38" s="3">
-        <v>0</v>
+        <v>1877</v>
       </c>
       <c r="D38" s="3">
         <v>0</v>
       </c>
       <c r="E38" s="3">
-        <v>0</v>
+        <v>341.055</v>
       </c>
       <c r="F38" s="3">
-        <v>0</v>
+        <v>1535.945</v>
       </c>
       <c r="G38" s="3">
-        <v>0</v>
+        <v>1877</v>
       </c>
       <c r="H38" s="3">
-        <v>0</v>
+        <v>1535.945</v>
       </c>
       <c r="I38" s="3">
         <v>0</v>
@@ -10008,28 +9931,28 @@
     </row>
     <row r="39" ht="24" spans="1:9">
       <c r="A39" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C39" s="3">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="D39" s="3">
         <v>0</v>
       </c>
       <c r="E39" s="3">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F39" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G39" s="3">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="H39" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I39" s="3">
         <v>0</v>
@@ -10037,7 +9960,7 @@
     </row>
     <row r="40" ht="15" spans="1:9">
       <c r="A40" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40" s="3">
         <v>0</v>
@@ -10066,7 +9989,7 @@
     </row>
     <row r="41" ht="15" spans="1:9">
       <c r="A41" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B41" s="3">
         <v>0</v>
@@ -10095,94 +10018,94 @@
     </row>
     <row r="42" ht="15" spans="1:9">
       <c r="A42" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C42" s="3">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>125.44</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>53.56</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>53.023</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>0.537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" ht="24" spans="1:9">
       <c r="A43" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" ht="15" spans="1:9">
+      <c r="A44" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="3">
-        <v>0</v>
-      </c>
-      <c r="C43" s="3">
-        <v>0</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" ht="15" spans="1:9">
-      <c r="A44" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="3">
-        <v>0</v>
-      </c>
-      <c r="C44" s="3">
-        <v>0</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B45" s="1">
         <v>0</v>
@@ -10211,7 +10134,7 @@
     </row>
     <row r="46" ht="15" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B46" s="1">
         <v>0</v>
@@ -10240,7 +10163,7 @@
     </row>
     <row r="47" ht="15" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
@@ -10269,7 +10192,7 @@
     </row>
     <row r="48" ht="15" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
@@ -10298,7 +10221,7 @@
     </row>
     <row r="49" ht="15" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B49" s="1">
         <v>0</v>
@@ -10327,7 +10250,7 @@
     </row>
     <row r="50" ht="15" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
@@ -10356,7 +10279,7 @@
     </row>
     <row r="51" ht="15" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
@@ -10385,7 +10308,7 @@
     </row>
     <row r="52" ht="15" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
@@ -10414,7 +10337,7 @@
     </row>
     <row r="53" ht="15" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
@@ -10443,7 +10366,7 @@
     </row>
     <row r="54" ht="15" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B54" s="1">
         <v>0</v>
@@ -10472,7 +10395,7 @@
     </row>
     <row r="55" ht="15" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B55" s="1">
         <v>0</v>
@@ -10501,7 +10424,7 @@
     </row>
     <row r="56" ht="15" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
@@ -10530,7 +10453,7 @@
     </row>
     <row r="57" ht="15" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B57" s="1">
         <v>0</v>
@@ -10559,7 +10482,7 @@
     </row>
     <row r="58" ht="15" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -10588,7 +10511,7 @@
     </row>
     <row r="59" ht="15" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
@@ -10617,7 +10540,7 @@
     </row>
     <row r="60" ht="15" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B60" s="1">
         <v>0</v>
@@ -10646,7 +10569,7 @@
     </row>
     <row r="61" ht="15" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B61" s="1">
         <v>0</v>
@@ -10675,7 +10598,7 @@
     </row>
     <row r="62" ht="15" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B62" s="1">
         <v>0</v>
@@ -10704,7 +10627,7 @@
     </row>
     <row r="63" ht="15" spans="1:9">
       <c r="A63" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2">
         <v>0</v>
@@ -10743,35 +10666,35 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="J21" sqref="J21:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
       </c>
       <c r="E1" t="s">
         <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
@@ -10779,7 +10702,7 @@
     </row>
     <row r="2" ht="15" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -10808,7 +10731,7 @@
     </row>
     <row r="3" ht="24.75" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -10837,7 +10760,7 @@
     </row>
     <row r="4" ht="15" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -10866,7 +10789,7 @@
     </row>
     <row r="5" ht="24.75" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -10895,7 +10818,7 @@
     </row>
     <row r="6" ht="24.75" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -10924,7 +10847,7 @@
     </row>
     <row r="7" ht="24.75" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -10953,7 +10876,7 @@
     </row>
     <row r="8" ht="24.75" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -10982,7 +10905,7 @@
     </row>
     <row r="9" ht="24.75" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -11011,7 +10934,7 @@
     </row>
     <row r="10" ht="24.75" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -11040,7 +10963,7 @@
     </row>
     <row r="11" ht="24.75" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -11069,7 +10992,7 @@
     </row>
     <row r="12" ht="24" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -11098,7 +11021,7 @@
     </row>
     <row r="13" ht="24.75" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -11127,7 +11050,7 @@
     </row>
     <row r="14" ht="24.75" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -11156,7 +11079,7 @@
     </row>
     <row r="15" ht="24.75" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -11185,7 +11108,7 @@
     </row>
     <row r="16" ht="24.75" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -11214,7 +11137,7 @@
     </row>
     <row r="17" ht="24.75" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -11243,7 +11166,7 @@
     </row>
     <row r="18" ht="24.75" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -11272,7 +11195,7 @@
     </row>
     <row r="19" ht="24.75" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -11301,7 +11224,7 @@
     </row>
     <row r="20" ht="24.75" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -11330,7 +11253,7 @@
     </row>
     <row r="21" ht="24.75" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -11359,7 +11282,7 @@
     </row>
     <row r="22" ht="24.75" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -11388,7 +11311,7 @@
     </row>
     <row r="23" ht="24.75" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -11417,7 +11340,7 @@
     </row>
     <row r="24" ht="24.75" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -11446,7 +11369,7 @@
     </row>
     <row r="25" ht="15" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -11475,7 +11398,7 @@
     </row>
     <row r="26" ht="15" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -11504,7 +11427,7 @@
     </row>
     <row r="27" ht="15" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -11533,7 +11456,7 @@
     </row>
     <row r="28" ht="15" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -11562,7 +11485,7 @@
     </row>
     <row r="29" ht="15" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -11591,7 +11514,7 @@
     </row>
     <row r="30" ht="15" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -11620,7 +11543,7 @@
     </row>
     <row r="31" ht="15" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -11649,7 +11572,7 @@
     </row>
     <row r="32" ht="15" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -11678,7 +11601,7 @@
     </row>
     <row r="33" ht="15" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
@@ -11707,7 +11630,7 @@
     </row>
     <row r="34" ht="15" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
@@ -11736,7 +11659,7 @@
     </row>
     <row r="35" ht="24" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
@@ -11765,7 +11688,7 @@
     </row>
     <row r="36" ht="24" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
@@ -11794,7 +11717,7 @@
     </row>
     <row r="37" ht="15" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
@@ -11823,7 +11746,7 @@
     </row>
     <row r="38" ht="15" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
@@ -11852,7 +11775,7 @@
     </row>
     <row r="39" ht="24" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
@@ -11881,7 +11804,7 @@
     </row>
     <row r="40" ht="15" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40" s="1">
         <v>0</v>
@@ -11910,7 +11833,7 @@
     </row>
     <row r="41" ht="15" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
@@ -11939,7 +11862,7 @@
     </row>
     <row r="42" ht="15" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -11968,7 +11891,7 @@
     </row>
     <row r="43" ht="24" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
@@ -11997,7 +11920,7 @@
     </row>
     <row r="44" ht="15" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B44" s="1">
         <v>0</v>
@@ -12026,7 +11949,7 @@
     </row>
     <row r="45" ht="15" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B45" s="1">
         <v>0</v>
@@ -12055,7 +11978,7 @@
     </row>
     <row r="46" ht="15" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B46" s="1">
         <v>0</v>
@@ -12084,7 +12007,7 @@
     </row>
     <row r="47" ht="15" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
@@ -12113,7 +12036,7 @@
     </row>
     <row r="48" ht="15" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
@@ -12142,7 +12065,7 @@
     </row>
     <row r="49" ht="15" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B49" s="1">
         <v>0</v>
@@ -12171,7 +12094,7 @@
     </row>
     <row r="50" ht="15" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
@@ -12200,7 +12123,7 @@
     </row>
     <row r="51" ht="15" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
@@ -12229,7 +12152,7 @@
     </row>
     <row r="52" ht="15" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
@@ -12258,7 +12181,7 @@
     </row>
     <row r="53" ht="15" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
@@ -12287,7 +12210,7 @@
     </row>
     <row r="54" ht="15" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B54" s="1">
         <v>0</v>
@@ -12316,7 +12239,7 @@
     </row>
     <row r="55" ht="15" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B55" s="1">
         <v>0</v>
@@ -12345,7 +12268,7 @@
     </row>
     <row r="56" ht="15" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
@@ -12374,7 +12297,7 @@
     </row>
     <row r="57" ht="15" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B57" s="1">
         <v>0</v>
@@ -12403,7 +12326,7 @@
     </row>
     <row r="58" ht="15" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -12432,7 +12355,7 @@
     </row>
     <row r="59" ht="15" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
@@ -12461,7 +12384,7 @@
     </row>
     <row r="60" ht="15" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B60" s="1">
         <v>0</v>
@@ -12490,7 +12413,7 @@
     </row>
     <row r="61" ht="15" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B61" s="1">
         <v>0</v>
@@ -12519,7 +12442,7 @@
     </row>
     <row r="62" ht="15" spans="1:9">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B62" s="2">
         <v>0</v>
@@ -12548,7 +12471,7 @@
     </row>
     <row r="63" ht="15" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B63" s="1">
         <v>0</v>
@@ -12586,36 +12509,36 @@
   <sheetPr/>
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
       </c>
       <c r="E1" t="s">
         <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
@@ -12623,7 +12546,7 @@
     </row>
     <row r="2" ht="15" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -12652,7 +12575,7 @@
     </row>
     <row r="3" ht="24.75" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -12681,7 +12604,7 @@
     </row>
     <row r="4" ht="15" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -12710,7 +12633,7 @@
     </row>
     <row r="5" ht="24.75" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -12739,7 +12662,7 @@
     </row>
     <row r="6" ht="24.75" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -12768,7 +12691,7 @@
     </row>
     <row r="7" ht="24.75" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -12797,7 +12720,7 @@
     </row>
     <row r="8" ht="24.75" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -12826,7 +12749,7 @@
     </row>
     <row r="9" ht="24.75" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -12855,7 +12778,7 @@
     </row>
     <row r="10" ht="24.75" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -12884,7 +12807,7 @@
     </row>
     <row r="11" ht="24.75" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -12913,7 +12836,7 @@
     </row>
     <row r="12" ht="24" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -12942,7 +12865,7 @@
     </row>
     <row r="13" ht="24.75" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -12971,7 +12894,7 @@
     </row>
     <row r="14" ht="24.75" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -13000,7 +12923,7 @@
     </row>
     <row r="15" ht="24.75" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -13029,7 +12952,7 @@
     </row>
     <row r="16" ht="24.75" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -13058,7 +12981,7 @@
     </row>
     <row r="17" ht="24.75" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -13087,7 +13010,7 @@
     </row>
     <row r="18" ht="24.75" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -13116,7 +13039,7 @@
     </row>
     <row r="19" ht="24.75" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -13145,7 +13068,7 @@
     </row>
     <row r="20" ht="24.75" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -13174,7 +13097,7 @@
     </row>
     <row r="21" ht="24.75" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -13203,7 +13126,7 @@
     </row>
     <row r="22" ht="24.75" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -13232,7 +13155,7 @@
     </row>
     <row r="23" ht="24.75" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -13261,7 +13184,7 @@
     </row>
     <row r="24" ht="24.75" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -13290,7 +13213,7 @@
     </row>
     <row r="25" ht="15" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -13319,7 +13242,7 @@
     </row>
     <row r="26" ht="15" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -13348,7 +13271,7 @@
     </row>
     <row r="27" ht="15" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -13377,7 +13300,7 @@
     </row>
     <row r="28" ht="15" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -13406,7 +13329,7 @@
     </row>
     <row r="29" ht="15" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -13435,7 +13358,7 @@
     </row>
     <row r="30" ht="15" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -13464,7 +13387,7 @@
     </row>
     <row r="31" ht="15" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -13493,7 +13416,7 @@
     </row>
     <row r="32" ht="15" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -13522,7 +13445,7 @@
     </row>
     <row r="33" ht="15" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
@@ -13551,7 +13474,7 @@
     </row>
     <row r="34" ht="15" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
@@ -13580,7 +13503,7 @@
     </row>
     <row r="35" ht="24" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
@@ -13609,7 +13532,7 @@
     </row>
     <row r="36" ht="24" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
@@ -13638,7 +13561,7 @@
     </row>
     <row r="37" ht="15" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
@@ -13667,7 +13590,7 @@
     </row>
     <row r="38" ht="15" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
@@ -13696,7 +13619,7 @@
     </row>
     <row r="39" ht="24" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
@@ -13725,7 +13648,7 @@
     </row>
     <row r="40" ht="15" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40" s="1">
         <v>0</v>
@@ -13754,7 +13677,7 @@
     </row>
     <row r="41" ht="15" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
@@ -13783,7 +13706,7 @@
     </row>
     <row r="42" ht="15" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -13812,7 +13735,7 @@
     </row>
     <row r="43" ht="24" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
@@ -13841,7 +13764,7 @@
     </row>
     <row r="44" ht="15" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B44" s="1">
         <v>0</v>
@@ -13870,7 +13793,7 @@
     </row>
     <row r="45" ht="15" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B45" s="1">
         <v>0</v>
@@ -13899,7 +13822,7 @@
     </row>
     <row r="46" ht="15" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B46" s="1">
         <v>0</v>
@@ -13928,7 +13851,7 @@
     </row>
     <row r="47" ht="15" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
@@ -13957,7 +13880,7 @@
     </row>
     <row r="48" ht="15" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
@@ -13986,7 +13909,7 @@
     </row>
     <row r="49" ht="15" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B49" s="1">
         <v>0</v>
@@ -14015,7 +13938,7 @@
     </row>
     <row r="50" ht="15" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
@@ -14044,7 +13967,7 @@
     </row>
     <row r="51" ht="15" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
@@ -14073,7 +13996,7 @@
     </row>
     <row r="52" ht="15" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
@@ -14102,7 +14025,7 @@
     </row>
     <row r="53" ht="15" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
@@ -14131,7 +14054,7 @@
     </row>
     <row r="54" ht="15" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B54" s="1">
         <v>0</v>
@@ -14160,7 +14083,7 @@
     </row>
     <row r="55" ht="15" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B55" s="1">
         <v>0</v>
@@ -14189,7 +14112,7 @@
     </row>
     <row r="56" ht="15" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
@@ -14218,7 +14141,7 @@
     </row>
     <row r="57" ht="15" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B57" s="1">
         <v>0</v>
@@ -14247,7 +14170,7 @@
     </row>
     <row r="58" ht="15" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -14276,7 +14199,7 @@
     </row>
     <row r="59" ht="15" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
@@ -14305,7 +14228,7 @@
     </row>
     <row r="60" ht="15" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B60" s="1">
         <v>0</v>
@@ -14334,7 +14257,7 @@
     </row>
     <row r="61" ht="15" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B61" s="1">
         <v>0</v>
@@ -14363,7 +14286,7 @@
     </row>
     <row r="62" ht="15" spans="1:9">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B62" s="2">
         <v>0</v>
@@ -14392,7 +14315,7 @@
     </row>
     <row r="63" ht="15" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B63" s="1">
         <v>0</v>
